--- a/ExcelReport/excel/Form_CFP.xlsx
+++ b/ExcelReport/excel/Form_CFP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carbon_2025\ExcelReport\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2517AED9-6C42-4EFE-B137-D9BA0AFE29C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA8E53C-1D54-4D78-A78A-6F4F72938207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2460" windowWidth="29040" windowHeight="15720" tabRatio="910" activeTab="5" xr2:uid="{0BFDB211-9E44-439F-BD4B-8C07F5A57B68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" tabRatio="910" activeTab="5" xr2:uid="{0BFDB211-9E44-439F-BD4B-8C07F5A57B68}"/>
   </bookViews>
   <sheets>
     <sheet name="Fr-01" sheetId="4" r:id="rId1"/>
@@ -2935,58 +2935,137 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2995,15 +3074,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3035,127 +3105,108 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3228,72 +3279,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="5" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3315,40 +3300,97 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="5" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="32" fillId="27" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3359,6 +3401,15 @@
     </xf>
     <xf numFmtId="2" fontId="32" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3445,205 +3496,58 @@
     <xf numFmtId="165" fontId="32" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="42" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="42" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3702,29 +3606,248 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="42" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="42" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3735,125 +3858,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3864,103 +3948,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3969,8 +3987,6 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="26" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3998,58 +4014,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4111,17 +4098,33 @@
     <xf numFmtId="0" fontId="32" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4177,11 +4180,8 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5939,456 +5939,456 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="307" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="239"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="308"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="240">
+      <c r="A2" s="309">
         <v>1</v>
       </c>
-      <c r="B2" s="241"/>
+      <c r="B2" s="310"/>
       <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="250" t="s">
+      <c r="D2" s="319" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="252"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="320"/>
+      <c r="H2" s="321"/>
       <c r="I2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="243"/>
+      <c r="J2" s="311"/>
+      <c r="K2" s="311"/>
+      <c r="L2" s="312"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="240"/>
-      <c r="B3" s="241"/>
-      <c r="C3" s="247" t="s">
+      <c r="A3" s="309"/>
+      <c r="B3" s="310"/>
+      <c r="C3" s="316" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="248"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="244" t="s">
+      <c r="D3" s="317"/>
+      <c r="E3" s="318"/>
+      <c r="F3" s="313" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="246"/>
+      <c r="G3" s="314"/>
+      <c r="H3" s="314"/>
+      <c r="I3" s="314"/>
+      <c r="J3" s="314"/>
+      <c r="K3" s="314"/>
+      <c r="L3" s="315"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="240"/>
-      <c r="B4" s="241"/>
-      <c r="C4" s="247" t="s">
+      <c r="A4" s="309"/>
+      <c r="B4" s="310"/>
+      <c r="C4" s="316" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="248"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="244" t="s">
+      <c r="D4" s="317"/>
+      <c r="E4" s="318"/>
+      <c r="F4" s="313" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="245"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="245"/>
-      <c r="J4" s="245"/>
-      <c r="K4" s="245"/>
-      <c r="L4" s="246"/>
+      <c r="G4" s="314"/>
+      <c r="H4" s="314"/>
+      <c r="I4" s="314"/>
+      <c r="J4" s="314"/>
+      <c r="K4" s="314"/>
+      <c r="L4" s="315"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="240"/>
-      <c r="B5" s="241"/>
-      <c r="C5" s="247" t="s">
+      <c r="A5" s="309"/>
+      <c r="B5" s="310"/>
+      <c r="C5" s="316" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="248"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="253"/>
-      <c r="G5" s="254"/>
-      <c r="H5" s="254"/>
-      <c r="I5" s="254"/>
-      <c r="J5" s="254"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="255"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="318"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="323"/>
+      <c r="H5" s="323"/>
+      <c r="I5" s="323"/>
+      <c r="J5" s="323"/>
+      <c r="K5" s="323"/>
+      <c r="L5" s="324"/>
     </row>
     <row r="6" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A6" s="240"/>
-      <c r="B6" s="241"/>
-      <c r="C6" s="247" t="s">
+      <c r="A6" s="309"/>
+      <c r="B6" s="310"/>
+      <c r="C6" s="316" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="248"/>
-      <c r="E6" s="249"/>
-      <c r="F6" s="253"/>
-      <c r="G6" s="254"/>
-      <c r="H6" s="254"/>
-      <c r="I6" s="254"/>
-      <c r="J6" s="254"/>
-      <c r="K6" s="254"/>
-      <c r="L6" s="255"/>
+      <c r="D6" s="317"/>
+      <c r="E6" s="318"/>
+      <c r="F6" s="322"/>
+      <c r="G6" s="323"/>
+      <c r="H6" s="323"/>
+      <c r="I6" s="323"/>
+      <c r="J6" s="323"/>
+      <c r="K6" s="323"/>
+      <c r="L6" s="324"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="266" t="s">
+      <c r="A7" s="292" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="267"/>
-      <c r="C7" s="274" t="s">
+      <c r="B7" s="293"/>
+      <c r="C7" s="300" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="275"/>
-      <c r="E7" s="276"/>
-      <c r="F7" s="276"/>
-      <c r="G7" s="276"/>
-      <c r="H7" s="276"/>
-      <c r="I7" s="276"/>
-      <c r="J7" s="276"/>
-      <c r="K7" s="276"/>
-      <c r="L7" s="277"/>
+      <c r="D7" s="301"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="302"/>
+      <c r="I7" s="302"/>
+      <c r="J7" s="302"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="303"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="266"/>
-      <c r="B8" s="267"/>
-      <c r="C8" s="270" t="s">
+      <c r="A8" s="292"/>
+      <c r="B8" s="293"/>
+      <c r="C8" s="296" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="271"/>
-      <c r="E8" s="272"/>
-      <c r="F8" s="272"/>
-      <c r="G8" s="272"/>
-      <c r="H8" s="272"/>
-      <c r="I8" s="272"/>
-      <c r="J8" s="272"/>
-      <c r="K8" s="272"/>
-      <c r="L8" s="273"/>
+      <c r="D8" s="297"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="298"/>
+      <c r="I8" s="298"/>
+      <c r="J8" s="298"/>
+      <c r="K8" s="298"/>
+      <c r="L8" s="299"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="268"/>
-      <c r="B9" s="268"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="268"/>
-      <c r="G9" s="268"/>
-      <c r="H9" s="268"/>
-      <c r="I9" s="268"/>
-      <c r="J9" s="268"/>
-      <c r="K9" s="268"/>
-      <c r="L9" s="269"/>
+      <c r="A9" s="294"/>
+      <c r="B9" s="294"/>
+      <c r="C9" s="294"/>
+      <c r="D9" s="294"/>
+      <c r="E9" s="294"/>
+      <c r="F9" s="294"/>
+      <c r="G9" s="294"/>
+      <c r="H9" s="294"/>
+      <c r="I9" s="294"/>
+      <c r="J9" s="294"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="295"/>
     </row>
     <row r="10" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="317" t="s">
+      <c r="A10" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="317"/>
-      <c r="C10" s="317"/>
-      <c r="D10" s="317"/>
-      <c r="E10" s="317"/>
-      <c r="F10" s="318"/>
-      <c r="G10" s="322"/>
-      <c r="H10" s="256" t="s">
+      <c r="B10" s="255"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="262"/>
+      <c r="H10" s="245" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="257"/>
-      <c r="J10" s="293"/>
+      <c r="I10" s="246"/>
+      <c r="J10" s="277"/>
       <c r="K10" s="278"/>
       <c r="L10" s="279"/>
     </row>
     <row r="11" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A11" s="317"/>
-      <c r="B11" s="317"/>
-      <c r="C11" s="317"/>
-      <c r="D11" s="317"/>
-      <c r="E11" s="317"/>
-      <c r="F11" s="318"/>
-      <c r="G11" s="322"/>
-      <c r="H11" s="256" t="s">
+      <c r="A11" s="255"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="255"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="262"/>
+      <c r="H11" s="245" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="257"/>
-      <c r="J11" s="287"/>
-      <c r="K11" s="288"/>
-      <c r="L11" s="289"/>
+      <c r="I11" s="246"/>
+      <c r="J11" s="271"/>
+      <c r="K11" s="272"/>
+      <c r="L11" s="273"/>
       <c r="O11" s="47"/>
     </row>
     <row r="12" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="317"/>
-      <c r="B12" s="317"/>
-      <c r="C12" s="317"/>
-      <c r="D12" s="317"/>
-      <c r="E12" s="317"/>
-      <c r="F12" s="318"/>
-      <c r="G12" s="322"/>
-      <c r="H12" s="256" t="s">
+      <c r="A12" s="255"/>
+      <c r="B12" s="255"/>
+      <c r="C12" s="255"/>
+      <c r="D12" s="255"/>
+      <c r="E12" s="255"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="262"/>
+      <c r="H12" s="245" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="257"/>
-      <c r="J12" s="280" t="s">
+      <c r="I12" s="246"/>
+      <c r="J12" s="263" t="s">
         <v>208</v>
       </c>
-      <c r="K12" s="281"/>
-      <c r="L12" s="282"/>
+      <c r="K12" s="264"/>
+      <c r="L12" s="265"/>
       <c r="O12" s="47"/>
     </row>
     <row r="13" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A13" s="317"/>
-      <c r="B13" s="317"/>
-      <c r="C13" s="317"/>
-      <c r="D13" s="317"/>
-      <c r="E13" s="317"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="322"/>
-      <c r="H13" s="256" t="s">
+      <c r="A13" s="255"/>
+      <c r="B13" s="255"/>
+      <c r="C13" s="255"/>
+      <c r="D13" s="255"/>
+      <c r="E13" s="255"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="262"/>
+      <c r="H13" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="257"/>
-      <c r="J13" s="280"/>
-      <c r="K13" s="281"/>
-      <c r="L13" s="282"/>
+      <c r="I13" s="246"/>
+      <c r="J13" s="263"/>
+      <c r="K13" s="264"/>
+      <c r="L13" s="265"/>
       <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A14" s="317"/>
-      <c r="B14" s="317"/>
-      <c r="C14" s="317"/>
-      <c r="D14" s="317"/>
-      <c r="E14" s="317"/>
-      <c r="F14" s="318"/>
-      <c r="G14" s="322"/>
-      <c r="H14" s="256" t="s">
+      <c r="A14" s="255"/>
+      <c r="B14" s="255"/>
+      <c r="C14" s="255"/>
+      <c r="D14" s="255"/>
+      <c r="E14" s="255"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="262"/>
+      <c r="H14" s="245" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="257"/>
-      <c r="J14" s="280"/>
-      <c r="K14" s="281"/>
-      <c r="L14" s="282"/>
+      <c r="I14" s="246"/>
+      <c r="J14" s="263"/>
+      <c r="K14" s="264"/>
+      <c r="L14" s="265"/>
       <c r="O14" s="47"/>
     </row>
     <row r="15" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A15" s="317"/>
-      <c r="B15" s="317"/>
-      <c r="C15" s="317"/>
-      <c r="D15" s="317"/>
-      <c r="E15" s="317"/>
-      <c r="F15" s="318"/>
-      <c r="G15" s="322"/>
-      <c r="H15" s="256" t="s">
+      <c r="A15" s="255"/>
+      <c r="B15" s="255"/>
+      <c r="C15" s="255"/>
+      <c r="D15" s="255"/>
+      <c r="E15" s="255"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="262"/>
+      <c r="H15" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="257"/>
-      <c r="J15" s="280"/>
-      <c r="K15" s="281"/>
-      <c r="L15" s="282"/>
+      <c r="I15" s="246"/>
+      <c r="J15" s="263"/>
+      <c r="K15" s="264"/>
+      <c r="L15" s="265"/>
       <c r="O15" s="47"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
-      <c r="A16" s="317"/>
-      <c r="B16" s="317"/>
-      <c r="C16" s="317"/>
-      <c r="D16" s="317"/>
-      <c r="E16" s="317"/>
-      <c r="F16" s="318"/>
-      <c r="G16" s="322"/>
-      <c r="H16" s="256" t="s">
+      <c r="A16" s="255"/>
+      <c r="B16" s="255"/>
+      <c r="C16" s="255"/>
+      <c r="D16" s="255"/>
+      <c r="E16" s="255"/>
+      <c r="F16" s="256"/>
+      <c r="G16" s="262"/>
+      <c r="H16" s="245" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="257"/>
-      <c r="J16" s="280"/>
-      <c r="K16" s="281"/>
-      <c r="L16" s="282"/>
+      <c r="I16" s="246"/>
+      <c r="J16" s="263"/>
+      <c r="K16" s="264"/>
+      <c r="L16" s="265"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1">
-      <c r="A17" s="317"/>
-      <c r="B17" s="317"/>
-      <c r="C17" s="317"/>
-      <c r="D17" s="317"/>
-      <c r="E17" s="317"/>
-      <c r="F17" s="318"/>
-      <c r="G17" s="322"/>
-      <c r="H17" s="256" t="s">
+      <c r="A17" s="255"/>
+      <c r="B17" s="255"/>
+      <c r="C17" s="255"/>
+      <c r="D17" s="255"/>
+      <c r="E17" s="255"/>
+      <c r="F17" s="256"/>
+      <c r="G17" s="262"/>
+      <c r="H17" s="245" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="257"/>
-      <c r="J17" s="283"/>
-      <c r="K17" s="284"/>
-      <c r="L17" s="285"/>
+      <c r="I17" s="246"/>
+      <c r="J17" s="304"/>
+      <c r="K17" s="305"/>
+      <c r="L17" s="306"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A18" s="317"/>
-      <c r="B18" s="317"/>
-      <c r="C18" s="317"/>
-      <c r="D18" s="317"/>
-      <c r="E18" s="317"/>
-      <c r="F18" s="318"/>
-      <c r="G18" s="322"/>
-      <c r="H18" s="258" t="s">
+      <c r="A18" s="255"/>
+      <c r="B18" s="255"/>
+      <c r="C18" s="255"/>
+      <c r="D18" s="255"/>
+      <c r="E18" s="255"/>
+      <c r="F18" s="256"/>
+      <c r="G18" s="262"/>
+      <c r="H18" s="287" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="259"/>
-      <c r="J18" s="259"/>
-      <c r="K18" s="259"/>
-      <c r="L18" s="260"/>
+      <c r="I18" s="288"/>
+      <c r="J18" s="288"/>
+      <c r="K18" s="288"/>
+      <c r="L18" s="289"/>
     </row>
     <row r="19" spans="1:14" ht="22.95" customHeight="1">
-      <c r="A19" s="317"/>
-      <c r="B19" s="317"/>
-      <c r="C19" s="317"/>
-      <c r="D19" s="317"/>
-      <c r="E19" s="317"/>
-      <c r="F19" s="318"/>
-      <c r="G19" s="322"/>
+      <c r="A19" s="255"/>
+      <c r="B19" s="255"/>
+      <c r="C19" s="255"/>
+      <c r="D19" s="255"/>
+      <c r="E19" s="255"/>
+      <c r="F19" s="256"/>
+      <c r="G19" s="262"/>
       <c r="H19" s="116">
         <v>1</v>
       </c>
-      <c r="I19" s="261"/>
-      <c r="J19" s="262"/>
-      <c r="K19" s="262"/>
-      <c r="L19" s="263"/>
+      <c r="I19" s="266"/>
+      <c r="J19" s="267"/>
+      <c r="K19" s="267"/>
+      <c r="L19" s="268"/>
     </row>
     <row r="20" spans="1:14" ht="22.95" customHeight="1">
-      <c r="A20" s="317"/>
-      <c r="B20" s="317"/>
-      <c r="C20" s="317"/>
-      <c r="D20" s="317"/>
-      <c r="E20" s="317"/>
-      <c r="F20" s="318"/>
-      <c r="G20" s="322"/>
+      <c r="A20" s="255"/>
+      <c r="B20" s="255"/>
+      <c r="C20" s="255"/>
+      <c r="D20" s="255"/>
+      <c r="E20" s="255"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="262"/>
       <c r="H20" s="125">
         <v>2</v>
       </c>
-      <c r="I20" s="296"/>
-      <c r="J20" s="297"/>
-      <c r="K20" s="297"/>
-      <c r="L20" s="298"/>
+      <c r="I20" s="282"/>
+      <c r="J20" s="283"/>
+      <c r="K20" s="283"/>
+      <c r="L20" s="284"/>
     </row>
     <row r="21" spans="1:14" ht="22.95" customHeight="1">
-      <c r="A21" s="317"/>
-      <c r="B21" s="317"/>
-      <c r="C21" s="317"/>
-      <c r="D21" s="317"/>
-      <c r="E21" s="317"/>
-      <c r="F21" s="318"/>
-      <c r="G21" s="322"/>
+      <c r="A21" s="255"/>
+      <c r="B21" s="255"/>
+      <c r="C21" s="255"/>
+      <c r="D21" s="255"/>
+      <c r="E21" s="255"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="262"/>
       <c r="H21" s="116">
         <v>3</v>
       </c>
-      <c r="I21" s="290"/>
-      <c r="J21" s="291"/>
-      <c r="K21" s="291"/>
-      <c r="L21" s="292"/>
+      <c r="I21" s="274"/>
+      <c r="J21" s="275"/>
+      <c r="K21" s="275"/>
+      <c r="L21" s="276"/>
     </row>
     <row r="22" spans="1:14" ht="22.95" customHeight="1">
-      <c r="A22" s="317"/>
-      <c r="B22" s="317"/>
-      <c r="C22" s="317"/>
-      <c r="D22" s="317"/>
-      <c r="E22" s="317"/>
-      <c r="F22" s="318"/>
-      <c r="G22" s="322"/>
+      <c r="A22" s="255"/>
+      <c r="B22" s="255"/>
+      <c r="C22" s="255"/>
+      <c r="D22" s="255"/>
+      <c r="E22" s="255"/>
+      <c r="F22" s="256"/>
+      <c r="G22" s="262"/>
       <c r="H22" s="116">
         <v>4</v>
       </c>
-      <c r="I22" s="261"/>
-      <c r="J22" s="262"/>
-      <c r="K22" s="262"/>
-      <c r="L22" s="263"/>
+      <c r="I22" s="266"/>
+      <c r="J22" s="267"/>
+      <c r="K22" s="267"/>
+      <c r="L22" s="268"/>
     </row>
     <row r="23" spans="1:14" s="7" customFormat="1" ht="22.95" customHeight="1">
-      <c r="A23" s="317"/>
-      <c r="B23" s="317"/>
-      <c r="C23" s="317"/>
-      <c r="D23" s="317"/>
-      <c r="E23" s="317"/>
-      <c r="F23" s="318"/>
-      <c r="G23" s="322"/>
+      <c r="A23" s="255"/>
+      <c r="B23" s="255"/>
+      <c r="C23" s="255"/>
+      <c r="D23" s="255"/>
+      <c r="E23" s="255"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="262"/>
       <c r="H23" s="125">
         <v>5</v>
       </c>
-      <c r="I23" s="261"/>
-      <c r="J23" s="262"/>
-      <c r="K23" s="262"/>
-      <c r="L23" s="263"/>
+      <c r="I23" s="266"/>
+      <c r="J23" s="267"/>
+      <c r="K23" s="267"/>
+      <c r="L23" s="268"/>
       <c r="N23" s="46"/>
     </row>
     <row r="24" spans="1:14" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A24" s="317"/>
-      <c r="B24" s="317"/>
-      <c r="C24" s="317"/>
-      <c r="D24" s="317"/>
-      <c r="E24" s="317"/>
-      <c r="F24" s="318"/>
-      <c r="G24" s="322"/>
-      <c r="H24" s="256" t="s">
+      <c r="A24" s="255"/>
+      <c r="B24" s="255"/>
+      <c r="C24" s="255"/>
+      <c r="D24" s="255"/>
+      <c r="E24" s="255"/>
+      <c r="F24" s="256"/>
+      <c r="G24" s="262"/>
+      <c r="H24" s="245" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="302"/>
+      <c r="I24" s="286"/>
       <c r="J24" s="278"/>
       <c r="K24" s="278"/>
       <c r="L24" s="279"/>
     </row>
     <row r="25" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A25" s="317"/>
-      <c r="B25" s="317"/>
-      <c r="C25" s="317"/>
-      <c r="D25" s="317"/>
-      <c r="E25" s="317"/>
-      <c r="F25" s="318"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="256" t="s">
+      <c r="A25" s="255"/>
+      <c r="B25" s="255"/>
+      <c r="C25" s="255"/>
+      <c r="D25" s="255"/>
+      <c r="E25" s="255"/>
+      <c r="F25" s="256"/>
+      <c r="G25" s="262"/>
+      <c r="H25" s="245" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="302"/>
+      <c r="I25" s="286"/>
       <c r="J25" s="278"/>
       <c r="K25" s="278"/>
       <c r="L25" s="279"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="264"/>
-      <c r="B26" s="264"/>
-      <c r="C26" s="264"/>
-      <c r="D26" s="264"/>
-      <c r="E26" s="264"/>
-      <c r="F26" s="264"/>
-      <c r="G26" s="264"/>
-      <c r="H26" s="264"/>
-      <c r="I26" s="264"/>
-      <c r="J26" s="264"/>
-      <c r="K26" s="264"/>
-      <c r="L26" s="265"/>
+      <c r="A26" s="290"/>
+      <c r="B26" s="290"/>
+      <c r="C26" s="290"/>
+      <c r="D26" s="290"/>
+      <c r="E26" s="290"/>
+      <c r="F26" s="290"/>
+      <c r="G26" s="290"/>
+      <c r="H26" s="290"/>
+      <c r="I26" s="290"/>
+      <c r="J26" s="290"/>
+      <c r="K26" s="290"/>
+      <c r="L26" s="291"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="300" t="s">
+      <c r="A27" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="300"/>
-      <c r="C27" s="300"/>
-      <c r="D27" s="300"/>
-      <c r="E27" s="300"/>
-      <c r="F27" s="301"/>
-      <c r="G27" s="294"/>
-      <c r="H27" s="299" t="s">
+      <c r="B27" s="257"/>
+      <c r="C27" s="257"/>
+      <c r="D27" s="257"/>
+      <c r="E27" s="257"/>
+      <c r="F27" s="258"/>
+      <c r="G27" s="280"/>
+      <c r="H27" s="285" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="300"/>
-      <c r="J27" s="300"/>
-      <c r="K27" s="300"/>
-      <c r="L27" s="301"/>
+      <c r="I27" s="257"/>
+      <c r="J27" s="257"/>
+      <c r="K27" s="257"/>
+      <c r="L27" s="258"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="201"/>
@@ -6397,188 +6397,188 @@
       <c r="D28" s="200"/>
       <c r="E28" s="200"/>
       <c r="F28" s="197"/>
-      <c r="G28" s="295"/>
-      <c r="H28" s="303"/>
-      <c r="I28" s="304"/>
-      <c r="J28" s="304"/>
-      <c r="K28" s="304"/>
-      <c r="L28" s="305"/>
+      <c r="G28" s="281"/>
+      <c r="H28" s="239"/>
+      <c r="I28" s="240"/>
+      <c r="J28" s="240"/>
+      <c r="K28" s="240"/>
+      <c r="L28" s="241"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="201"/>
-      <c r="B29" s="320"/>
-      <c r="C29" s="320"/>
-      <c r="D29" s="320"/>
+      <c r="B29" s="260"/>
+      <c r="C29" s="260"/>
+      <c r="D29" s="260"/>
       <c r="E29" s="200"/>
       <c r="F29" s="197"/>
-      <c r="G29" s="295"/>
-      <c r="H29" s="303"/>
-      <c r="I29" s="304"/>
-      <c r="J29" s="304"/>
-      <c r="K29" s="304"/>
-      <c r="L29" s="305"/>
+      <c r="G29" s="281"/>
+      <c r="H29" s="239"/>
+      <c r="I29" s="240"/>
+      <c r="J29" s="240"/>
+      <c r="K29" s="240"/>
+      <c r="L29" s="241"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="201"/>
-      <c r="B30" s="320"/>
-      <c r="C30" s="320"/>
-      <c r="D30" s="320"/>
+      <c r="B30" s="260"/>
+      <c r="C30" s="260"/>
+      <c r="D30" s="260"/>
       <c r="E30" s="200"/>
       <c r="F30" s="197"/>
-      <c r="G30" s="295"/>
-      <c r="H30" s="303"/>
-      <c r="I30" s="304"/>
-      <c r="J30" s="304"/>
-      <c r="K30" s="304"/>
-      <c r="L30" s="305"/>
+      <c r="G30" s="281"/>
+      <c r="H30" s="239"/>
+      <c r="I30" s="240"/>
+      <c r="J30" s="240"/>
+      <c r="K30" s="240"/>
+      <c r="L30" s="241"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="201"/>
-      <c r="B31" s="320"/>
-      <c r="C31" s="320"/>
-      <c r="D31" s="320"/>
+      <c r="B31" s="260"/>
+      <c r="C31" s="260"/>
+      <c r="D31" s="260"/>
       <c r="E31" s="200"/>
       <c r="F31" s="197"/>
-      <c r="G31" s="295"/>
-      <c r="H31" s="303"/>
-      <c r="I31" s="304"/>
-      <c r="J31" s="304"/>
-      <c r="K31" s="304"/>
-      <c r="L31" s="305"/>
+      <c r="G31" s="281"/>
+      <c r="H31" s="239"/>
+      <c r="I31" s="240"/>
+      <c r="J31" s="240"/>
+      <c r="K31" s="240"/>
+      <c r="L31" s="241"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="201"/>
-      <c r="B32" s="320"/>
-      <c r="C32" s="320"/>
-      <c r="D32" s="320"/>
-      <c r="E32" s="323" t="e">
+      <c r="B32" s="260"/>
+      <c r="C32" s="260"/>
+      <c r="D32" s="260"/>
+      <c r="E32" s="269" t="e">
         <f>+'Fr-05'!E20</f>
         <v>#REF!</v>
       </c>
-      <c r="F32" s="286" t="str">
+      <c r="F32" s="270" t="str">
         <f>IF('Fr-05'!E10="ผลรวม(kgCO2 eq.)","kg",IF('Fr-05'!E10="ผลรวม(gCO2 eq.)","g","ton"))</f>
         <v>kg</v>
       </c>
-      <c r="G32" s="295"/>
-      <c r="H32" s="303"/>
-      <c r="I32" s="304"/>
-      <c r="J32" s="304"/>
-      <c r="K32" s="304"/>
-      <c r="L32" s="305"/>
+      <c r="G32" s="281"/>
+      <c r="H32" s="239"/>
+      <c r="I32" s="240"/>
+      <c r="J32" s="240"/>
+      <c r="K32" s="240"/>
+      <c r="L32" s="241"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="201"/>
-      <c r="B33" s="320"/>
-      <c r="C33" s="320"/>
-      <c r="D33" s="320"/>
-      <c r="E33" s="323"/>
-      <c r="F33" s="286"/>
-      <c r="G33" s="295"/>
-      <c r="H33" s="303"/>
-      <c r="I33" s="304"/>
-      <c r="J33" s="304"/>
-      <c r="K33" s="304"/>
-      <c r="L33" s="305"/>
+      <c r="B33" s="260"/>
+      <c r="C33" s="260"/>
+      <c r="D33" s="260"/>
+      <c r="E33" s="269"/>
+      <c r="F33" s="270"/>
+      <c r="G33" s="281"/>
+      <c r="H33" s="239"/>
+      <c r="I33" s="240"/>
+      <c r="J33" s="240"/>
+      <c r="K33" s="240"/>
+      <c r="L33" s="241"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="201"/>
-      <c r="B34" s="320"/>
-      <c r="C34" s="320"/>
-      <c r="D34" s="320"/>
+      <c r="B34" s="260"/>
+      <c r="C34" s="260"/>
+      <c r="D34" s="260"/>
       <c r="E34" s="200"/>
       <c r="F34" s="197"/>
-      <c r="G34" s="295"/>
-      <c r="H34" s="303"/>
-      <c r="I34" s="304"/>
-      <c r="J34" s="304"/>
-      <c r="K34" s="304"/>
-      <c r="L34" s="305"/>
+      <c r="G34" s="281"/>
+      <c r="H34" s="239"/>
+      <c r="I34" s="240"/>
+      <c r="J34" s="240"/>
+      <c r="K34" s="240"/>
+      <c r="L34" s="241"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="201"/>
-      <c r="B35" s="320"/>
-      <c r="C35" s="320"/>
-      <c r="D35" s="320"/>
+      <c r="B35" s="260"/>
+      <c r="C35" s="260"/>
+      <c r="D35" s="260"/>
       <c r="E35" s="200"/>
       <c r="F35" s="197"/>
-      <c r="G35" s="295"/>
-      <c r="H35" s="303"/>
-      <c r="I35" s="304"/>
-      <c r="J35" s="304"/>
-      <c r="K35" s="304"/>
-      <c r="L35" s="305"/>
+      <c r="G35" s="281"/>
+      <c r="H35" s="239"/>
+      <c r="I35" s="240"/>
+      <c r="J35" s="240"/>
+      <c r="K35" s="240"/>
+      <c r="L35" s="241"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="201"/>
-      <c r="B36" s="320"/>
-      <c r="C36" s="320"/>
-      <c r="D36" s="320"/>
+      <c r="B36" s="260"/>
+      <c r="C36" s="260"/>
+      <c r="D36" s="260"/>
       <c r="E36" s="200"/>
       <c r="F36" s="197"/>
-      <c r="G36" s="295"/>
-      <c r="H36" s="303"/>
-      <c r="I36" s="304"/>
-      <c r="J36" s="304"/>
-      <c r="K36" s="304"/>
-      <c r="L36" s="305"/>
+      <c r="G36" s="281"/>
+      <c r="H36" s="239"/>
+      <c r="I36" s="240"/>
+      <c r="J36" s="240"/>
+      <c r="K36" s="240"/>
+      <c r="L36" s="241"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="201"/>
-      <c r="B37" s="320"/>
-      <c r="C37" s="320"/>
-      <c r="D37" s="320"/>
+      <c r="B37" s="260"/>
+      <c r="C37" s="260"/>
+      <c r="D37" s="260"/>
       <c r="E37" s="200"/>
       <c r="F37" s="197"/>
-      <c r="G37" s="295"/>
-      <c r="H37" s="303"/>
-      <c r="I37" s="304"/>
-      <c r="J37" s="304"/>
-      <c r="K37" s="304"/>
-      <c r="L37" s="305"/>
+      <c r="G37" s="281"/>
+      <c r="H37" s="239"/>
+      <c r="I37" s="240"/>
+      <c r="J37" s="240"/>
+      <c r="K37" s="240"/>
+      <c r="L37" s="241"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="201"/>
-      <c r="B38" s="320"/>
-      <c r="C38" s="320"/>
-      <c r="D38" s="320"/>
+      <c r="B38" s="260"/>
+      <c r="C38" s="260"/>
+      <c r="D38" s="260"/>
       <c r="E38" s="200"/>
       <c r="F38" s="197"/>
-      <c r="G38" s="295"/>
-      <c r="H38" s="303"/>
-      <c r="I38" s="304"/>
-      <c r="J38" s="304"/>
-      <c r="K38" s="304"/>
-      <c r="L38" s="305"/>
+      <c r="G38" s="281"/>
+      <c r="H38" s="239"/>
+      <c r="I38" s="240"/>
+      <c r="J38" s="240"/>
+      <c r="K38" s="240"/>
+      <c r="L38" s="241"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="201"/>
-      <c r="B39" s="320"/>
-      <c r="C39" s="320"/>
-      <c r="D39" s="320"/>
+      <c r="B39" s="260"/>
+      <c r="C39" s="260"/>
+      <c r="D39" s="260"/>
       <c r="E39" s="200"/>
       <c r="F39" s="197"/>
-      <c r="G39" s="295"/>
-      <c r="H39" s="303"/>
-      <c r="I39" s="304"/>
-      <c r="J39" s="304"/>
-      <c r="K39" s="304"/>
-      <c r="L39" s="305"/>
+      <c r="G39" s="281"/>
+      <c r="H39" s="239"/>
+      <c r="I39" s="240"/>
+      <c r="J39" s="240"/>
+      <c r="K39" s="240"/>
+      <c r="L39" s="241"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="319" t="s">
+      <c r="A40" s="259" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="320"/>
-      <c r="C40" s="320"/>
-      <c r="D40" s="320"/>
-      <c r="E40" s="320"/>
-      <c r="F40" s="321"/>
-      <c r="G40" s="295"/>
-      <c r="H40" s="303"/>
-      <c r="I40" s="304"/>
-      <c r="J40" s="304"/>
-      <c r="K40" s="304"/>
-      <c r="L40" s="305"/>
+      <c r="B40" s="260"/>
+      <c r="C40" s="260"/>
+      <c r="D40" s="260"/>
+      <c r="E40" s="260"/>
+      <c r="F40" s="261"/>
+      <c r="G40" s="281"/>
+      <c r="H40" s="239"/>
+      <c r="I40" s="240"/>
+      <c r="J40" s="240"/>
+      <c r="K40" s="240"/>
+      <c r="L40" s="241"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="201"/>
@@ -6587,12 +6587,12 @@
       <c r="D41" s="200"/>
       <c r="E41" s="200"/>
       <c r="F41" s="197"/>
-      <c r="G41" s="295"/>
-      <c r="H41" s="303"/>
-      <c r="I41" s="304"/>
-      <c r="J41" s="304"/>
-      <c r="K41" s="304"/>
-      <c r="L41" s="305"/>
+      <c r="G41" s="281"/>
+      <c r="H41" s="239"/>
+      <c r="I41" s="240"/>
+      <c r="J41" s="240"/>
+      <c r="K41" s="240"/>
+      <c r="L41" s="241"/>
     </row>
     <row r="42" spans="1:12" ht="12" customHeight="1">
       <c r="A42" s="202"/>
@@ -6601,44 +6601,44 @@
       <c r="D42" s="198"/>
       <c r="E42" s="198"/>
       <c r="F42" s="199"/>
-      <c r="G42" s="295"/>
-      <c r="H42" s="306"/>
-      <c r="I42" s="307"/>
-      <c r="J42" s="307"/>
-      <c r="K42" s="307"/>
-      <c r="L42" s="308"/>
+      <c r="G42" s="281"/>
+      <c r="H42" s="242"/>
+      <c r="I42" s="243"/>
+      <c r="J42" s="243"/>
+      <c r="K42" s="243"/>
+      <c r="L42" s="244"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="B43" s="3"/>
       <c r="L43" s="6"/>
     </row>
     <row r="44" spans="1:12" s="4" customFormat="1" ht="10.5" customHeight="1">
-      <c r="B44" s="314"/>
-      <c r="C44" s="315"/>
-      <c r="D44" s="315"/>
-      <c r="E44" s="315"/>
-      <c r="F44" s="315"/>
-      <c r="G44" s="315"/>
-      <c r="H44" s="315"/>
-      <c r="I44" s="315"/>
-      <c r="J44" s="315"/>
-      <c r="K44" s="315"/>
-      <c r="L44" s="316"/>
+      <c r="B44" s="252"/>
+      <c r="C44" s="253"/>
+      <c r="D44" s="253"/>
+      <c r="E44" s="253"/>
+      <c r="F44" s="253"/>
+      <c r="G44" s="253"/>
+      <c r="H44" s="253"/>
+      <c r="I44" s="253"/>
+      <c r="J44" s="253"/>
+      <c r="K44" s="253"/>
+      <c r="L44" s="254"/>
     </row>
     <row r="45" spans="1:12" ht="13.5" customHeight="1">
       <c r="B45" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="309" t="s">
+      <c r="C45" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="310"/>
-      <c r="E45" s="310"/>
-      <c r="F45" s="311" t="s">
+      <c r="D45" s="248"/>
+      <c r="E45" s="248"/>
+      <c r="F45" s="249" t="s">
         <v>28</v>
       </c>
-      <c r="G45" s="312"/>
-      <c r="H45" s="313"/>
+      <c r="G45" s="250"/>
+      <c r="H45" s="251"/>
       <c r="I45" s="19" t="s">
         <v>29</v>
       </c>
@@ -6652,6 +6652,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="G27:G42"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="H28:L42"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H16:I16"/>
@@ -6668,46 +6708,6 @@
     <mergeCell ref="I22:L22"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="J13:L13"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="G27:G42"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.5" footer="0.5"/>
@@ -6734,114 +6734,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="544">
+      <c r="A1" s="549">
         <v>6.2</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="532" t="s">
+      <c r="C1" s="562" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="602"/>
+      <c r="D1" s="563"/>
+      <c r="E1" s="563"/>
+      <c r="F1" s="627"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="545"/>
+      <c r="A2" s="550"/>
       <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="600" t="s">
+      <c r="C2" s="625" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374"/>
-      <c r="F2" s="601"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="626"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="545"/>
+      <c r="A3" s="550"/>
       <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="600" t="s">
+      <c r="C3" s="625" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="374"/>
-      <c r="E3" s="374"/>
-      <c r="F3" s="601"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="626"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="545"/>
+      <c r="A4" s="550"/>
       <c r="B4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="373"/>
-      <c r="D4" s="374"/>
-      <c r="E4" s="374"/>
-      <c r="F4" s="601"/>
+      <c r="C4" s="368"/>
+      <c r="D4" s="369"/>
+      <c r="E4" s="369"/>
+      <c r="F4" s="626"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="546"/>
+      <c r="A5" s="551"/>
       <c r="B5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="373"/>
-      <c r="D5" s="374"/>
-      <c r="E5" s="374"/>
-      <c r="F5" s="601"/>
+      <c r="C5" s="368"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="626"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="498" t="s">
+      <c r="A6" s="466" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="605" t="s">
+      <c r="B6" s="613" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="276"/>
-      <c r="D6" s="276"/>
-      <c r="E6" s="276"/>
-      <c r="F6" s="400"/>
+      <c r="C6" s="302"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="417"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="604"/>
-      <c r="B7" s="606"/>
-      <c r="C7" s="272"/>
-      <c r="D7" s="272"/>
-      <c r="E7" s="272"/>
-      <c r="F7" s="607"/>
+      <c r="A7" s="612"/>
+      <c r="B7" s="614"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="615"/>
     </row>
     <row r="8" spans="1:6" ht="13.8" thickBot="1">
-      <c r="A8" s="662"/>
-      <c r="B8" s="663"/>
-      <c r="C8" s="663"/>
-      <c r="D8" s="663"/>
-      <c r="E8" s="663"/>
-      <c r="F8" s="664"/>
+      <c r="A8" s="631"/>
+      <c r="B8" s="632"/>
+      <c r="C8" s="632"/>
+      <c r="D8" s="632"/>
+      <c r="E8" s="632"/>
+      <c r="F8" s="633"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1">
       <c r="A9" s="173"/>
-      <c r="B9" s="669" t="s">
+      <c r="B9" s="670" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="673" t="s">
+      <c r="C9" s="674" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="675" t="s">
+      <c r="D9" s="676" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="666" t="s">
+      <c r="E9" s="667" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="667"/>
+      <c r="F9" s="668"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="173"/>
-      <c r="B10" s="670"/>
-      <c r="C10" s="674"/>
-      <c r="D10" s="676"/>
-      <c r="E10" s="475"/>
-      <c r="F10" s="668"/>
+      <c r="B10" s="671"/>
+      <c r="C10" s="675"/>
+      <c r="D10" s="677"/>
+      <c r="E10" s="495"/>
+      <c r="F10" s="669"/>
     </row>
     <row r="11" spans="1:6" s="13" customFormat="1" ht="34.950000000000003" customHeight="1" thickBot="1">
       <c r="A11" s="174"/>
@@ -6855,16 +6855,16 @@
         <f>C11-B11</f>
         <v>-0.30000000000000071</v>
       </c>
-      <c r="E11" s="671"/>
-      <c r="F11" s="672"/>
+      <c r="E11" s="672"/>
+      <c r="F11" s="673"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A12" s="645"/>
-      <c r="B12" s="646"/>
-      <c r="C12" s="646"/>
-      <c r="D12" s="646"/>
-      <c r="E12" s="646"/>
-      <c r="F12" s="647"/>
+      <c r="A12" s="642"/>
+      <c r="B12" s="643"/>
+      <c r="C12" s="643"/>
+      <c r="D12" s="643"/>
+      <c r="E12" s="643"/>
+      <c r="F12" s="644"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="A13" s="39" t="s">
@@ -6899,12 +6899,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="E9:F10"/>
     <mergeCell ref="B9:B10"/>
@@ -6915,6 +6909,12 @@
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6969,12 +6969,12 @@
     </row>
     <row r="4" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="B4" s="90"/>
-      <c r="C4" s="680" t="s">
+      <c r="C4" s="681" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="681"/>
-      <c r="E4" s="681"/>
-      <c r="F4" s="682"/>
+      <c r="D4" s="682"/>
+      <c r="E4" s="682"/>
+      <c r="F4" s="683"/>
     </row>
     <row r="5" spans="1:7" s="94" customFormat="1" ht="36" customHeight="1" thickBot="1">
       <c r="B5" s="101"/>
@@ -6993,7 +6993,7 @@
       <c r="G5" s="91"/>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1">
-      <c r="A6" s="677" t="s">
+      <c r="A6" s="678" t="s">
         <v>179</v>
       </c>
       <c r="B6" s="103" t="s">
@@ -7013,7 +7013,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="36" customHeight="1">
-      <c r="A7" s="678"/>
+      <c r="A7" s="679"/>
       <c r="B7" s="105" t="s">
         <v>176</v>
       </c>
@@ -7031,7 +7031,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1">
-      <c r="A8" s="678"/>
+      <c r="A8" s="679"/>
       <c r="B8" s="105" t="s">
         <v>177</v>
       </c>
@@ -7049,7 +7049,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1" thickBot="1">
-      <c r="A9" s="679"/>
+      <c r="A9" s="680"/>
       <c r="B9" s="107" t="s">
         <v>178</v>
       </c>
@@ -7090,12 +7090,12 @@
     </row>
     <row r="14" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="B14" s="90"/>
-      <c r="C14" s="680" t="s">
+      <c r="C14" s="681" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="681"/>
-      <c r="E14" s="681"/>
-      <c r="F14" s="682"/>
+      <c r="D14" s="682"/>
+      <c r="E14" s="682"/>
+      <c r="F14" s="683"/>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="B15" s="101"/>
@@ -7113,7 +7113,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1">
-      <c r="A16" s="677" t="s">
+      <c r="A16" s="678" t="s">
         <v>179</v>
       </c>
       <c r="B16" s="103" t="s">
@@ -7133,7 +7133,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="36" customHeight="1">
-      <c r="A17" s="678"/>
+      <c r="A17" s="679"/>
       <c r="B17" s="105" t="s">
         <v>176</v>
       </c>
@@ -7151,7 +7151,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="36" customHeight="1">
-      <c r="A18" s="678"/>
+      <c r="A18" s="679"/>
       <c r="B18" s="105" t="s">
         <v>177</v>
       </c>
@@ -7169,7 +7169,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A19" s="679"/>
+      <c r="A19" s="680"/>
       <c r="B19" s="107" t="s">
         <v>178</v>
       </c>
@@ -7330,10 +7330,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="179" customFormat="1" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A1" s="683" t="s">
+      <c r="A1" s="684" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="683"/>
+      <c r="B1" s="684"/>
     </row>
     <row r="2" spans="1:2" s="178" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="183" t="s">
@@ -7512,135 +7512,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="330">
+      <c r="A1" s="347">
         <v>2</v>
       </c>
-      <c r="B1" s="341" t="s">
+      <c r="B1" s="358" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="342"/>
-      <c r="D1" s="336" t="s">
+      <c r="C1" s="359"/>
+      <c r="D1" s="353" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
-      <c r="G1" s="337"/>
-      <c r="H1" s="337"/>
-      <c r="I1" s="337"/>
-      <c r="J1" s="338"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354"/>
+      <c r="J1" s="355"/>
       <c r="K1" s="127" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="128"/>
       <c r="M1" s="128"/>
-      <c r="N1" s="339"/>
-      <c r="O1" s="339"/>
-      <c r="P1" s="339"/>
-      <c r="Q1" s="340"/>
+      <c r="N1" s="356"/>
+      <c r="O1" s="356"/>
+      <c r="P1" s="356"/>
+      <c r="Q1" s="357"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="331"/>
-      <c r="B2" s="343" t="s">
+      <c r="A2" s="348"/>
+      <c r="B2" s="360" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="344"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="332">
+      <c r="C2" s="361"/>
+      <c r="D2" s="362"/>
+      <c r="E2" s="349">
         <f>'Fr-01'!F5</f>
         <v>0</v>
       </c>
-      <c r="F2" s="333"/>
-      <c r="G2" s="333"/>
-      <c r="H2" s="333"/>
-      <c r="I2" s="333"/>
-      <c r="J2" s="334"/>
-      <c r="K2" s="247" t="s">
+      <c r="F2" s="350"/>
+      <c r="G2" s="350"/>
+      <c r="H2" s="350"/>
+      <c r="I2" s="350"/>
+      <c r="J2" s="351"/>
+      <c r="K2" s="316" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="248"/>
-      <c r="M2" s="335"/>
-      <c r="N2" s="244" t="s">
+      <c r="L2" s="317"/>
+      <c r="M2" s="352"/>
+      <c r="N2" s="313" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="347"/>
+      <c r="O2" s="363"/>
+      <c r="P2" s="363"/>
+      <c r="Q2" s="364"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="331"/>
-      <c r="B3" s="354" t="s">
+      <c r="A3" s="348"/>
+      <c r="B3" s="331" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="355"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="332">
+      <c r="C3" s="332"/>
+      <c r="D3" s="333"/>
+      <c r="E3" s="349">
         <f>'Fr-01'!F6</f>
         <v>0</v>
       </c>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
-      <c r="H3" s="333"/>
-      <c r="I3" s="333"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="247" t="s">
+      <c r="F3" s="350"/>
+      <c r="G3" s="350"/>
+      <c r="H3" s="350"/>
+      <c r="I3" s="350"/>
+      <c r="J3" s="351"/>
+      <c r="K3" s="316" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="248"/>
-      <c r="M3" s="335"/>
-      <c r="N3" s="244" t="s">
+      <c r="L3" s="317"/>
+      <c r="M3" s="352"/>
+      <c r="N3" s="313" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="346"/>
-      <c r="P3" s="346"/>
-      <c r="Q3" s="347"/>
+      <c r="O3" s="363"/>
+      <c r="P3" s="363"/>
+      <c r="Q3" s="364"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A4" s="362" t="s">
+      <c r="A4" s="339" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="357" t="s">
+      <c r="B4" s="334" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="357"/>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
-      <c r="F4" s="357"/>
-      <c r="G4" s="357"/>
-      <c r="H4" s="357"/>
-      <c r="I4" s="357"/>
-      <c r="J4" s="357"/>
-      <c r="K4" s="357"/>
-      <c r="L4" s="357"/>
-      <c r="M4" s="357"/>
-      <c r="N4" s="357"/>
-      <c r="O4" s="357"/>
-      <c r="P4" s="357"/>
-      <c r="Q4" s="358"/>
+      <c r="C4" s="334"/>
+      <c r="D4" s="334"/>
+      <c r="E4" s="334"/>
+      <c r="F4" s="334"/>
+      <c r="G4" s="334"/>
+      <c r="H4" s="334"/>
+      <c r="I4" s="334"/>
+      <c r="J4" s="334"/>
+      <c r="K4" s="334"/>
+      <c r="L4" s="334"/>
+      <c r="M4" s="334"/>
+      <c r="N4" s="334"/>
+      <c r="O4" s="334"/>
+      <c r="P4" s="334"/>
+      <c r="Q4" s="335"/>
     </row>
     <row r="5" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A5" s="363"/>
-      <c r="B5" s="359" t="s">
+      <c r="A5" s="340"/>
+      <c r="B5" s="336" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="359"/>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
-      <c r="G5" s="359"/>
-      <c r="H5" s="359"/>
-      <c r="I5" s="359"/>
-      <c r="J5" s="359"/>
-      <c r="K5" s="359"/>
-      <c r="L5" s="359"/>
-      <c r="M5" s="359"/>
-      <c r="N5" s="359"/>
-      <c r="O5" s="359"/>
-      <c r="P5" s="359"/>
-      <c r="Q5" s="360"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
+      <c r="E5" s="336"/>
+      <c r="F5" s="336"/>
+      <c r="G5" s="336"/>
+      <c r="H5" s="336"/>
+      <c r="I5" s="336"/>
+      <c r="J5" s="336"/>
+      <c r="K5" s="336"/>
+      <c r="L5" s="336"/>
+      <c r="M5" s="336"/>
+      <c r="N5" s="336"/>
+      <c r="O5" s="336"/>
+      <c r="P5" s="336"/>
+      <c r="Q5" s="337"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="205"/>
@@ -7662,25 +7662,25 @@
       <c r="Q6" s="205"/>
     </row>
     <row r="7" spans="1:19" ht="30.75" customHeight="1">
-      <c r="A7" s="361" t="s">
+      <c r="A7" s="338" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="361"/>
-      <c r="C7" s="361"/>
-      <c r="D7" s="361"/>
-      <c r="E7" s="361"/>
-      <c r="F7" s="361"/>
-      <c r="G7" s="361"/>
-      <c r="H7" s="361"/>
-      <c r="I7" s="361"/>
-      <c r="J7" s="361"/>
-      <c r="K7" s="361"/>
-      <c r="L7" s="361"/>
-      <c r="M7" s="361"/>
-      <c r="N7" s="361"/>
-      <c r="O7" s="361"/>
-      <c r="P7" s="361"/>
-      <c r="Q7" s="361"/>
+      <c r="B7" s="338"/>
+      <c r="C7" s="338"/>
+      <c r="D7" s="338"/>
+      <c r="E7" s="338"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="338"/>
+      <c r="K7" s="338"/>
+      <c r="L7" s="338"/>
+      <c r="M7" s="338"/>
+      <c r="N7" s="338"/>
+      <c r="O7" s="338"/>
+      <c r="P7" s="338"/>
+      <c r="Q7" s="338"/>
     </row>
     <row r="8" spans="1:19" ht="30.75" customHeight="1">
       <c r="A8" s="205"/>
@@ -7703,25 +7703,25 @@
     </row>
     <row r="9" spans="1:19" ht="30.75" customHeight="1">
       <c r="A9" s="205"/>
-      <c r="B9" s="348" t="s">
+      <c r="B9" s="325" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="349"/>
-      <c r="D9" s="349"/>
-      <c r="E9" s="349"/>
-      <c r="F9" s="349"/>
-      <c r="G9" s="350"/>
+      <c r="C9" s="326"/>
+      <c r="D9" s="326"/>
+      <c r="E9" s="326"/>
+      <c r="F9" s="326"/>
+      <c r="G9" s="327"/>
       <c r="H9" s="206"/>
       <c r="I9" s="207"/>
       <c r="J9" s="205"/>
       <c r="K9" s="205"/>
-      <c r="L9" s="348" t="s">
+      <c r="L9" s="325" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="349"/>
-      <c r="N9" s="349"/>
-      <c r="O9" s="349"/>
-      <c r="P9" s="350"/>
+      <c r="M9" s="326"/>
+      <c r="N9" s="326"/>
+      <c r="O9" s="326"/>
+      <c r="P9" s="327"/>
       <c r="Q9" s="205"/>
     </row>
     <row r="10" spans="1:19" ht="30.75" customHeight="1">
@@ -7745,25 +7745,25 @@
     </row>
     <row r="11" spans="1:19" ht="30.75" customHeight="1">
       <c r="A11" s="211"/>
-      <c r="B11" s="351" t="s">
+      <c r="B11" s="328" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="352"/>
-      <c r="D11" s="352"/>
-      <c r="E11" s="352"/>
-      <c r="F11" s="352"/>
-      <c r="G11" s="353"/>
+      <c r="C11" s="329"/>
+      <c r="D11" s="329"/>
+      <c r="E11" s="329"/>
+      <c r="F11" s="329"/>
+      <c r="G11" s="330"/>
       <c r="H11" s="205"/>
       <c r="I11" s="207"/>
       <c r="J11" s="205"/>
       <c r="K11" s="211"/>
-      <c r="L11" s="351" t="s">
+      <c r="L11" s="328" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="352"/>
-      <c r="N11" s="352"/>
-      <c r="O11" s="352"/>
-      <c r="P11" s="353"/>
+      <c r="M11" s="329"/>
+      <c r="N11" s="329"/>
+      <c r="O11" s="329"/>
+      <c r="P11" s="330"/>
       <c r="Q11" s="205"/>
     </row>
     <row r="12" spans="1:19" ht="30.75" customHeight="1">
@@ -8189,45 +8189,37 @@
         <v>26</v>
       </c>
       <c r="B34" s="112"/>
-      <c r="C34" s="309" t="str">
+      <c r="C34" s="247" t="str">
         <f>'Fr-01'!C45:E45</f>
         <v>(ที่ปรึกษา/ผู้คำนวณ)</v>
       </c>
-      <c r="D34" s="327"/>
-      <c r="E34" s="327"/>
-      <c r="F34" s="312" t="s">
+      <c r="D34" s="344"/>
+      <c r="E34" s="344"/>
+      <c r="F34" s="250" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="312"/>
+      <c r="G34" s="250"/>
       <c r="H34" s="203"/>
       <c r="I34" s="203"/>
-      <c r="J34" s="328" t="str">
+      <c r="J34" s="345" t="str">
         <f>'Fr-01'!I45</f>
         <v>วันที่ผู้ทวนสอบตรวจเสร็จ</v>
       </c>
-      <c r="K34" s="310"/>
-      <c r="L34" s="310"/>
-      <c r="M34" s="329"/>
+      <c r="K34" s="248"/>
+      <c r="L34" s="248"/>
+      <c r="M34" s="346"/>
       <c r="N34" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="O34" s="324" t="str">
+      <c r="O34" s="341" t="str">
         <f>'Fr-01'!L45</f>
         <v>กรณีที่ อบก. ให้แก้ไขเพิ่มเติม</v>
       </c>
-      <c r="P34" s="325"/>
-      <c r="Q34" s="326"/>
+      <c r="P34" s="342"/>
+      <c r="Q34" s="343"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="L11:P11"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="O34:Q34"/>
     <mergeCell ref="C34:E34"/>
@@ -8244,6 +8236,14 @@
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="B9:G9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="L11:P11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8273,130 +8273,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="330">
+      <c r="A1" s="347">
         <v>3</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="336" t="s">
+      <c r="C1" s="353" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
-      <c r="G1" s="338"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="355"/>
       <c r="H1" s="127" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="128"/>
-      <c r="J1" s="372"/>
-      <c r="K1" s="339"/>
-      <c r="L1" s="339"/>
-      <c r="M1" s="340"/>
+      <c r="J1" s="367"/>
+      <c r="K1" s="356"/>
+      <c r="L1" s="356"/>
+      <c r="M1" s="357"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="331"/>
-      <c r="B2" s="247" t="s">
+      <c r="A2" s="348"/>
+      <c r="B2" s="316" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="335"/>
-      <c r="D2" s="373">
+      <c r="C2" s="352"/>
+      <c r="D2" s="368">
         <f>'Fr-02'!E2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="374"/>
-      <c r="F2" s="374"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="247" t="s">
+      <c r="E2" s="369"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="316" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="335"/>
-      <c r="J2" s="244" t="s">
+      <c r="I2" s="352"/>
+      <c r="J2" s="313" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="347"/>
+      <c r="K2" s="363"/>
+      <c r="L2" s="363"/>
+      <c r="M2" s="364"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="331"/>
-      <c r="B3" s="247" t="s">
+      <c r="A3" s="348"/>
+      <c r="B3" s="316" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="335"/>
-      <c r="D3" s="373">
+      <c r="C3" s="352"/>
+      <c r="D3" s="368">
         <f>'Fr-02'!E3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="374"/>
-      <c r="F3" s="374"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="247" t="s">
+      <c r="E3" s="369"/>
+      <c r="F3" s="369"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="316" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="335"/>
-      <c r="J3" s="244" t="s">
+      <c r="I3" s="352"/>
+      <c r="J3" s="313" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="347"/>
+      <c r="K3" s="363"/>
+      <c r="L3" s="363"/>
+      <c r="M3" s="364"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A4" s="362" t="s">
+      <c r="A4" s="339" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="375" t="s">
+      <c r="B4" s="370" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="276"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
-      <c r="H4" s="276"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="276"/>
-      <c r="K4" s="276"/>
-      <c r="L4" s="276"/>
-      <c r="M4" s="277"/>
+      <c r="C4" s="302"/>
+      <c r="D4" s="302"/>
+      <c r="E4" s="302"/>
+      <c r="F4" s="302"/>
+      <c r="G4" s="302"/>
+      <c r="H4" s="302"/>
+      <c r="I4" s="302"/>
+      <c r="J4" s="302"/>
+      <c r="K4" s="302"/>
+      <c r="L4" s="302"/>
+      <c r="M4" s="303"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A5" s="363"/>
-      <c r="B5" s="376" t="s">
+      <c r="A5" s="340"/>
+      <c r="B5" s="371" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="272"/>
-      <c r="D5" s="272"/>
-      <c r="E5" s="272"/>
-      <c r="F5" s="272"/>
-      <c r="G5" s="272"/>
-      <c r="H5" s="272"/>
-      <c r="I5" s="272"/>
-      <c r="J5" s="272"/>
-      <c r="K5" s="272"/>
-      <c r="L5" s="272"/>
-      <c r="M5" s="273"/>
+      <c r="C5" s="298"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="298"/>
+      <c r="H5" s="298"/>
+      <c r="I5" s="298"/>
+      <c r="J5" s="298"/>
+      <c r="K5" s="298"/>
+      <c r="L5" s="298"/>
+      <c r="M5" s="299"/>
     </row>
     <row r="6" spans="1:15" ht="12" customHeight="1">
-      <c r="A6" s="377"/>
-      <c r="B6" s="378"/>
-      <c r="C6" s="378"/>
-      <c r="D6" s="378"/>
-      <c r="E6" s="378"/>
-      <c r="F6" s="378"/>
-      <c r="G6" s="378"/>
-      <c r="H6" s="378"/>
-      <c r="I6" s="378"/>
-      <c r="J6" s="378"/>
-      <c r="K6" s="378"/>
-      <c r="L6" s="378"/>
-      <c r="M6" s="379"/>
+      <c r="A6" s="372"/>
+      <c r="B6" s="373"/>
+      <c r="C6" s="373"/>
+      <c r="D6" s="373"/>
+      <c r="E6" s="373"/>
+      <c r="F6" s="373"/>
+      <c r="G6" s="373"/>
+      <c r="H6" s="373"/>
+      <c r="I6" s="373"/>
+      <c r="J6" s="373"/>
+      <c r="K6" s="373"/>
+      <c r="L6" s="373"/>
+      <c r="M6" s="374"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="21"/>
@@ -8410,10 +8410,10 @@
       <c r="I7" s="25"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="370" t="s">
+      <c r="L7" s="365" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="371"/>
+      <c r="M7" s="366"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="223"/>
@@ -8426,10 +8426,10 @@
       <c r="I8" s="27"/>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
-      <c r="L8" s="364" t="s">
+      <c r="L8" s="375" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="365"/>
+      <c r="M8" s="376"/>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="223"/>
@@ -8442,10 +8442,10 @@
       <c r="I9" s="27"/>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
-      <c r="L9" s="366" t="s">
+      <c r="L9" s="377" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="367"/>
+      <c r="M9" s="378"/>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="223"/>
@@ -8458,10 +8458,10 @@
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
       <c r="K10" s="26"/>
-      <c r="L10" s="368" t="s">
+      <c r="L10" s="379" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="369"/>
+      <c r="M10" s="380"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="225"/>
@@ -8999,35 +8999,42 @@
       <c r="A60" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="309" t="e" cm="1" vm="1">
+      <c r="B60" s="247" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B60" ca="1">'Fr-01'!C45:E45</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C60" s="310"/>
-      <c r="D60" s="310"/>
-      <c r="E60" s="312" t="s">
+      <c r="C60" s="248"/>
+      <c r="D60" s="248"/>
+      <c r="E60" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="312"/>
-      <c r="G60" s="328" t="str">
+      <c r="F60" s="250"/>
+      <c r="G60" s="345" t="str">
         <f>'Fr-01'!I45</f>
         <v>วันที่ผู้ทวนสอบตรวจเสร็จ</v>
       </c>
-      <c r="H60" s="310"/>
-      <c r="I60" s="329"/>
+      <c r="H60" s="248"/>
+      <c r="I60" s="346"/>
       <c r="J60" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K60" s="324" t="str">
+      <c r="K60" s="341" t="str">
         <f>'Fr-01'!L45</f>
         <v>กรณีที่ อบก. ให้แก้ไขเพิ่มเติม</v>
       </c>
-      <c r="L60" s="325"/>
-      <c r="M60" s="326"/>
+      <c r="L60" s="342"/>
+      <c r="M60" s="343"/>
     </row>
     <row r="62" spans="1:13" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:G1"/>
@@ -9044,13 +9051,6 @@
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="A6:M6"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="1.4960629921259843" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9090,20 +9090,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="380">
+      <c r="A1" s="446">
         <v>4.0999999999999996</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="382" t="s">
+      <c r="C1" s="448" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="382"/>
-      <c r="E1" s="382"/>
-      <c r="F1" s="382"/>
-      <c r="G1" s="382"/>
-      <c r="H1" s="382"/>
+      <c r="D1" s="448"/>
+      <c r="E1" s="448"/>
+      <c r="F1" s="448"/>
+      <c r="G1" s="448"/>
+      <c r="H1" s="448"/>
       <c r="I1" s="127" t="s">
         <v>3</v>
       </c>
@@ -9112,27 +9112,27 @@
       <c r="L1" s="128"/>
       <c r="M1" s="127"/>
       <c r="N1" s="128"/>
-      <c r="O1" s="383"/>
-      <c r="P1" s="383"/>
-      <c r="Q1" s="383"/>
-      <c r="R1" s="383"/>
-      <c r="S1" s="383"/>
-      <c r="T1" s="384"/>
+      <c r="O1" s="449"/>
+      <c r="P1" s="449"/>
+      <c r="Q1" s="449"/>
+      <c r="R1" s="449"/>
+      <c r="S1" s="449"/>
+      <c r="T1" s="450"/>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="381"/>
+      <c r="A2" s="447"/>
       <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="385" t="e">
+      <c r="C2" s="451" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D2" s="385"/>
-      <c r="E2" s="386"/>
-      <c r="F2" s="386"/>
-      <c r="G2" s="386"/>
-      <c r="H2" s="386"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="452"/>
+      <c r="F2" s="452"/>
+      <c r="G2" s="452"/>
+      <c r="H2" s="452"/>
       <c r="I2" s="15" t="s">
         <v>4</v>
       </c>
@@ -9141,31 +9141,31 @@
       <c r="L2" s="126"/>
       <c r="M2" s="126"/>
       <c r="N2" s="126"/>
-      <c r="O2" s="387" t="s">
+      <c r="O2" s="453" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="387"/>
-      <c r="Q2" s="387"/>
-      <c r="R2" s="387"/>
-      <c r="S2" s="387"/>
-      <c r="T2" s="388"/>
+      <c r="P2" s="453"/>
+      <c r="Q2" s="453"/>
+      <c r="R2" s="453"/>
+      <c r="S2" s="453"/>
+      <c r="T2" s="454"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="381"/>
+      <c r="A3" s="447"/>
       <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="385" t="e">
+      <c r="C3" s="451" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="385"/>
-      <c r="E3" s="386"/>
-      <c r="F3" s="386"/>
-      <c r="G3" s="386"/>
-      <c r="H3" s="386"/>
+      <c r="D3" s="451"/>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
+      <c r="G3" s="452"/>
+      <c r="H3" s="452"/>
       <c r="I3" s="15" t="s">
         <v>6</v>
       </c>
@@ -9174,200 +9174,200 @@
       <c r="L3" s="126"/>
       <c r="M3" s="126"/>
       <c r="N3" s="126"/>
-      <c r="O3" s="387" t="s">
+      <c r="O3" s="453" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="387"/>
-      <c r="Q3" s="387"/>
-      <c r="R3" s="387"/>
-      <c r="S3" s="387"/>
-      <c r="T3" s="388"/>
+      <c r="P3" s="453"/>
+      <c r="Q3" s="453"/>
+      <c r="R3" s="453"/>
+      <c r="S3" s="453"/>
+      <c r="T3" s="454"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="398" t="s">
+      <c r="A4" s="415" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="375" t="s">
+      <c r="B4" s="370" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="276"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
-      <c r="H4" s="276"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="276"/>
-      <c r="K4" s="276"/>
-      <c r="L4" s="276"/>
-      <c r="M4" s="276"/>
-      <c r="N4" s="276"/>
-      <c r="O4" s="276"/>
-      <c r="P4" s="276"/>
-      <c r="Q4" s="276"/>
-      <c r="R4" s="276"/>
-      <c r="S4" s="276"/>
-      <c r="T4" s="400"/>
+      <c r="C4" s="302"/>
+      <c r="D4" s="302"/>
+      <c r="E4" s="302"/>
+      <c r="F4" s="302"/>
+      <c r="G4" s="302"/>
+      <c r="H4" s="302"/>
+      <c r="I4" s="302"/>
+      <c r="J4" s="302"/>
+      <c r="K4" s="302"/>
+      <c r="L4" s="302"/>
+      <c r="M4" s="302"/>
+      <c r="N4" s="302"/>
+      <c r="O4" s="302"/>
+      <c r="P4" s="302"/>
+      <c r="Q4" s="302"/>
+      <c r="R4" s="302"/>
+      <c r="S4" s="302"/>
+      <c r="T4" s="417"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="399"/>
-      <c r="B5" s="401" t="s">
+      <c r="A5" s="416"/>
+      <c r="B5" s="418" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="402"/>
-      <c r="J5" s="402"/>
-      <c r="K5" s="402"/>
-      <c r="L5" s="402"/>
-      <c r="M5" s="402"/>
-      <c r="N5" s="402"/>
-      <c r="O5" s="402"/>
-      <c r="P5" s="402"/>
-      <c r="Q5" s="402"/>
-      <c r="R5" s="402"/>
-      <c r="S5" s="402"/>
-      <c r="T5" s="403"/>
+      <c r="C5" s="419"/>
+      <c r="D5" s="419"/>
+      <c r="E5" s="419"/>
+      <c r="F5" s="419"/>
+      <c r="G5" s="419"/>
+      <c r="H5" s="419"/>
+      <c r="I5" s="419"/>
+      <c r="J5" s="419"/>
+      <c r="K5" s="419"/>
+      <c r="L5" s="419"/>
+      <c r="M5" s="419"/>
+      <c r="N5" s="419"/>
+      <c r="O5" s="419"/>
+      <c r="P5" s="419"/>
+      <c r="Q5" s="419"/>
+      <c r="R5" s="419"/>
+      <c r="S5" s="419"/>
+      <c r="T5" s="420"/>
     </row>
     <row r="6" spans="1:22" ht="12" customHeight="1">
-      <c r="A6" s="404"/>
-      <c r="B6" s="405"/>
-      <c r="C6" s="405"/>
-      <c r="D6" s="405"/>
-      <c r="E6" s="405"/>
-      <c r="F6" s="405"/>
-      <c r="G6" s="405"/>
-      <c r="H6" s="405"/>
-      <c r="I6" s="405"/>
-      <c r="J6" s="405"/>
-      <c r="K6" s="405"/>
-      <c r="L6" s="405"/>
-      <c r="M6" s="405"/>
-      <c r="N6" s="405"/>
-      <c r="O6" s="405"/>
-      <c r="P6" s="405"/>
-      <c r="Q6" s="405"/>
-      <c r="R6" s="405"/>
-      <c r="S6" s="405"/>
-      <c r="T6" s="406"/>
+      <c r="A6" s="421"/>
+      <c r="B6" s="422"/>
+      <c r="C6" s="422"/>
+      <c r="D6" s="422"/>
+      <c r="E6" s="422"/>
+      <c r="F6" s="422"/>
+      <c r="G6" s="422"/>
+      <c r="H6" s="422"/>
+      <c r="I6" s="422"/>
+      <c r="J6" s="422"/>
+      <c r="K6" s="422"/>
+      <c r="L6" s="422"/>
+      <c r="M6" s="422"/>
+      <c r="N6" s="422"/>
+      <c r="O6" s="422"/>
+      <c r="P6" s="422"/>
+      <c r="Q6" s="422"/>
+      <c r="R6" s="422"/>
+      <c r="S6" s="422"/>
+      <c r="T6" s="423"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="407" t="s">
+      <c r="A7" s="424" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="410" t="s">
+      <c r="B7" s="427" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="413" t="s">
+      <c r="C7" s="430" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="414"/>
-      <c r="E7" s="415"/>
-      <c r="F7" s="422" t="s">
+      <c r="D7" s="431"/>
+      <c r="E7" s="432"/>
+      <c r="F7" s="439" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="425" t="s">
+      <c r="G7" s="442" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="428" t="s">
+      <c r="H7" s="394" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="429"/>
-      <c r="J7" s="429"/>
-      <c r="K7" s="429"/>
-      <c r="L7" s="429"/>
-      <c r="M7" s="430"/>
-      <c r="N7" s="444" t="s">
+      <c r="I7" s="395"/>
+      <c r="J7" s="395"/>
+      <c r="K7" s="395"/>
+      <c r="L7" s="395"/>
+      <c r="M7" s="445"/>
+      <c r="N7" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="451" t="s">
+      <c r="O7" s="403" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="392" t="s">
+      <c r="P7" s="406" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="389" t="s">
+      <c r="Q7" s="409" t="s">
         <v>58</v>
       </c>
-      <c r="R7" s="392" t="s">
+      <c r="R7" s="406" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="395" t="s">
+      <c r="S7" s="412" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="440" t="s">
+      <c r="T7" s="390" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="408"/>
-      <c r="B8" s="411"/>
-      <c r="C8" s="416"/>
-      <c r="D8" s="417"/>
-      <c r="E8" s="418"/>
-      <c r="F8" s="423"/>
-      <c r="G8" s="426"/>
-      <c r="H8" s="443" t="s">
+      <c r="A8" s="425"/>
+      <c r="B8" s="428"/>
+      <c r="C8" s="433"/>
+      <c r="D8" s="434"/>
+      <c r="E8" s="435"/>
+      <c r="F8" s="440"/>
+      <c r="G8" s="443"/>
+      <c r="H8" s="393" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="443"/>
-      <c r="J8" s="428" t="s">
+      <c r="I8" s="393"/>
+      <c r="J8" s="394" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="429"/>
-      <c r="L8" s="429"/>
-      <c r="M8" s="444" t="s">
+      <c r="K8" s="395"/>
+      <c r="L8" s="395"/>
+      <c r="M8" s="396" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="445"/>
-      <c r="O8" s="452"/>
-      <c r="P8" s="393"/>
-      <c r="Q8" s="390"/>
-      <c r="R8" s="393"/>
-      <c r="S8" s="396"/>
-      <c r="T8" s="441"/>
+      <c r="N8" s="397"/>
+      <c r="O8" s="404"/>
+      <c r="P8" s="407"/>
+      <c r="Q8" s="410"/>
+      <c r="R8" s="407"/>
+      <c r="S8" s="413"/>
+      <c r="T8" s="391"/>
     </row>
     <row r="9" spans="1:22" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A9" s="408"/>
-      <c r="B9" s="411"/>
-      <c r="C9" s="419"/>
-      <c r="D9" s="420"/>
-      <c r="E9" s="421"/>
-      <c r="F9" s="423"/>
-      <c r="G9" s="426"/>
-      <c r="H9" s="444" t="s">
+      <c r="A9" s="425"/>
+      <c r="B9" s="428"/>
+      <c r="C9" s="436"/>
+      <c r="D9" s="437"/>
+      <c r="E9" s="438"/>
+      <c r="F9" s="440"/>
+      <c r="G9" s="443"/>
+      <c r="H9" s="396" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="447" t="s">
+      <c r="I9" s="399" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="449" t="s">
+      <c r="J9" s="401" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="444" t="s">
+      <c r="K9" s="396" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="449" t="s">
+      <c r="L9" s="401" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="445"/>
-      <c r="N9" s="445"/>
-      <c r="O9" s="452"/>
-      <c r="P9" s="393"/>
-      <c r="Q9" s="390"/>
-      <c r="R9" s="393"/>
-      <c r="S9" s="396"/>
-      <c r="T9" s="441"/>
+      <c r="M9" s="397"/>
+      <c r="N9" s="397"/>
+      <c r="O9" s="404"/>
+      <c r="P9" s="407"/>
+      <c r="Q9" s="410"/>
+      <c r="R9" s="407"/>
+      <c r="S9" s="413"/>
+      <c r="T9" s="391"/>
     </row>
     <row r="10" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A10" s="409"/>
-      <c r="B10" s="412"/>
+      <c r="A10" s="426"/>
+      <c r="B10" s="429"/>
       <c r="C10" s="81" t="s">
         <v>45</v>
       </c>
@@ -9377,21 +9377,21 @@
       <c r="E10" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="424"/>
-      <c r="G10" s="427"/>
-      <c r="H10" s="446"/>
-      <c r="I10" s="448"/>
-      <c r="J10" s="450"/>
-      <c r="K10" s="446"/>
-      <c r="L10" s="450"/>
-      <c r="M10" s="446"/>
-      <c r="N10" s="446"/>
-      <c r="O10" s="453"/>
-      <c r="P10" s="394"/>
-      <c r="Q10" s="391"/>
-      <c r="R10" s="394"/>
-      <c r="S10" s="397"/>
-      <c r="T10" s="442"/>
+      <c r="F10" s="441"/>
+      <c r="G10" s="444"/>
+      <c r="H10" s="398"/>
+      <c r="I10" s="400"/>
+      <c r="J10" s="402"/>
+      <c r="K10" s="398"/>
+      <c r="L10" s="402"/>
+      <c r="M10" s="398"/>
+      <c r="N10" s="398"/>
+      <c r="O10" s="405"/>
+      <c r="P10" s="408"/>
+      <c r="Q10" s="411"/>
+      <c r="R10" s="408"/>
+      <c r="S10" s="414"/>
+      <c r="T10" s="392"/>
     </row>
     <row r="11" spans="1:22" ht="19.5" customHeight="1">
       <c r="A11" s="232"/>
@@ -9997,38 +9997,38 @@
       <c r="A161" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B161" s="434" t="e">
+      <c r="B161" s="384" t="e">
         <f>'Fr-01'!C45:E45</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C161" s="435"/>
-      <c r="D161" s="435"/>
-      <c r="E161" s="435"/>
-      <c r="F161" s="435"/>
-      <c r="G161" s="436" t="s">
+      <c r="C161" s="385"/>
+      <c r="D161" s="385"/>
+      <c r="E161" s="385"/>
+      <c r="F161" s="385"/>
+      <c r="G161" s="386" t="s">
         <v>28</v>
       </c>
-      <c r="H161" s="436"/>
-      <c r="I161" s="436"/>
-      <c r="J161" s="437" t="str">
+      <c r="H161" s="386"/>
+      <c r="I161" s="386"/>
+      <c r="J161" s="387" t="str">
         <f>'Fr-01'!I45</f>
         <v>วันที่ผู้ทวนสอบตรวจเสร็จ</v>
       </c>
-      <c r="K161" s="438"/>
-      <c r="L161" s="438"/>
-      <c r="M161" s="438"/>
-      <c r="N161" s="438"/>
-      <c r="O161" s="439"/>
+      <c r="K161" s="388"/>
+      <c r="L161" s="388"/>
+      <c r="M161" s="388"/>
+      <c r="N161" s="388"/>
+      <c r="O161" s="389"/>
       <c r="P161" s="40"/>
       <c r="Q161" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="R161" s="431" t="str">
+      <c r="R161" s="381" t="str">
         <f>'Fr-01'!L45</f>
         <v>กรณีที่ อบก. ให้แก้ไขเพิ่มเติม</v>
       </c>
-      <c r="S161" s="432"/>
-      <c r="T161" s="433"/>
+      <c r="S161" s="382"/>
+      <c r="T161" s="383"/>
     </row>
     <row r="162" spans="1:20" s="4" customFormat="1" ht="21.75" customHeight="1">
       <c r="A162" s="1"/>
@@ -10054,6 +10054,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="S7:S10"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="B5:T5"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:E9"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:M7"/>
     <mergeCell ref="R161:T161"/>
     <mergeCell ref="B161:F161"/>
     <mergeCell ref="G161:I161"/>
@@ -10070,26 +10090,6 @@
     <mergeCell ref="N7:N10"/>
     <mergeCell ref="O7:O10"/>
     <mergeCell ref="P7:P10"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="S7:S10"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="B5:T5"/>
-    <mergeCell ref="A6:T6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:E9"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="O3:T3"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
@@ -10141,81 +10141,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="380">
+      <c r="A1" s="446">
         <v>4.2</v>
       </c>
-      <c r="B1" s="508" t="s">
+      <c r="B1" s="476" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="508"/>
-      <c r="D1" s="382" t="s">
+      <c r="C1" s="476"/>
+      <c r="D1" s="448" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="382"/>
-      <c r="F1" s="382"/>
-      <c r="G1" s="382"/>
-      <c r="H1" s="382"/>
-      <c r="I1" s="382"/>
-      <c r="J1" s="382"/>
-      <c r="K1" s="382"/>
-      <c r="L1" s="382"/>
-      <c r="M1" s="509" t="s">
+      <c r="E1" s="448"/>
+      <c r="F1" s="448"/>
+      <c r="G1" s="448"/>
+      <c r="H1" s="448"/>
+      <c r="I1" s="448"/>
+      <c r="J1" s="448"/>
+      <c r="K1" s="448"/>
+      <c r="L1" s="448"/>
+      <c r="M1" s="477" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="510"/>
-      <c r="O1" s="511"/>
-      <c r="P1" s="511"/>
-      <c r="Q1" s="511"/>
-      <c r="R1" s="511"/>
-      <c r="S1" s="511"/>
-      <c r="T1" s="511"/>
-      <c r="U1" s="511"/>
-      <c r="V1" s="511"/>
-      <c r="W1" s="511"/>
-      <c r="X1" s="511"/>
-      <c r="Y1" s="511"/>
-      <c r="Z1" s="512"/>
+      <c r="N1" s="478"/>
+      <c r="O1" s="479"/>
+      <c r="P1" s="479"/>
+      <c r="Q1" s="479"/>
+      <c r="R1" s="479"/>
+      <c r="S1" s="479"/>
+      <c r="T1" s="479"/>
+      <c r="U1" s="479"/>
+      <c r="V1" s="479"/>
+      <c r="W1" s="479"/>
+      <c r="X1" s="479"/>
+      <c r="Y1" s="479"/>
+      <c r="Z1" s="480"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:31" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="381"/>
-      <c r="B2" s="513" t="s">
+      <c r="A2" s="447"/>
+      <c r="B2" s="481" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="514"/>
-      <c r="D2" s="515" t="e">
+      <c r="C2" s="482"/>
+      <c r="D2" s="483" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E2" s="515"/>
-      <c r="F2" s="515"/>
-      <c r="G2" s="516"/>
-      <c r="H2" s="516"/>
-      <c r="I2" s="516"/>
-      <c r="J2" s="516"/>
-      <c r="K2" s="516"/>
-      <c r="L2" s="516"/>
+      <c r="E2" s="483"/>
+      <c r="F2" s="483"/>
+      <c r="G2" s="484"/>
+      <c r="H2" s="484"/>
+      <c r="I2" s="484"/>
+      <c r="J2" s="484"/>
+      <c r="K2" s="484"/>
+      <c r="L2" s="484"/>
       <c r="M2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="15"/>
-      <c r="O2" s="495" t="s">
+      <c r="O2" s="463" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="496"/>
-      <c r="Q2" s="496"/>
-      <c r="R2" s="496"/>
-      <c r="S2" s="496"/>
-      <c r="T2" s="496"/>
-      <c r="U2" s="496"/>
-      <c r="V2" s="496"/>
-      <c r="W2" s="496"/>
-      <c r="X2" s="496"/>
-      <c r="Y2" s="496"/>
-      <c r="Z2" s="497"/>
+      <c r="P2" s="464"/>
+      <c r="Q2" s="464"/>
+      <c r="R2" s="464"/>
+      <c r="S2" s="464"/>
+      <c r="T2" s="464"/>
+      <c r="U2" s="464"/>
+      <c r="V2" s="464"/>
+      <c r="W2" s="464"/>
+      <c r="X2" s="464"/>
+      <c r="Y2" s="464"/>
+      <c r="Z2" s="465"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
@@ -10223,41 +10223,41 @@
       <c r="AE2" s="5"/>
     </row>
     <row r="3" spans="1:31" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="381"/>
-      <c r="B3" s="513" t="s">
+      <c r="A3" s="447"/>
+      <c r="B3" s="481" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="514"/>
-      <c r="D3" s="515" t="e">
+      <c r="C3" s="482"/>
+      <c r="D3" s="483" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E3" s="515"/>
-      <c r="F3" s="515"/>
-      <c r="G3" s="516"/>
-      <c r="H3" s="516"/>
-      <c r="I3" s="516"/>
-      <c r="J3" s="516"/>
-      <c r="K3" s="516"/>
-      <c r="L3" s="516"/>
+      <c r="E3" s="483"/>
+      <c r="F3" s="483"/>
+      <c r="G3" s="484"/>
+      <c r="H3" s="484"/>
+      <c r="I3" s="484"/>
+      <c r="J3" s="484"/>
+      <c r="K3" s="484"/>
+      <c r="L3" s="484"/>
       <c r="M3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="15"/>
-      <c r="O3" s="495" t="s">
+      <c r="O3" s="463" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="496"/>
-      <c r="Q3" s="496"/>
-      <c r="R3" s="496"/>
-      <c r="S3" s="496"/>
-      <c r="T3" s="496"/>
-      <c r="U3" s="496"/>
-      <c r="V3" s="496"/>
-      <c r="W3" s="496"/>
-      <c r="X3" s="496"/>
-      <c r="Y3" s="496"/>
-      <c r="Z3" s="497"/>
+      <c r="P3" s="464"/>
+      <c r="Q3" s="464"/>
+      <c r="R3" s="464"/>
+      <c r="S3" s="464"/>
+      <c r="T3" s="464"/>
+      <c r="U3" s="464"/>
+      <c r="V3" s="464"/>
+      <c r="W3" s="464"/>
+      <c r="X3" s="464"/>
+      <c r="Y3" s="464"/>
+      <c r="Z3" s="465"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -10265,154 +10265,154 @@
       <c r="AE3" s="5"/>
     </row>
     <row r="4" spans="1:31" ht="12.75" customHeight="1">
-      <c r="A4" s="498" t="s">
+      <c r="A4" s="466" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="274" t="s">
+      <c r="B4" s="300" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="500"/>
-      <c r="D4" s="500"/>
-      <c r="E4" s="500"/>
-      <c r="F4" s="500"/>
-      <c r="G4" s="500"/>
-      <c r="H4" s="500"/>
-      <c r="I4" s="500"/>
-      <c r="J4" s="500"/>
-      <c r="K4" s="500"/>
-      <c r="L4" s="500"/>
-      <c r="M4" s="500"/>
-      <c r="N4" s="500"/>
-      <c r="O4" s="500"/>
-      <c r="P4" s="500"/>
-      <c r="Q4" s="500"/>
-      <c r="R4" s="500"/>
-      <c r="S4" s="500"/>
-      <c r="T4" s="500"/>
-      <c r="U4" s="500"/>
-      <c r="V4" s="500"/>
-      <c r="W4" s="500"/>
-      <c r="X4" s="500"/>
-      <c r="Y4" s="500"/>
-      <c r="Z4" s="501"/>
+      <c r="C4" s="468"/>
+      <c r="D4" s="468"/>
+      <c r="E4" s="468"/>
+      <c r="F4" s="468"/>
+      <c r="G4" s="468"/>
+      <c r="H4" s="468"/>
+      <c r="I4" s="468"/>
+      <c r="J4" s="468"/>
+      <c r="K4" s="468"/>
+      <c r="L4" s="468"/>
+      <c r="M4" s="468"/>
+      <c r="N4" s="468"/>
+      <c r="O4" s="468"/>
+      <c r="P4" s="468"/>
+      <c r="Q4" s="468"/>
+      <c r="R4" s="468"/>
+      <c r="S4" s="468"/>
+      <c r="T4" s="468"/>
+      <c r="U4" s="468"/>
+      <c r="V4" s="468"/>
+      <c r="W4" s="468"/>
+      <c r="X4" s="468"/>
+      <c r="Y4" s="468"/>
+      <c r="Z4" s="469"/>
     </row>
     <row r="5" spans="1:31" ht="12.75" customHeight="1">
-      <c r="A5" s="499"/>
-      <c r="B5" s="502" t="s">
+      <c r="A5" s="467"/>
+      <c r="B5" s="470" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="503"/>
-      <c r="D5" s="503"/>
-      <c r="E5" s="503"/>
-      <c r="F5" s="503"/>
-      <c r="G5" s="503"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="503"/>
-      <c r="J5" s="503"/>
-      <c r="K5" s="503"/>
-      <c r="L5" s="503"/>
-      <c r="M5" s="503"/>
-      <c r="N5" s="503"/>
-      <c r="O5" s="503"/>
-      <c r="P5" s="503"/>
-      <c r="Q5" s="503"/>
-      <c r="R5" s="503"/>
-      <c r="S5" s="503"/>
-      <c r="T5" s="503"/>
-      <c r="U5" s="503"/>
-      <c r="V5" s="503"/>
-      <c r="W5" s="503"/>
-      <c r="X5" s="503"/>
-      <c r="Y5" s="503"/>
-      <c r="Z5" s="504"/>
+      <c r="C5" s="471"/>
+      <c r="D5" s="471"/>
+      <c r="E5" s="471"/>
+      <c r="F5" s="471"/>
+      <c r="G5" s="471"/>
+      <c r="H5" s="471"/>
+      <c r="I5" s="471"/>
+      <c r="J5" s="471"/>
+      <c r="K5" s="471"/>
+      <c r="L5" s="471"/>
+      <c r="M5" s="471"/>
+      <c r="N5" s="471"/>
+      <c r="O5" s="471"/>
+      <c r="P5" s="471"/>
+      <c r="Q5" s="471"/>
+      <c r="R5" s="471"/>
+      <c r="S5" s="471"/>
+      <c r="T5" s="471"/>
+      <c r="U5" s="471"/>
+      <c r="V5" s="471"/>
+      <c r="W5" s="471"/>
+      <c r="X5" s="471"/>
+      <c r="Y5" s="471"/>
+      <c r="Z5" s="472"/>
     </row>
     <row r="6" spans="1:31" ht="12" customHeight="1">
-      <c r="A6" s="505"/>
-      <c r="B6" s="506"/>
-      <c r="C6" s="506"/>
-      <c r="D6" s="506"/>
-      <c r="E6" s="506"/>
-      <c r="F6" s="506"/>
-      <c r="G6" s="506"/>
-      <c r="H6" s="506"/>
-      <c r="I6" s="506"/>
-      <c r="J6" s="506"/>
-      <c r="K6" s="506"/>
-      <c r="L6" s="506"/>
-      <c r="M6" s="506"/>
-      <c r="N6" s="506"/>
-      <c r="O6" s="506"/>
-      <c r="P6" s="506"/>
-      <c r="Q6" s="506"/>
-      <c r="R6" s="506"/>
-      <c r="S6" s="506"/>
-      <c r="T6" s="506"/>
-      <c r="U6" s="506"/>
-      <c r="V6" s="506"/>
-      <c r="W6" s="506"/>
-      <c r="X6" s="506"/>
-      <c r="Y6" s="506"/>
-      <c r="Z6" s="507"/>
+      <c r="A6" s="473"/>
+      <c r="B6" s="474"/>
+      <c r="C6" s="474"/>
+      <c r="D6" s="474"/>
+      <c r="E6" s="474"/>
+      <c r="F6" s="474"/>
+      <c r="G6" s="474"/>
+      <c r="H6" s="474"/>
+      <c r="I6" s="474"/>
+      <c r="J6" s="474"/>
+      <c r="K6" s="474"/>
+      <c r="L6" s="474"/>
+      <c r="M6" s="474"/>
+      <c r="N6" s="474"/>
+      <c r="O6" s="474"/>
+      <c r="P6" s="474"/>
+      <c r="Q6" s="474"/>
+      <c r="R6" s="474"/>
+      <c r="S6" s="474"/>
+      <c r="T6" s="474"/>
+      <c r="U6" s="474"/>
+      <c r="V6" s="474"/>
+      <c r="W6" s="474"/>
+      <c r="X6" s="474"/>
+      <c r="Y6" s="474"/>
+      <c r="Z6" s="475"/>
     </row>
     <row r="7" spans="1:31" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="407" t="s">
+      <c r="A7" s="424" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="410" t="s">
+      <c r="B7" s="427" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="410" t="s">
+      <c r="C7" s="427" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="519" t="s">
+      <c r="D7" s="457" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="522" t="s">
+      <c r="E7" s="460" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="410" t="s">
+      <c r="F7" s="427" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="481" t="s">
+      <c r="G7" s="490" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="481"/>
-      <c r="I7" s="481"/>
-      <c r="J7" s="482" t="s">
+      <c r="H7" s="490"/>
+      <c r="I7" s="490"/>
+      <c r="J7" s="491" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="481" t="s">
+      <c r="K7" s="490" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="481"/>
-      <c r="M7" s="475" t="s">
+      <c r="L7" s="490"/>
+      <c r="M7" s="495" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="475"/>
-      <c r="O7" s="475"/>
-      <c r="P7" s="475"/>
-      <c r="Q7" s="475"/>
-      <c r="R7" s="486" t="s">
+      <c r="N7" s="495"/>
+      <c r="O7" s="495"/>
+      <c r="P7" s="495"/>
+      <c r="Q7" s="495"/>
+      <c r="R7" s="496" t="s">
         <v>88</v>
       </c>
-      <c r="S7" s="487"/>
-      <c r="T7" s="475" t="s">
+      <c r="S7" s="497"/>
+      <c r="T7" s="495" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="475"/>
-      <c r="V7" s="486" t="s">
+      <c r="U7" s="495"/>
+      <c r="V7" s="496" t="s">
         <v>89</v>
       </c>
-      <c r="W7" s="492" t="s">
+      <c r="W7" s="504" t="s">
         <v>57</v>
       </c>
-      <c r="X7" s="451" t="s">
+      <c r="X7" s="403" t="s">
         <v>58</v>
       </c>
-      <c r="Y7" s="395" t="s">
+      <c r="Y7" s="412" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="476" t="s">
+      <c r="Z7" s="485" t="s">
         <v>61</v>
       </c>
       <c r="AA7" s="1"/>
@@ -10421,69 +10421,69 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" spans="1:31" ht="12.75" customHeight="1">
-      <c r="A8" s="408"/>
-      <c r="B8" s="517"/>
-      <c r="C8" s="517"/>
-      <c r="D8" s="520"/>
-      <c r="E8" s="523"/>
-      <c r="F8" s="423"/>
-      <c r="G8" s="481"/>
-      <c r="H8" s="481"/>
-      <c r="I8" s="481"/>
-      <c r="J8" s="483"/>
-      <c r="K8" s="485"/>
-      <c r="L8" s="485"/>
-      <c r="M8" s="475"/>
-      <c r="N8" s="475"/>
-      <c r="O8" s="475"/>
-      <c r="P8" s="475"/>
-      <c r="Q8" s="475"/>
-      <c r="R8" s="488"/>
-      <c r="S8" s="489"/>
-      <c r="T8" s="490"/>
-      <c r="U8" s="490"/>
-      <c r="V8" s="491"/>
-      <c r="W8" s="493"/>
-      <c r="X8" s="467"/>
-      <c r="Y8" s="396"/>
-      <c r="Z8" s="477"/>
+      <c r="A8" s="425"/>
+      <c r="B8" s="455"/>
+      <c r="C8" s="455"/>
+      <c r="D8" s="458"/>
+      <c r="E8" s="461"/>
+      <c r="F8" s="440"/>
+      <c r="G8" s="490"/>
+      <c r="H8" s="490"/>
+      <c r="I8" s="490"/>
+      <c r="J8" s="492"/>
+      <c r="K8" s="494"/>
+      <c r="L8" s="494"/>
+      <c r="M8" s="495"/>
+      <c r="N8" s="495"/>
+      <c r="O8" s="495"/>
+      <c r="P8" s="495"/>
+      <c r="Q8" s="495"/>
+      <c r="R8" s="498"/>
+      <c r="S8" s="499"/>
+      <c r="T8" s="502"/>
+      <c r="U8" s="502"/>
+      <c r="V8" s="503"/>
+      <c r="W8" s="505"/>
+      <c r="X8" s="507"/>
+      <c r="Y8" s="413"/>
+      <c r="Z8" s="486"/>
     </row>
     <row r="9" spans="1:31" ht="12.75" customHeight="1">
-      <c r="A9" s="408"/>
-      <c r="B9" s="517"/>
-      <c r="C9" s="517"/>
-      <c r="D9" s="520"/>
-      <c r="E9" s="523"/>
-      <c r="F9" s="423"/>
-      <c r="G9" s="481" t="s">
+      <c r="A9" s="425"/>
+      <c r="B9" s="455"/>
+      <c r="C9" s="455"/>
+      <c r="D9" s="458"/>
+      <c r="E9" s="461"/>
+      <c r="F9" s="440"/>
+      <c r="G9" s="490" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="481" t="s">
+      <c r="H9" s="490" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="481" t="s">
+      <c r="I9" s="490" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="483"/>
-      <c r="K9" s="471" t="s">
+      <c r="J9" s="492"/>
+      <c r="K9" s="500" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="471" t="s">
+      <c r="L9" s="500" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="473" t="s">
+      <c r="M9" s="511" t="s">
         <v>91</v>
       </c>
-      <c r="N9" s="469" t="s">
+      <c r="N9" s="509" t="s">
         <v>92</v>
       </c>
-      <c r="O9" s="475" t="s">
+      <c r="O9" s="495" t="s">
         <v>93</v>
       </c>
-      <c r="P9" s="469" t="s">
+      <c r="P9" s="509" t="s">
         <v>94</v>
       </c>
-      <c r="Q9" s="473" t="s">
+      <c r="Q9" s="511" t="s">
         <v>95</v>
       </c>
       <c r="R9" s="80" t="s">
@@ -10492,77 +10492,77 @@
       <c r="S9" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="T9" s="479" t="s">
+      <c r="T9" s="488" t="s">
         <v>68</v>
       </c>
-      <c r="U9" s="479" t="s">
+      <c r="U9" s="488" t="s">
         <v>69</v>
       </c>
-      <c r="V9" s="491"/>
-      <c r="W9" s="493"/>
-      <c r="X9" s="467"/>
-      <c r="Y9" s="396"/>
-      <c r="Z9" s="477"/>
+      <c r="V9" s="503"/>
+      <c r="W9" s="505"/>
+      <c r="X9" s="507"/>
+      <c r="Y9" s="413"/>
+      <c r="Z9" s="486"/>
     </row>
     <row r="10" spans="1:31" ht="12.75" customHeight="1">
-      <c r="A10" s="408"/>
-      <c r="B10" s="517"/>
-      <c r="C10" s="517"/>
-      <c r="D10" s="520"/>
-      <c r="E10" s="523"/>
-      <c r="F10" s="423"/>
-      <c r="G10" s="481"/>
-      <c r="H10" s="481"/>
-      <c r="I10" s="481"/>
-      <c r="J10" s="483"/>
-      <c r="K10" s="472"/>
-      <c r="L10" s="472"/>
-      <c r="M10" s="473"/>
-      <c r="N10" s="474"/>
-      <c r="O10" s="475"/>
-      <c r="P10" s="474"/>
-      <c r="Q10" s="473"/>
-      <c r="R10" s="469" t="s">
+      <c r="A10" s="425"/>
+      <c r="B10" s="455"/>
+      <c r="C10" s="455"/>
+      <c r="D10" s="458"/>
+      <c r="E10" s="461"/>
+      <c r="F10" s="440"/>
+      <c r="G10" s="490"/>
+      <c r="H10" s="490"/>
+      <c r="I10" s="490"/>
+      <c r="J10" s="492"/>
+      <c r="K10" s="501"/>
+      <c r="L10" s="501"/>
+      <c r="M10" s="511"/>
+      <c r="N10" s="512"/>
+      <c r="O10" s="495"/>
+      <c r="P10" s="512"/>
+      <c r="Q10" s="511"/>
+      <c r="R10" s="509" t="s">
         <v>98</v>
       </c>
-      <c r="S10" s="469" t="s">
+      <c r="S10" s="509" t="s">
         <v>99</v>
       </c>
-      <c r="T10" s="480"/>
-      <c r="U10" s="480"/>
-      <c r="V10" s="491"/>
-      <c r="W10" s="493"/>
-      <c r="X10" s="467"/>
-      <c r="Y10" s="396"/>
-      <c r="Z10" s="477"/>
+      <c r="T10" s="489"/>
+      <c r="U10" s="489"/>
+      <c r="V10" s="503"/>
+      <c r="W10" s="505"/>
+      <c r="X10" s="507"/>
+      <c r="Y10" s="413"/>
+      <c r="Z10" s="486"/>
     </row>
     <row r="11" spans="1:31" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A11" s="409"/>
-      <c r="B11" s="518"/>
-      <c r="C11" s="518"/>
-      <c r="D11" s="521"/>
-      <c r="E11" s="524"/>
-      <c r="F11" s="424"/>
-      <c r="G11" s="481"/>
-      <c r="H11" s="481"/>
-      <c r="I11" s="481"/>
-      <c r="J11" s="484"/>
-      <c r="K11" s="472"/>
-      <c r="L11" s="472"/>
-      <c r="M11" s="473"/>
-      <c r="N11" s="470"/>
-      <c r="O11" s="475"/>
-      <c r="P11" s="470"/>
-      <c r="Q11" s="473"/>
-      <c r="R11" s="470"/>
-      <c r="S11" s="470"/>
-      <c r="T11" s="480"/>
-      <c r="U11" s="480"/>
-      <c r="V11" s="491"/>
-      <c r="W11" s="494"/>
-      <c r="X11" s="468"/>
-      <c r="Y11" s="397"/>
-      <c r="Z11" s="478"/>
+      <c r="A11" s="426"/>
+      <c r="B11" s="456"/>
+      <c r="C11" s="456"/>
+      <c r="D11" s="459"/>
+      <c r="E11" s="462"/>
+      <c r="F11" s="441"/>
+      <c r="G11" s="490"/>
+      <c r="H11" s="490"/>
+      <c r="I11" s="490"/>
+      <c r="J11" s="493"/>
+      <c r="K11" s="501"/>
+      <c r="L11" s="501"/>
+      <c r="M11" s="511"/>
+      <c r="N11" s="510"/>
+      <c r="O11" s="495"/>
+      <c r="P11" s="510"/>
+      <c r="Q11" s="511"/>
+      <c r="R11" s="510"/>
+      <c r="S11" s="510"/>
+      <c r="T11" s="489"/>
+      <c r="U11" s="489"/>
+      <c r="V11" s="503"/>
+      <c r="W11" s="506"/>
+      <c r="X11" s="508"/>
+      <c r="Y11" s="414"/>
+      <c r="Z11" s="487"/>
     </row>
     <row r="12" spans="1:31" ht="13.2" customHeight="1" thickBot="1">
       <c r="A12" s="35"/>
@@ -10583,18 +10583,18 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="454" t="s">
+      <c r="V12" s="513" t="s">
         <v>77</v>
       </c>
-      <c r="W12" s="455"/>
+      <c r="W12" s="514"/>
       <c r="X12" s="18" t="e">
         <f>+#REF!+#REF!+#REF!+#REF!+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="456" t="s">
+      <c r="Y12" s="515" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="457"/>
+      <c r="Z12" s="516"/>
     </row>
     <row r="13" spans="1:31" ht="13.2" customHeight="1">
       <c r="A13" s="35"/>
@@ -17781,44 +17781,44 @@
       <c r="A301" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B301" s="458" t="e">
+      <c r="B301" s="517" t="e">
         <f>'Fr-01'!C45:E45</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C301" s="459"/>
-      <c r="D301" s="459"/>
-      <c r="E301" s="459"/>
-      <c r="F301" s="459"/>
-      <c r="G301" s="459"/>
-      <c r="H301" s="460"/>
-      <c r="I301" s="461" t="s">
+      <c r="C301" s="518"/>
+      <c r="D301" s="518"/>
+      <c r="E301" s="518"/>
+      <c r="F301" s="518"/>
+      <c r="G301" s="518"/>
+      <c r="H301" s="519"/>
+      <c r="I301" s="520" t="s">
         <v>28</v>
       </c>
-      <c r="J301" s="462"/>
-      <c r="K301" s="437" t="str">
+      <c r="J301" s="521"/>
+      <c r="K301" s="387" t="str">
         <f>'Fr-01'!I45</f>
         <v>วันที่ผู้ทวนสอบตรวจเสร็จ</v>
       </c>
-      <c r="L301" s="437"/>
-      <c r="M301" s="437"/>
-      <c r="N301" s="437"/>
-      <c r="O301" s="437"/>
-      <c r="P301" s="437"/>
-      <c r="Q301" s="437"/>
+      <c r="L301" s="387"/>
+      <c r="M301" s="387"/>
+      <c r="N301" s="387"/>
+      <c r="O301" s="387"/>
+      <c r="P301" s="387"/>
+      <c r="Q301" s="387"/>
       <c r="R301" s="118"/>
-      <c r="S301" s="463" t="s">
+      <c r="S301" s="522" t="s">
         <v>30</v>
       </c>
-      <c r="T301" s="438"/>
-      <c r="U301" s="464" t="str">
+      <c r="T301" s="388"/>
+      <c r="U301" s="523" t="str">
         <f>'Fr-01'!L45</f>
         <v>กรณีที่ อบก. ให้แก้ไขเพิ่มเติม</v>
       </c>
-      <c r="V301" s="465"/>
-      <c r="W301" s="465"/>
-      <c r="X301" s="465"/>
-      <c r="Y301" s="465"/>
-      <c r="Z301" s="466"/>
+      <c r="V301" s="524"/>
+      <c r="W301" s="524"/>
+      <c r="X301" s="524"/>
+      <c r="Y301" s="524"/>
+      <c r="Z301" s="525"/>
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
       <c r="AC301" s="1"/>
@@ -17826,26 +17826,23 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="O3:Z3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:Z4"/>
-    <mergeCell ref="B5:Z5"/>
-    <mergeCell ref="A6:Z6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="B301:H301"/>
+    <mergeCell ref="I301:J301"/>
+    <mergeCell ref="K301:Q301"/>
+    <mergeCell ref="S301:T301"/>
+    <mergeCell ref="U301:Z301"/>
+    <mergeCell ref="X7:X11"/>
+    <mergeCell ref="Y7:Y11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
     <mergeCell ref="Z7:Z11"/>
     <mergeCell ref="T9:T11"/>
     <mergeCell ref="U9:U11"/>
@@ -17862,23 +17859,26 @@
     <mergeCell ref="T7:U8"/>
     <mergeCell ref="V7:V11"/>
     <mergeCell ref="W7:W11"/>
-    <mergeCell ref="X7:X11"/>
-    <mergeCell ref="Y7:Y11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="B301:H301"/>
-    <mergeCell ref="I301:J301"/>
-    <mergeCell ref="K301:Q301"/>
-    <mergeCell ref="S301:T301"/>
-    <mergeCell ref="U301:Z301"/>
+    <mergeCell ref="O3:Z3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:Z4"/>
+    <mergeCell ref="B5:Z5"/>
+    <mergeCell ref="A6:Z6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.43307086614173229" top="0.43307086614173229" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -17891,7 +17891,7 @@
   <dimension ref="A1:AR189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A52"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
@@ -17921,36 +17921,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="544">
+      <c r="A1" s="549">
         <v>4.3</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="532" t="s">
+      <c r="C1" s="562" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="533"/>
-      <c r="G1" s="533"/>
-      <c r="H1" s="534"/>
-      <c r="I1" s="509" t="s">
+      <c r="D1" s="563"/>
+      <c r="E1" s="563"/>
+      <c r="F1" s="563"/>
+      <c r="G1" s="563"/>
+      <c r="H1" s="564"/>
+      <c r="I1" s="477" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="510"/>
-      <c r="K1" s="510"/>
-      <c r="L1" s="510"/>
-      <c r="M1" s="510"/>
-      <c r="N1" s="535"/>
-      <c r="O1" s="528"/>
-      <c r="P1" s="528"/>
-      <c r="Q1" s="528"/>
-      <c r="R1" s="528"/>
-      <c r="S1" s="528"/>
-      <c r="T1" s="528"/>
-      <c r="U1" s="528"/>
-      <c r="V1" s="529"/>
+      <c r="J1" s="478"/>
+      <c r="K1" s="478"/>
+      <c r="L1" s="478"/>
+      <c r="M1" s="478"/>
+      <c r="N1" s="565"/>
+      <c r="O1" s="558"/>
+      <c r="P1" s="558"/>
+      <c r="Q1" s="558"/>
+      <c r="R1" s="558"/>
+      <c r="S1" s="558"/>
+      <c r="T1" s="558"/>
+      <c r="U1" s="558"/>
+      <c r="V1" s="559"/>
       <c r="W1" s="124"/>
       <c r="X1" s="86"/>
       <c r="Y1" s="86"/>
@@ -17970,16 +17970,16 @@
       <c r="AM1" s="87"/>
     </row>
     <row r="2" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="545"/>
+      <c r="A2" s="550"/>
       <c r="B2" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="373"/>
-      <c r="D2" s="547"/>
-      <c r="E2" s="374"/>
-      <c r="F2" s="374"/>
-      <c r="G2" s="374"/>
-      <c r="H2" s="249"/>
+      <c r="C2" s="368"/>
+      <c r="D2" s="552"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="318"/>
       <c r="I2" s="78" t="s">
         <v>4</v>
       </c>
@@ -17988,30 +17988,30 @@
       <c r="L2" s="115"/>
       <c r="M2" s="115"/>
       <c r="N2" s="115"/>
-      <c r="O2" s="530" t="s">
+      <c r="O2" s="560" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="530"/>
-      <c r="Q2" s="530"/>
-      <c r="R2" s="530"/>
-      <c r="S2" s="530"/>
-      <c r="T2" s="530"/>
-      <c r="U2" s="530"/>
-      <c r="V2" s="531"/>
+      <c r="P2" s="560"/>
+      <c r="Q2" s="560"/>
+      <c r="R2" s="560"/>
+      <c r="S2" s="560"/>
+      <c r="T2" s="560"/>
+      <c r="U2" s="560"/>
+      <c r="V2" s="561"/>
       <c r="W2" s="59"/>
       <c r="AM2" s="88"/>
     </row>
     <row r="3" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="546"/>
+      <c r="A3" s="551"/>
       <c r="B3" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="373"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="374"/>
-      <c r="F3" s="374"/>
-      <c r="G3" s="374"/>
-      <c r="H3" s="249"/>
+      <c r="C3" s="368"/>
+      <c r="D3" s="552"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="369"/>
+      <c r="G3" s="369"/>
+      <c r="H3" s="318"/>
       <c r="I3" s="78" t="s">
         <v>6</v>
       </c>
@@ -18020,290 +18020,290 @@
       <c r="L3" s="115"/>
       <c r="M3" s="115"/>
       <c r="N3" s="115"/>
-      <c r="O3" s="530" t="s">
+      <c r="O3" s="560" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="530"/>
-      <c r="Q3" s="530"/>
-      <c r="R3" s="530"/>
-      <c r="S3" s="530"/>
-      <c r="T3" s="530"/>
-      <c r="U3" s="530"/>
-      <c r="V3" s="531"/>
+      <c r="P3" s="560"/>
+      <c r="Q3" s="560"/>
+      <c r="R3" s="560"/>
+      <c r="S3" s="560"/>
+      <c r="T3" s="560"/>
+      <c r="U3" s="560"/>
+      <c r="V3" s="561"/>
       <c r="W3" s="59"/>
       <c r="AM3" s="88"/>
     </row>
     <row r="4" spans="1:39" ht="13.5" customHeight="1">
-      <c r="A4" s="398" t="s">
+      <c r="A4" s="415" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="375" t="s">
+      <c r="B4" s="370" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="276"/>
-      <c r="D4" s="276"/>
-      <c r="E4" s="276"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
-      <c r="H4" s="276"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="276"/>
-      <c r="K4" s="276"/>
-      <c r="L4" s="276"/>
-      <c r="M4" s="276"/>
-      <c r="N4" s="276"/>
-      <c r="O4" s="276"/>
-      <c r="P4" s="276"/>
-      <c r="Q4" s="276"/>
-      <c r="R4" s="276"/>
-      <c r="S4" s="276"/>
-      <c r="T4" s="276"/>
-      <c r="U4" s="276"/>
-      <c r="V4" s="400"/>
+      <c r="C4" s="302"/>
+      <c r="D4" s="302"/>
+      <c r="E4" s="302"/>
+      <c r="F4" s="302"/>
+      <c r="G4" s="302"/>
+      <c r="H4" s="302"/>
+      <c r="I4" s="302"/>
+      <c r="J4" s="302"/>
+      <c r="K4" s="302"/>
+      <c r="L4" s="302"/>
+      <c r="M4" s="302"/>
+      <c r="N4" s="302"/>
+      <c r="O4" s="302"/>
+      <c r="P4" s="302"/>
+      <c r="Q4" s="302"/>
+      <c r="R4" s="302"/>
+      <c r="S4" s="302"/>
+      <c r="T4" s="302"/>
+      <c r="U4" s="302"/>
+      <c r="V4" s="417"/>
       <c r="W4" s="59"/>
       <c r="AM4" s="38"/>
     </row>
     <row r="5" spans="1:39" ht="13.5" customHeight="1">
-      <c r="A5" s="399"/>
-      <c r="B5" s="401" t="s">
+      <c r="A5" s="416"/>
+      <c r="B5" s="418" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="402"/>
-      <c r="D5" s="402"/>
-      <c r="E5" s="402"/>
-      <c r="F5" s="402"/>
-      <c r="G5" s="402"/>
-      <c r="H5" s="402"/>
-      <c r="I5" s="402"/>
-      <c r="J5" s="402"/>
-      <c r="K5" s="402"/>
-      <c r="L5" s="402"/>
-      <c r="M5" s="402"/>
-      <c r="N5" s="402"/>
-      <c r="O5" s="402"/>
-      <c r="P5" s="402"/>
-      <c r="Q5" s="402"/>
-      <c r="R5" s="402"/>
-      <c r="S5" s="402"/>
-      <c r="T5" s="402"/>
-      <c r="U5" s="402"/>
-      <c r="V5" s="403"/>
+      <c r="C5" s="419"/>
+      <c r="D5" s="419"/>
+      <c r="E5" s="419"/>
+      <c r="F5" s="419"/>
+      <c r="G5" s="419"/>
+      <c r="H5" s="419"/>
+      <c r="I5" s="419"/>
+      <c r="J5" s="419"/>
+      <c r="K5" s="419"/>
+      <c r="L5" s="419"/>
+      <c r="M5" s="419"/>
+      <c r="N5" s="419"/>
+      <c r="O5" s="419"/>
+      <c r="P5" s="419"/>
+      <c r="Q5" s="419"/>
+      <c r="R5" s="419"/>
+      <c r="S5" s="419"/>
+      <c r="T5" s="419"/>
+      <c r="U5" s="419"/>
+      <c r="V5" s="420"/>
       <c r="W5" s="59"/>
       <c r="AM5" s="38"/>
     </row>
     <row r="6" spans="1:39" ht="12" customHeight="1">
-      <c r="A6" s="404"/>
-      <c r="B6" s="405"/>
-      <c r="C6" s="405"/>
-      <c r="D6" s="405"/>
-      <c r="E6" s="405"/>
-      <c r="F6" s="405"/>
-      <c r="G6" s="405"/>
-      <c r="H6" s="405"/>
-      <c r="I6" s="405"/>
-      <c r="J6" s="405"/>
-      <c r="K6" s="405"/>
-      <c r="L6" s="405"/>
-      <c r="M6" s="405"/>
-      <c r="N6" s="405"/>
-      <c r="O6" s="405"/>
-      <c r="P6" s="405"/>
-      <c r="Q6" s="405"/>
-      <c r="R6" s="405"/>
-      <c r="S6" s="405"/>
-      <c r="T6" s="405"/>
-      <c r="U6" s="405"/>
-      <c r="V6" s="406"/>
+      <c r="A6" s="421"/>
+      <c r="B6" s="422"/>
+      <c r="C6" s="422"/>
+      <c r="D6" s="422"/>
+      <c r="E6" s="422"/>
+      <c r="F6" s="422"/>
+      <c r="G6" s="422"/>
+      <c r="H6" s="422"/>
+      <c r="I6" s="422"/>
+      <c r="J6" s="422"/>
+      <c r="K6" s="422"/>
+      <c r="L6" s="422"/>
+      <c r="M6" s="422"/>
+      <c r="N6" s="422"/>
+      <c r="O6" s="422"/>
+      <c r="P6" s="422"/>
+      <c r="Q6" s="422"/>
+      <c r="R6" s="422"/>
+      <c r="S6" s="422"/>
+      <c r="T6" s="422"/>
+      <c r="U6" s="422"/>
+      <c r="V6" s="423"/>
       <c r="W6" s="59"/>
       <c r="AM6" s="38"/>
     </row>
     <row r="7" spans="1:39" ht="13.2" customHeight="1">
-      <c r="A7" s="536" t="s">
+      <c r="A7" s="553" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="410" t="s">
+      <c r="B7" s="427" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="413" t="s">
+      <c r="C7" s="430" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="414"/>
-      <c r="E7" s="415"/>
-      <c r="F7" s="422" t="s">
+      <c r="D7" s="431"/>
+      <c r="E7" s="432"/>
+      <c r="F7" s="439" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="425" t="s">
+      <c r="G7" s="442" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="428" t="s">
+      <c r="H7" s="394" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="429"/>
-      <c r="J7" s="429"/>
-      <c r="K7" s="429"/>
-      <c r="L7" s="429"/>
-      <c r="M7" s="430"/>
-      <c r="N7" s="444" t="s">
+      <c r="I7" s="395"/>
+      <c r="J7" s="395"/>
+      <c r="K7" s="395"/>
+      <c r="L7" s="395"/>
+      <c r="M7" s="445"/>
+      <c r="N7" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="451" t="s">
+      <c r="O7" s="403" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="541" t="s">
+      <c r="P7" s="526" t="s">
         <v>103</v>
       </c>
-      <c r="Q7" s="554" t="s">
+      <c r="Q7" s="538" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="563"/>
-      <c r="S7" s="563"/>
-      <c r="T7" s="563"/>
-      <c r="U7" s="563"/>
-      <c r="V7" s="564"/>
-      <c r="W7" s="548" t="s">
+      <c r="R7" s="539"/>
+      <c r="S7" s="539"/>
+      <c r="T7" s="539"/>
+      <c r="U7" s="539"/>
+      <c r="V7" s="540"/>
+      <c r="W7" s="530" t="s">
         <v>87</v>
       </c>
-      <c r="X7" s="559"/>
-      <c r="Y7" s="559"/>
-      <c r="Z7" s="559"/>
-      <c r="AA7" s="559"/>
-      <c r="AB7" s="549"/>
-      <c r="AC7" s="486" t="s">
+      <c r="X7" s="531"/>
+      <c r="Y7" s="531"/>
+      <c r="Z7" s="531"/>
+      <c r="AA7" s="531"/>
+      <c r="AB7" s="532"/>
+      <c r="AC7" s="496" t="s">
         <v>88</v>
       </c>
-      <c r="AD7" s="487"/>
-      <c r="AE7" s="548" t="s">
+      <c r="AD7" s="497"/>
+      <c r="AE7" s="530" t="s">
         <v>54</v>
       </c>
-      <c r="AF7" s="549"/>
-      <c r="AG7" s="486" t="s">
+      <c r="AF7" s="532"/>
+      <c r="AG7" s="496" t="s">
         <v>89</v>
       </c>
-      <c r="AH7" s="541" t="s">
+      <c r="AH7" s="526" t="s">
         <v>104</v>
       </c>
-      <c r="AI7" s="541" t="s">
+      <c r="AI7" s="526" t="s">
         <v>105</v>
       </c>
-      <c r="AJ7" s="392" t="s">
+      <c r="AJ7" s="406" t="s">
         <v>59</v>
       </c>
-      <c r="AK7" s="395" t="s">
+      <c r="AK7" s="412" t="s">
         <v>57</v>
       </c>
-      <c r="AL7" s="395" t="s">
+      <c r="AL7" s="412" t="s">
         <v>60</v>
       </c>
-      <c r="AM7" s="440" t="s">
+      <c r="AM7" s="390" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:39" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="537"/>
-      <c r="B8" s="411"/>
-      <c r="C8" s="416"/>
-      <c r="D8" s="417"/>
-      <c r="E8" s="418"/>
-      <c r="F8" s="423"/>
-      <c r="G8" s="426"/>
-      <c r="H8" s="443" t="s">
+      <c r="A8" s="554"/>
+      <c r="B8" s="428"/>
+      <c r="C8" s="433"/>
+      <c r="D8" s="434"/>
+      <c r="E8" s="435"/>
+      <c r="F8" s="440"/>
+      <c r="G8" s="443"/>
+      <c r="H8" s="393" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="443"/>
-      <c r="J8" s="428" t="s">
+      <c r="I8" s="393"/>
+      <c r="J8" s="394" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="429"/>
-      <c r="L8" s="429"/>
-      <c r="M8" s="444" t="s">
+      <c r="K8" s="395"/>
+      <c r="L8" s="395"/>
+      <c r="M8" s="396" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="445"/>
-      <c r="O8" s="452"/>
-      <c r="P8" s="542"/>
-      <c r="Q8" s="565"/>
-      <c r="R8" s="566"/>
-      <c r="S8" s="566"/>
-      <c r="T8" s="566"/>
-      <c r="U8" s="566"/>
-      <c r="V8" s="567"/>
-      <c r="W8" s="550"/>
-      <c r="X8" s="560"/>
-      <c r="Y8" s="560"/>
-      <c r="Z8" s="560"/>
-      <c r="AA8" s="560"/>
-      <c r="AB8" s="551"/>
-      <c r="AC8" s="488"/>
-      <c r="AD8" s="489"/>
-      <c r="AE8" s="550"/>
-      <c r="AF8" s="551"/>
-      <c r="AG8" s="491"/>
-      <c r="AH8" s="542"/>
-      <c r="AI8" s="542"/>
-      <c r="AJ8" s="393"/>
-      <c r="AK8" s="561"/>
-      <c r="AL8" s="561"/>
-      <c r="AM8" s="441"/>
+      <c r="N8" s="397"/>
+      <c r="O8" s="404"/>
+      <c r="P8" s="527"/>
+      <c r="Q8" s="541"/>
+      <c r="R8" s="542"/>
+      <c r="S8" s="542"/>
+      <c r="T8" s="542"/>
+      <c r="U8" s="542"/>
+      <c r="V8" s="543"/>
+      <c r="W8" s="533"/>
+      <c r="X8" s="534"/>
+      <c r="Y8" s="534"/>
+      <c r="Z8" s="534"/>
+      <c r="AA8" s="534"/>
+      <c r="AB8" s="535"/>
+      <c r="AC8" s="498"/>
+      <c r="AD8" s="499"/>
+      <c r="AE8" s="533"/>
+      <c r="AF8" s="535"/>
+      <c r="AG8" s="503"/>
+      <c r="AH8" s="527"/>
+      <c r="AI8" s="527"/>
+      <c r="AJ8" s="407"/>
+      <c r="AK8" s="536"/>
+      <c r="AL8" s="536"/>
+      <c r="AM8" s="391"/>
     </row>
     <row r="9" spans="1:39" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A9" s="537"/>
-      <c r="B9" s="411"/>
-      <c r="C9" s="419"/>
-      <c r="D9" s="420"/>
-      <c r="E9" s="421"/>
-      <c r="F9" s="423"/>
-      <c r="G9" s="426"/>
-      <c r="H9" s="444" t="s">
+      <c r="A9" s="554"/>
+      <c r="B9" s="428"/>
+      <c r="C9" s="436"/>
+      <c r="D9" s="437"/>
+      <c r="E9" s="438"/>
+      <c r="F9" s="440"/>
+      <c r="G9" s="443"/>
+      <c r="H9" s="396" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="447" t="s">
+      <c r="I9" s="399" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="449" t="s">
+      <c r="J9" s="401" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="444" t="s">
+      <c r="K9" s="396" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="449" t="s">
+      <c r="L9" s="401" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="445"/>
-      <c r="N9" s="445"/>
-      <c r="O9" s="452"/>
-      <c r="P9" s="542"/>
-      <c r="Q9" s="422" t="s">
+      <c r="M9" s="397"/>
+      <c r="N9" s="397"/>
+      <c r="O9" s="404"/>
+      <c r="P9" s="527"/>
+      <c r="Q9" s="439" t="s">
         <v>90</v>
       </c>
-      <c r="R9" s="554" t="s">
+      <c r="R9" s="538" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="422" t="s">
+      <c r="S9" s="439" t="s">
         <v>46</v>
       </c>
-      <c r="T9" s="415" t="s">
+      <c r="T9" s="432" t="s">
         <v>86</v>
       </c>
-      <c r="U9" s="539" t="s">
+      <c r="U9" s="556" t="s">
         <v>54</v>
       </c>
-      <c r="V9" s="540"/>
-      <c r="W9" s="469" t="s">
+      <c r="V9" s="557"/>
+      <c r="W9" s="509" t="s">
         <v>106</v>
       </c>
-      <c r="X9" s="469" t="s">
+      <c r="X9" s="509" t="s">
         <v>91</v>
       </c>
-      <c r="Y9" s="469" t="s">
+      <c r="Y9" s="509" t="s">
         <v>92</v>
       </c>
-      <c r="Z9" s="556" t="s">
+      <c r="Z9" s="547" t="s">
         <v>107</v>
       </c>
-      <c r="AA9" s="469" t="s">
+      <c r="AA9" s="509" t="s">
         <v>94</v>
       </c>
-      <c r="AB9" s="469" t="s">
+      <c r="AB9" s="509" t="s">
         <v>95</v>
       </c>
       <c r="AC9" s="80" t="s">
@@ -18312,23 +18312,23 @@
       <c r="AD9" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="AE9" s="552" t="s">
+      <c r="AE9" s="544" t="s">
         <v>68</v>
       </c>
-      <c r="AF9" s="552" t="s">
+      <c r="AF9" s="544" t="s">
         <v>69</v>
       </c>
-      <c r="AG9" s="491"/>
-      <c r="AH9" s="542"/>
-      <c r="AI9" s="542"/>
-      <c r="AJ9" s="393"/>
-      <c r="AK9" s="561"/>
-      <c r="AL9" s="561"/>
-      <c r="AM9" s="441"/>
+      <c r="AG9" s="503"/>
+      <c r="AH9" s="527"/>
+      <c r="AI9" s="527"/>
+      <c r="AJ9" s="407"/>
+      <c r="AK9" s="536"/>
+      <c r="AL9" s="536"/>
+      <c r="AM9" s="391"/>
     </row>
     <row r="10" spans="1:39" ht="40.5" customHeight="1">
-      <c r="A10" s="538"/>
-      <c r="B10" s="412"/>
+      <c r="A10" s="555"/>
+      <c r="B10" s="429"/>
       <c r="C10" s="81" t="s">
         <v>45</v>
       </c>
@@ -18338,48 +18338,48 @@
       <c r="E10" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="424"/>
-      <c r="G10" s="427"/>
-      <c r="H10" s="446"/>
-      <c r="I10" s="448"/>
-      <c r="J10" s="450"/>
-      <c r="K10" s="446"/>
-      <c r="L10" s="450"/>
-      <c r="M10" s="446"/>
-      <c r="N10" s="446"/>
-      <c r="O10" s="453"/>
-      <c r="P10" s="543"/>
-      <c r="Q10" s="558"/>
-      <c r="R10" s="555"/>
-      <c r="S10" s="558"/>
-      <c r="T10" s="418"/>
+      <c r="F10" s="441"/>
+      <c r="G10" s="444"/>
+      <c r="H10" s="398"/>
+      <c r="I10" s="400"/>
+      <c r="J10" s="402"/>
+      <c r="K10" s="398"/>
+      <c r="L10" s="402"/>
+      <c r="M10" s="398"/>
+      <c r="N10" s="398"/>
+      <c r="O10" s="405"/>
+      <c r="P10" s="528"/>
+      <c r="Q10" s="529"/>
+      <c r="R10" s="546"/>
+      <c r="S10" s="529"/>
+      <c r="T10" s="435"/>
       <c r="U10" s="82" t="s">
         <v>68</v>
       </c>
       <c r="V10" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="W10" s="470"/>
-      <c r="X10" s="470"/>
-      <c r="Y10" s="470"/>
-      <c r="Z10" s="557"/>
-      <c r="AA10" s="470"/>
-      <c r="AB10" s="470"/>
+      <c r="W10" s="510"/>
+      <c r="X10" s="510"/>
+      <c r="Y10" s="510"/>
+      <c r="Z10" s="548"/>
+      <c r="AA10" s="510"/>
+      <c r="AB10" s="510"/>
       <c r="AC10" s="79" t="s">
         <v>98</v>
       </c>
       <c r="AD10" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="AE10" s="553"/>
-      <c r="AF10" s="553"/>
-      <c r="AG10" s="488"/>
-      <c r="AH10" s="543"/>
-      <c r="AI10" s="543"/>
-      <c r="AJ10" s="394"/>
-      <c r="AK10" s="562"/>
-      <c r="AL10" s="562"/>
-      <c r="AM10" s="442"/>
+      <c r="AE10" s="545"/>
+      <c r="AF10" s="545"/>
+      <c r="AG10" s="498"/>
+      <c r="AH10" s="528"/>
+      <c r="AI10" s="528"/>
+      <c r="AJ10" s="408"/>
+      <c r="AK10" s="537"/>
+      <c r="AL10" s="537"/>
+      <c r="AM10" s="392"/>
     </row>
     <row r="11" spans="1:39" ht="19.5" customHeight="1">
       <c r="A11" s="685"/>
@@ -18634,715 +18634,715 @@
       <c r="AM52" s="38"/>
     </row>
     <row r="53" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A53" s="684"/>
+      <c r="A53" s="238"/>
       <c r="G53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="AM53" s="38"/>
     </row>
     <row r="54" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A54" s="684"/>
+      <c r="A54" s="238"/>
       <c r="G54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="AM54" s="38"/>
     </row>
     <row r="55" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A55" s="684"/>
+      <c r="A55" s="238"/>
       <c r="G55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="AM55" s="38"/>
     </row>
     <row r="56" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A56" s="684"/>
+      <c r="A56" s="238"/>
       <c r="G56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="AM56" s="38"/>
     </row>
     <row r="57" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A57" s="684"/>
+      <c r="A57" s="238"/>
       <c r="G57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="AM57" s="38"/>
     </row>
     <row r="58" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A58" s="684"/>
+      <c r="A58" s="238"/>
       <c r="G58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="AM58" s="38"/>
     </row>
     <row r="59" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A59" s="684"/>
+      <c r="A59" s="238"/>
       <c r="G59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="AM59" s="38"/>
     </row>
     <row r="60" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A60" s="684"/>
+      <c r="A60" s="238"/>
       <c r="G60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="AM60" s="38"/>
     </row>
     <row r="61" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A61" s="684"/>
+      <c r="A61" s="238"/>
       <c r="G61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="AM61" s="38"/>
     </row>
     <row r="62" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A62" s="684"/>
+      <c r="A62" s="238"/>
       <c r="G62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="AM62" s="38"/>
     </row>
     <row r="63" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A63" s="684"/>
+      <c r="A63" s="238"/>
       <c r="G63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="AM63" s="38"/>
     </row>
     <row r="64" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A64" s="684"/>
+      <c r="A64" s="238"/>
       <c r="G64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="AM64" s="38"/>
     </row>
     <row r="65" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A65" s="684"/>
+      <c r="A65" s="238"/>
       <c r="G65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="AM65" s="38"/>
     </row>
     <row r="66" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A66" s="684"/>
+      <c r="A66" s="238"/>
       <c r="G66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="AM66" s="38"/>
     </row>
     <row r="67" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A67" s="684"/>
+      <c r="A67" s="238"/>
       <c r="G67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="AM67" s="38"/>
     </row>
     <row r="68" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A68" s="684"/>
+      <c r="A68" s="238"/>
       <c r="G68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="AM68" s="38"/>
     </row>
     <row r="69" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A69" s="684"/>
+      <c r="A69" s="238"/>
       <c r="G69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="AM69" s="38"/>
     </row>
     <row r="70" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A70" s="684"/>
+      <c r="A70" s="238"/>
       <c r="G70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="AM70" s="38"/>
     </row>
     <row r="71" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A71" s="684"/>
+      <c r="A71" s="238"/>
       <c r="G71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="AM71" s="38"/>
     </row>
     <row r="72" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A72" s="684"/>
+      <c r="A72" s="238"/>
       <c r="G72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="AM72" s="38"/>
     </row>
     <row r="73" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A73" s="684"/>
+      <c r="A73" s="238"/>
       <c r="G73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="AM73" s="38"/>
     </row>
     <row r="74" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A74" s="684"/>
+      <c r="A74" s="238"/>
       <c r="G74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="AM74" s="38"/>
     </row>
     <row r="75" spans="1:39" ht="13.8" customHeight="1">
-      <c r="A75" s="684"/>
+      <c r="A75" s="238"/>
       <c r="G75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="AM75" s="38"/>
     </row>
     <row r="76" spans="1:39" ht="15" customHeight="1">
-      <c r="A76" s="684"/>
+      <c r="A76" s="238"/>
       <c r="G76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="AM76" s="38"/>
     </row>
     <row r="77" spans="1:39" ht="15" customHeight="1">
-      <c r="A77" s="684"/>
+      <c r="A77" s="238"/>
       <c r="G77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="AM77" s="38"/>
     </row>
     <row r="78" spans="1:39" ht="15" customHeight="1">
-      <c r="A78" s="684"/>
+      <c r="A78" s="238"/>
       <c r="G78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="AM78" s="38"/>
     </row>
     <row r="79" spans="1:39" ht="15" customHeight="1">
-      <c r="A79" s="684"/>
+      <c r="A79" s="238"/>
       <c r="G79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="AM79" s="38"/>
     </row>
     <row r="80" spans="1:39" ht="15" customHeight="1">
-      <c r="A80" s="684"/>
+      <c r="A80" s="238"/>
       <c r="G80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="AM80" s="38"/>
     </row>
     <row r="81" spans="1:39" ht="15" customHeight="1">
-      <c r="A81" s="684"/>
+      <c r="A81" s="238"/>
       <c r="G81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="AM81" s="38"/>
     </row>
     <row r="82" spans="1:39" ht="15" customHeight="1">
-      <c r="A82" s="684"/>
+      <c r="A82" s="238"/>
       <c r="G82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="AM82" s="38"/>
     </row>
     <row r="83" spans="1:39" ht="15" customHeight="1">
-      <c r="A83" s="684"/>
+      <c r="A83" s="238"/>
       <c r="G83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="AM83" s="38"/>
     </row>
     <row r="84" spans="1:39" ht="15" customHeight="1">
-      <c r="A84" s="684"/>
+      <c r="A84" s="238"/>
       <c r="G84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="AM84" s="38"/>
     </row>
     <row r="85" spans="1:39" ht="15" customHeight="1">
-      <c r="A85" s="684"/>
+      <c r="A85" s="238"/>
       <c r="G85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="AM85" s="38"/>
     </row>
     <row r="86" spans="1:39" ht="15" customHeight="1">
-      <c r="A86" s="684"/>
+      <c r="A86" s="238"/>
       <c r="G86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="AM86" s="38"/>
     </row>
     <row r="87" spans="1:39" ht="15" customHeight="1">
-      <c r="A87" s="684"/>
+      <c r="A87" s="238"/>
       <c r="G87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="AM87" s="38"/>
     </row>
     <row r="88" spans="1:39" ht="15" customHeight="1">
-      <c r="A88" s="684"/>
+      <c r="A88" s="238"/>
       <c r="G88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="AM88" s="38"/>
     </row>
     <row r="89" spans="1:39" ht="15" customHeight="1">
-      <c r="A89" s="684"/>
+      <c r="A89" s="238"/>
       <c r="G89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="AM89" s="38"/>
     </row>
     <row r="90" spans="1:39" ht="15" customHeight="1">
-      <c r="A90" s="684"/>
+      <c r="A90" s="238"/>
       <c r="G90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="AM90" s="38"/>
     </row>
     <row r="91" spans="1:39" ht="15" customHeight="1">
-      <c r="A91" s="684"/>
+      <c r="A91" s="238"/>
       <c r="G91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="AM91" s="38"/>
     </row>
     <row r="92" spans="1:39" ht="15" customHeight="1">
-      <c r="A92" s="684"/>
+      <c r="A92" s="238"/>
       <c r="G92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="AM92" s="38"/>
     </row>
     <row r="93" spans="1:39" ht="15" customHeight="1">
-      <c r="A93" s="684"/>
+      <c r="A93" s="238"/>
       <c r="G93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="AM93" s="38"/>
     </row>
     <row r="94" spans="1:39" ht="15" customHeight="1">
-      <c r="A94" s="684"/>
+      <c r="A94" s="238"/>
       <c r="G94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="AM94" s="38"/>
     </row>
     <row r="95" spans="1:39" ht="15" customHeight="1">
-      <c r="A95" s="684"/>
+      <c r="A95" s="238"/>
       <c r="G95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="AM95" s="38"/>
     </row>
     <row r="96" spans="1:39" ht="15" customHeight="1">
-      <c r="A96" s="684"/>
+      <c r="A96" s="238"/>
       <c r="G96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="AM96" s="38"/>
     </row>
     <row r="97" spans="1:39" ht="15" customHeight="1">
-      <c r="A97" s="684"/>
+      <c r="A97" s="238"/>
       <c r="G97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="AM97" s="38"/>
     </row>
     <row r="98" spans="1:39" ht="15" customHeight="1">
-      <c r="A98" s="684"/>
+      <c r="A98" s="238"/>
       <c r="G98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="AM98" s="38"/>
     </row>
     <row r="99" spans="1:39" ht="15" customHeight="1">
-      <c r="A99" s="684"/>
+      <c r="A99" s="238"/>
       <c r="G99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="AM99" s="38"/>
     </row>
     <row r="100" spans="1:39" ht="15" customHeight="1">
-      <c r="A100" s="684"/>
+      <c r="A100" s="238"/>
       <c r="G100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="AM100" s="38"/>
     </row>
     <row r="101" spans="1:39" ht="15" customHeight="1">
-      <c r="A101" s="684"/>
+      <c r="A101" s="238"/>
       <c r="G101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="AM101" s="38"/>
     </row>
     <row r="102" spans="1:39" ht="15" customHeight="1">
-      <c r="A102" s="684"/>
+      <c r="A102" s="238"/>
       <c r="G102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="AM102" s="38"/>
     </row>
     <row r="103" spans="1:39" ht="15" customHeight="1">
-      <c r="A103" s="684"/>
+      <c r="A103" s="238"/>
       <c r="G103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="AM103" s="38"/>
     </row>
     <row r="104" spans="1:39" ht="15" customHeight="1">
-      <c r="A104" s="684"/>
+      <c r="A104" s="238"/>
       <c r="G104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="AM104" s="38"/>
     </row>
     <row r="105" spans="1:39" ht="15" customHeight="1">
-      <c r="A105" s="684"/>
+      <c r="A105" s="238"/>
       <c r="G105" s="1"/>
       <c r="Q105" s="1"/>
       <c r="AM105" s="38"/>
     </row>
     <row r="106" spans="1:39" ht="15" customHeight="1">
-      <c r="A106" s="684"/>
+      <c r="A106" s="238"/>
       <c r="G106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="AM106" s="38"/>
     </row>
     <row r="107" spans="1:39" ht="15" customHeight="1">
-      <c r="A107" s="684"/>
+      <c r="A107" s="238"/>
       <c r="G107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="AM107" s="38"/>
     </row>
     <row r="108" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A108" s="684"/>
+      <c r="A108" s="238"/>
       <c r="G108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="AM108" s="38"/>
     </row>
     <row r="109" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A109" s="684"/>
+      <c r="A109" s="238"/>
       <c r="G109" s="1"/>
       <c r="Q109" s="1"/>
       <c r="AM109" s="38"/>
     </row>
     <row r="110" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A110" s="684"/>
+      <c r="A110" s="238"/>
       <c r="G110" s="1"/>
       <c r="Q110" s="1"/>
       <c r="AM110" s="38"/>
     </row>
     <row r="111" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A111" s="684"/>
+      <c r="A111" s="238"/>
       <c r="G111" s="1"/>
       <c r="Q111" s="1"/>
       <c r="AM111" s="38"/>
     </row>
     <row r="112" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A112" s="684"/>
+      <c r="A112" s="238"/>
       <c r="G112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="AM112" s="38"/>
     </row>
     <row r="113" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A113" s="684"/>
+      <c r="A113" s="238"/>
       <c r="G113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="AM113" s="38"/>
     </row>
     <row r="114" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A114" s="684"/>
+      <c r="A114" s="238"/>
       <c r="G114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="AM114" s="38"/>
     </row>
     <row r="115" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A115" s="684"/>
+      <c r="A115" s="238"/>
       <c r="G115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="AM115" s="38"/>
     </row>
     <row r="116" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A116" s="684"/>
+      <c r="A116" s="238"/>
       <c r="G116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="AM116" s="38"/>
     </row>
     <row r="117" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A117" s="684"/>
+      <c r="A117" s="238"/>
       <c r="G117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="AM117" s="38"/>
     </row>
     <row r="118" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A118" s="684"/>
+      <c r="A118" s="238"/>
       <c r="G118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="AM118" s="38"/>
     </row>
     <row r="119" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A119" s="684"/>
+      <c r="A119" s="238"/>
       <c r="G119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="AM119" s="38"/>
     </row>
     <row r="120" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A120" s="684"/>
+      <c r="A120" s="238"/>
       <c r="G120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="AM120" s="38"/>
     </row>
     <row r="121" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A121" s="684"/>
+      <c r="A121" s="238"/>
       <c r="G121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="AM121" s="38"/>
     </row>
     <row r="122" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A122" s="684"/>
+      <c r="A122" s="238"/>
       <c r="G122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="AM122" s="38"/>
     </row>
     <row r="123" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A123" s="684"/>
+      <c r="A123" s="238"/>
       <c r="G123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="AM123" s="38"/>
     </row>
     <row r="124" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A124" s="684"/>
+      <c r="A124" s="238"/>
       <c r="G124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="AM124" s="38"/>
     </row>
     <row r="125" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A125" s="684"/>
+      <c r="A125" s="238"/>
       <c r="G125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="AM125" s="38"/>
     </row>
     <row r="126" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A126" s="684"/>
+      <c r="A126" s="238"/>
       <c r="G126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="AM126" s="38"/>
     </row>
     <row r="127" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A127" s="684"/>
+      <c r="A127" s="238"/>
       <c r="G127" s="1"/>
       <c r="Q127" s="1"/>
       <c r="AM127" s="38"/>
     </row>
     <row r="128" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A128" s="684"/>
+      <c r="A128" s="238"/>
       <c r="G128" s="1"/>
       <c r="Q128" s="1"/>
       <c r="AM128" s="38"/>
     </row>
     <row r="129" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A129" s="684"/>
+      <c r="A129" s="238"/>
       <c r="G129" s="1"/>
       <c r="Q129" s="1"/>
       <c r="AM129" s="38"/>
     </row>
     <row r="130" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A130" s="684"/>
+      <c r="A130" s="238"/>
       <c r="G130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="AM130" s="38"/>
     </row>
     <row r="131" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A131" s="684"/>
+      <c r="A131" s="238"/>
       <c r="G131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="AM131" s="38"/>
     </row>
     <row r="132" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A132" s="684"/>
+      <c r="A132" s="238"/>
       <c r="G132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="AM132" s="38"/>
     </row>
     <row r="133" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A133" s="684"/>
+      <c r="A133" s="238"/>
       <c r="G133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="AM133" s="38"/>
     </row>
     <row r="134" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A134" s="684"/>
+      <c r="A134" s="238"/>
       <c r="G134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="AM134" s="38"/>
     </row>
     <row r="135" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A135" s="684"/>
+      <c r="A135" s="238"/>
       <c r="G135" s="1"/>
       <c r="Q135" s="1"/>
       <c r="AM135" s="38"/>
     </row>
     <row r="136" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A136" s="684"/>
+      <c r="A136" s="238"/>
       <c r="G136" s="1"/>
       <c r="Q136" s="1"/>
       <c r="AM136" s="38"/>
     </row>
     <row r="137" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A137" s="684"/>
+      <c r="A137" s="238"/>
       <c r="G137" s="1"/>
       <c r="Q137" s="1"/>
       <c r="AM137" s="38"/>
     </row>
     <row r="138" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A138" s="684"/>
+      <c r="A138" s="238"/>
       <c r="G138" s="1"/>
       <c r="Q138" s="1"/>
       <c r="AM138" s="38"/>
     </row>
     <row r="139" spans="1:39" ht="19.5" customHeight="1">
-      <c r="A139" s="684"/>
+      <c r="A139" s="238"/>
       <c r="G139" s="1"/>
       <c r="Q139" s="1"/>
       <c r="AM139" s="38"/>
     </row>
     <row r="140" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A140" s="684"/>
+      <c r="A140" s="238"/>
       <c r="G140" s="1"/>
       <c r="Q140" s="1"/>
       <c r="AM140" s="38"/>
     </row>
     <row r="141" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A141" s="684"/>
+      <c r="A141" s="238"/>
       <c r="G141" s="1"/>
       <c r="Q141" s="1"/>
       <c r="AM141" s="38"/>
     </row>
     <row r="142" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A142" s="684"/>
+      <c r="A142" s="238"/>
       <c r="G142" s="1"/>
       <c r="Q142" s="1"/>
       <c r="AM142" s="38"/>
     </row>
     <row r="143" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A143" s="684"/>
+      <c r="A143" s="238"/>
       <c r="G143" s="1"/>
       <c r="Q143" s="1"/>
       <c r="AM143" s="38"/>
     </row>
     <row r="144" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A144" s="684"/>
+      <c r="A144" s="238"/>
       <c r="G144" s="1"/>
       <c r="Q144" s="1"/>
       <c r="AM144" s="38"/>
     </row>
     <row r="145" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A145" s="684"/>
+      <c r="A145" s="238"/>
       <c r="G145" s="1"/>
       <c r="Q145" s="1"/>
       <c r="AM145" s="38"/>
     </row>
     <row r="146" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A146" s="684"/>
+      <c r="A146" s="238"/>
       <c r="G146" s="1"/>
       <c r="Q146" s="1"/>
       <c r="AM146" s="38"/>
     </row>
     <row r="147" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A147" s="684"/>
+      <c r="A147" s="238"/>
       <c r="G147" s="1"/>
       <c r="Q147" s="1"/>
       <c r="AM147" s="38"/>
     </row>
     <row r="148" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A148" s="684"/>
+      <c r="A148" s="238"/>
       <c r="G148" s="1"/>
       <c r="Q148" s="1"/>
       <c r="AM148" s="38"/>
     </row>
     <row r="149" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A149" s="684"/>
+      <c r="A149" s="238"/>
       <c r="G149" s="1"/>
       <c r="Q149" s="1"/>
       <c r="AM149" s="38"/>
     </row>
     <row r="150" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A150" s="684"/>
+      <c r="A150" s="238"/>
       <c r="G150" s="1"/>
       <c r="Q150" s="1"/>
       <c r="AM150" s="38"/>
     </row>
     <row r="151" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A151" s="684"/>
+      <c r="A151" s="238"/>
       <c r="G151" s="1"/>
       <c r="Q151" s="1"/>
       <c r="AM151" s="38"/>
     </row>
     <row r="152" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A152" s="684"/>
+      <c r="A152" s="238"/>
       <c r="G152" s="1"/>
       <c r="Q152" s="1"/>
       <c r="AM152" s="38"/>
     </row>
     <row r="153" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A153" s="684"/>
+      <c r="A153" s="238"/>
       <c r="G153" s="1"/>
       <c r="Q153" s="1"/>
       <c r="AM153" s="38"/>
     </row>
     <row r="154" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A154" s="684"/>
+      <c r="A154" s="238"/>
       <c r="G154" s="1"/>
       <c r="Q154" s="1"/>
       <c r="AM154" s="38"/>
     </row>
     <row r="155" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A155" s="684"/>
+      <c r="A155" s="238"/>
       <c r="G155" s="1"/>
       <c r="Q155" s="1"/>
       <c r="AM155" s="38"/>
     </row>
     <row r="156" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A156" s="684"/>
+      <c r="A156" s="238"/>
       <c r="G156" s="1"/>
       <c r="Q156" s="1"/>
       <c r="AM156" s="38"/>
     </row>
     <row r="157" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A157" s="684"/>
+      <c r="A157" s="238"/>
       <c r="G157" s="1"/>
       <c r="Q157" s="1"/>
       <c r="AM157" s="38"/>
     </row>
     <row r="158" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A158" s="684"/>
+      <c r="A158" s="238"/>
       <c r="G158" s="1"/>
       <c r="Q158" s="1"/>
       <c r="AM158" s="38"/>
     </row>
     <row r="159" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A159" s="684"/>
+      <c r="A159" s="238"/>
       <c r="G159" s="1"/>
       <c r="Q159" s="1"/>
       <c r="AM159" s="38"/>
     </row>
     <row r="160" spans="1:39" ht="14.4" customHeight="1">
-      <c r="A160" s="684"/>
+      <c r="A160" s="238"/>
       <c r="G160" s="1"/>
       <c r="Q160" s="1"/>
       <c r="AM160" s="38"/>
     </row>
     <row r="161" spans="1:44" ht="14.4" customHeight="1">
-      <c r="A161" s="684"/>
+      <c r="A161" s="238"/>
       <c r="G161" s="1"/>
       <c r="Q161" s="1"/>
       <c r="AM161" s="38"/>
     </row>
     <row r="162" spans="1:44" ht="14.4" customHeight="1">
-      <c r="A162" s="684"/>
+      <c r="A162" s="238"/>
       <c r="G162" s="1"/>
       <c r="Q162" s="1"/>
       <c r="AM162" s="38"/>
     </row>
     <row r="163" spans="1:44" ht="14.4" customHeight="1">
-      <c r="A163" s="684"/>
+      <c r="A163" s="238"/>
       <c r="G163" s="1"/>
       <c r="Q163" s="1"/>
       <c r="AM163" s="38"/>
     </row>
     <row r="164" spans="1:44" ht="14.4" customHeight="1">
-      <c r="A164" s="684"/>
+      <c r="A164" s="238"/>
       <c r="G164" s="1"/>
       <c r="Q164" s="1"/>
       <c r="AM164" s="38"/>
     </row>
     <row r="165" spans="1:44" ht="14.4" customHeight="1">
-      <c r="A165" s="684"/>
+      <c r="A165" s="238"/>
       <c r="G165" s="1"/>
       <c r="Q165" s="1"/>
       <c r="AM165" s="38"/>
     </row>
     <row r="166" spans="1:44" ht="14.4" customHeight="1">
-      <c r="A166" s="684"/>
+      <c r="A166" s="238"/>
       <c r="G166" s="1"/>
       <c r="Q166" s="1"/>
       <c r="AM166" s="38"/>
     </row>
     <row r="167" spans="1:44" ht="14.4" customHeight="1">
-      <c r="A167" s="684"/>
+      <c r="A167" s="238"/>
       <c r="G167" s="1"/>
       <c r="Q167" s="1"/>
       <c r="AM167" s="38"/>
     </row>
     <row r="168" spans="1:44" ht="14.4" customHeight="1">
-      <c r="A168" s="684"/>
+      <c r="A168" s="238"/>
       <c r="G168" s="1"/>
       <c r="Q168" s="1"/>
       <c r="AM168" s="38"/>
     </row>
     <row r="169" spans="1:44" ht="14.4" customHeight="1">
-      <c r="A169" s="684"/>
+      <c r="A169" s="238"/>
       <c r="G169" s="1"/>
       <c r="Q169" s="1"/>
       <c r="AM169" s="38"/>
     </row>
     <row r="170" spans="1:44" ht="14.4" customHeight="1">
-      <c r="A170" s="684"/>
+      <c r="A170" s="238"/>
       <c r="G170" s="1"/>
       <c r="Q170" s="1"/>
       <c r="AM170" s="38"/>
     </row>
     <row r="171" spans="1:44" ht="14.4" customHeight="1">
-      <c r="A171" s="684"/>
+      <c r="A171" s="238"/>
       <c r="G171" s="1"/>
       <c r="Q171" s="1"/>
       <c r="AM171" s="38"/>
@@ -19351,40 +19351,40 @@
       <c r="A172" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B172" s="525" t="e">
+      <c r="B172" s="566" t="e">
         <f>'Fr-01'!C45:E45</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C172" s="465"/>
-      <c r="D172" s="465"/>
-      <c r="E172" s="527"/>
+      <c r="C172" s="524"/>
+      <c r="D172" s="524"/>
+      <c r="E172" s="568"/>
       <c r="F172" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="G172" s="525" t="str">
+      <c r="G172" s="566" t="str">
         <f>'Fr-01'!I45</f>
         <v>วันที่ผู้ทวนสอบตรวจเสร็จ</v>
       </c>
-      <c r="H172" s="465"/>
-      <c r="I172" s="465"/>
-      <c r="J172" s="465"/>
-      <c r="K172" s="465"/>
-      <c r="L172" s="465"/>
-      <c r="M172" s="465"/>
-      <c r="N172" s="527"/>
+      <c r="H172" s="524"/>
+      <c r="I172" s="524"/>
+      <c r="J172" s="524"/>
+      <c r="K172" s="524"/>
+      <c r="L172" s="524"/>
+      <c r="M172" s="524"/>
+      <c r="N172" s="568"/>
       <c r="O172" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="P172" s="525" t="str">
+      <c r="P172" s="566" t="str">
         <f>'Fr-01'!L45</f>
         <v>กรณีที่ อบก. ให้แก้ไขเพิ่มเติม</v>
       </c>
-      <c r="Q172" s="526"/>
-      <c r="R172" s="526"/>
-      <c r="S172" s="526"/>
-      <c r="T172" s="526"/>
-      <c r="U172" s="526"/>
-      <c r="V172" s="526"/>
+      <c r="Q172" s="567"/>
+      <c r="R172" s="567"/>
+      <c r="S172" s="567"/>
+      <c r="T172" s="567"/>
+      <c r="U172" s="567"/>
+      <c r="V172" s="567"/>
       <c r="W172" s="121"/>
       <c r="X172" s="83"/>
       <c r="Y172" s="83"/>
@@ -19499,6 +19499,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="P172:V172"/>
+    <mergeCell ref="G172:N172"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="O2:V2"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:V4"/>
+    <mergeCell ref="B5:V5"/>
+    <mergeCell ref="A6:V6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:E9"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="AE7:AF8"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="T9:T10"/>
     <mergeCell ref="AM7:AM10"/>
     <mergeCell ref="AJ7:AJ10"/>
     <mergeCell ref="AH7:AH10"/>
@@ -19515,46 +19555,6 @@
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="AG7:AG10"/>
     <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="AE7:AF8"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:V4"/>
-    <mergeCell ref="B5:V5"/>
-    <mergeCell ref="A6:V6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:E9"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="O2:V2"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="P172:V172"/>
-    <mergeCell ref="G172:N172"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="O7:O10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
@@ -19594,7 +19594,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="574">
+      <c r="A1" s="569">
         <v>4.4000000000000004</v>
       </c>
       <c r="B1" s="127" t="s">
@@ -19612,10 +19612,10 @@
       <c r="J1" s="86"/>
       <c r="K1" s="86"/>
       <c r="L1" s="86"/>
-      <c r="M1" s="509" t="s">
+      <c r="M1" s="477" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="510"/>
+      <c r="N1" s="478"/>
       <c r="O1" s="157"/>
       <c r="P1" s="133"/>
       <c r="Q1" s="134"/>
@@ -19623,7 +19623,7 @@
       <c r="S1" s="136"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="545"/>
+      <c r="A2" s="550"/>
       <c r="B2" s="53" t="s">
         <v>7</v>
       </c>
@@ -19650,7 +19650,7 @@
       <c r="S2" s="137"/>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="545"/>
+      <c r="A3" s="550"/>
       <c r="B3" s="57" t="s">
         <v>8</v>
       </c>
@@ -19672,50 +19672,50 @@
       <c r="S3" s="138"/>
     </row>
     <row r="4" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A4" s="575" t="s">
+      <c r="A4" s="570" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="577" t="s">
+      <c r="B4" s="572" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="357"/>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
-      <c r="F4" s="357"/>
-      <c r="G4" s="357"/>
-      <c r="H4" s="357"/>
-      <c r="I4" s="357"/>
-      <c r="J4" s="357"/>
-      <c r="K4" s="357"/>
-      <c r="L4" s="357"/>
-      <c r="M4" s="357"/>
-      <c r="N4" s="357"/>
-      <c r="O4" s="357"/>
-      <c r="P4" s="357"/>
-      <c r="Q4" s="357"/>
-      <c r="R4" s="357"/>
-      <c r="S4" s="578"/>
+      <c r="C4" s="334"/>
+      <c r="D4" s="334"/>
+      <c r="E4" s="334"/>
+      <c r="F4" s="334"/>
+      <c r="G4" s="334"/>
+      <c r="H4" s="334"/>
+      <c r="I4" s="334"/>
+      <c r="J4" s="334"/>
+      <c r="K4" s="334"/>
+      <c r="L4" s="334"/>
+      <c r="M4" s="334"/>
+      <c r="N4" s="334"/>
+      <c r="O4" s="334"/>
+      <c r="P4" s="334"/>
+      <c r="Q4" s="334"/>
+      <c r="R4" s="334"/>
+      <c r="S4" s="573"/>
     </row>
     <row r="5" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A5" s="576"/>
-      <c r="B5" s="579"/>
-      <c r="C5" s="580"/>
-      <c r="D5" s="580"/>
-      <c r="E5" s="580"/>
-      <c r="F5" s="580"/>
-      <c r="G5" s="580"/>
-      <c r="H5" s="580"/>
-      <c r="I5" s="580"/>
-      <c r="J5" s="580"/>
-      <c r="K5" s="580"/>
-      <c r="L5" s="580"/>
-      <c r="M5" s="580"/>
-      <c r="N5" s="580"/>
-      <c r="O5" s="580"/>
-      <c r="P5" s="580"/>
-      <c r="Q5" s="580"/>
-      <c r="R5" s="580"/>
-      <c r="S5" s="581"/>
+      <c r="A5" s="571"/>
+      <c r="B5" s="574"/>
+      <c r="C5" s="575"/>
+      <c r="D5" s="575"/>
+      <c r="E5" s="575"/>
+      <c r="F5" s="575"/>
+      <c r="G5" s="575"/>
+      <c r="H5" s="575"/>
+      <c r="I5" s="575"/>
+      <c r="J5" s="575"/>
+      <c r="K5" s="575"/>
+      <c r="L5" s="575"/>
+      <c r="M5" s="575"/>
+      <c r="N5" s="575"/>
+      <c r="O5" s="575"/>
+      <c r="P5" s="575"/>
+      <c r="Q5" s="575"/>
+      <c r="R5" s="575"/>
+      <c r="S5" s="576"/>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="139"/>
@@ -19739,48 +19739,48 @@
       <c r="S6" s="140"/>
     </row>
     <row r="7" spans="1:19" s="64" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A7" s="582" t="s">
+      <c r="A7" s="577" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="583"/>
-      <c r="C7" s="586" t="s">
+      <c r="B7" s="578"/>
+      <c r="C7" s="581" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="596" t="s">
+      <c r="D7" s="592" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="598" t="s">
+      <c r="E7" s="594" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="592" t="s">
+      <c r="F7" s="587" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="594" t="s">
+      <c r="G7" s="589" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="590" t="s">
+      <c r="H7" s="585" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="591"/>
-      <c r="J7" s="590" t="s">
+      <c r="I7" s="586"/>
+      <c r="J7" s="585" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="591"/>
-      <c r="L7" s="571" t="s">
+      <c r="K7" s="586"/>
+      <c r="L7" s="591" t="s">
         <v>115</v>
       </c>
-      <c r="M7" s="571"/>
-      <c r="N7" s="571" t="s">
+      <c r="M7" s="591"/>
+      <c r="N7" s="591" t="s">
         <v>116</v>
       </c>
-      <c r="O7" s="571"/>
-      <c r="P7" s="588" t="s">
+      <c r="O7" s="591"/>
+      <c r="P7" s="583" t="s">
         <v>117</v>
       </c>
-      <c r="Q7" s="588" t="s">
+      <c r="Q7" s="583" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="572" t="s">
+      <c r="R7" s="599" t="s">
         <v>58</v>
       </c>
       <c r="S7" s="141" t="s">
@@ -19788,13 +19788,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="64" customFormat="1">
-      <c r="A8" s="584"/>
-      <c r="B8" s="585"/>
-      <c r="C8" s="587"/>
-      <c r="D8" s="597"/>
-      <c r="E8" s="599"/>
-      <c r="F8" s="593"/>
-      <c r="G8" s="595"/>
+      <c r="A8" s="579"/>
+      <c r="B8" s="580"/>
+      <c r="C8" s="582"/>
+      <c r="D8" s="593"/>
+      <c r="E8" s="595"/>
+      <c r="F8" s="588"/>
+      <c r="G8" s="590"/>
       <c r="H8" s="123" t="s">
         <v>118</v>
       </c>
@@ -19819,9 +19819,9 @@
       <c r="O8" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="P8" s="589"/>
-      <c r="Q8" s="589"/>
-      <c r="R8" s="573"/>
+      <c r="P8" s="584"/>
+      <c r="Q8" s="584"/>
+      <c r="R8" s="600"/>
       <c r="S8" s="142" t="s">
         <v>124</v>
       </c>
@@ -20278,40 +20278,46 @@
       <c r="A30" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="434" t="e">
+      <c r="B30" s="384" t="e">
         <f>'Fr-01'!C45:E45</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C30" s="435"/>
-      <c r="D30" s="435"/>
-      <c r="E30" s="435"/>
-      <c r="F30" s="435"/>
-      <c r="G30" s="435"/>
-      <c r="H30" s="435"/>
-      <c r="I30" s="568" t="s">
+      <c r="C30" s="385"/>
+      <c r="D30" s="385"/>
+      <c r="E30" s="385"/>
+      <c r="F30" s="385"/>
+      <c r="G30" s="385"/>
+      <c r="H30" s="385"/>
+      <c r="I30" s="596" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="527"/>
-      <c r="K30" s="569" t="str">
+      <c r="J30" s="568"/>
+      <c r="K30" s="597" t="str">
         <f>'Fr-01'!I45</f>
         <v>วันที่ผู้ทวนสอบตรวจเสร็จ</v>
       </c>
-      <c r="L30" s="438"/>
-      <c r="M30" s="438"/>
-      <c r="N30" s="439"/>
+      <c r="L30" s="388"/>
+      <c r="M30" s="388"/>
+      <c r="N30" s="389"/>
       <c r="O30" s="147" t="s">
         <v>30</v>
       </c>
       <c r="P30" s="148"/>
-      <c r="Q30" s="431" t="str">
+      <c r="Q30" s="381" t="str">
         <f>'Fr-01'!L45</f>
         <v>กรณีที่ อบก. ให้แก้ไขเพิ่มเติม</v>
       </c>
-      <c r="R30" s="438"/>
-      <c r="S30" s="570"/>
+      <c r="R30" s="388"/>
+      <c r="S30" s="598"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="R7:R8"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:S4"/>
@@ -20328,12 +20334,6 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="R7:R8"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="เลือกประเภทการใช้พื้นที่" sqref="M9:M27 O9:O27" xr:uid="{24553045-8D66-4394-BAD5-3A5B83CF336C}">
@@ -20366,148 +20366,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="544">
+      <c r="A1" s="549">
         <v>5</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="532" t="s">
+      <c r="C1" s="562" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="602"/>
+      <c r="D1" s="563"/>
+      <c r="E1" s="563"/>
+      <c r="F1" s="627"/>
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="545"/>
+      <c r="A2" s="550"/>
       <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="603"/>
-      <c r="D2" s="528"/>
-      <c r="E2" s="528"/>
-      <c r="F2" s="529"/>
+      <c r="C2" s="628"/>
+      <c r="D2" s="558"/>
+      <c r="E2" s="558"/>
+      <c r="F2" s="559"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="545"/>
+      <c r="A3" s="550"/>
       <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="600" t="s">
+      <c r="C3" s="625" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="374"/>
-      <c r="E3" s="374"/>
-      <c r="F3" s="601"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="626"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="545"/>
+      <c r="A4" s="550"/>
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="600" t="s">
+      <c r="C4" s="625" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="374"/>
-      <c r="E4" s="374"/>
-      <c r="F4" s="601"/>
+      <c r="D4" s="369"/>
+      <c r="E4" s="369"/>
+      <c r="F4" s="626"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="545"/>
+      <c r="A5" s="550"/>
       <c r="B5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="373"/>
-      <c r="D5" s="374"/>
-      <c r="E5" s="374"/>
-      <c r="F5" s="601"/>
+      <c r="C5" s="368"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="626"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="546"/>
+      <c r="A6" s="551"/>
       <c r="B6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="373"/>
-      <c r="D6" s="374"/>
-      <c r="E6" s="374"/>
-      <c r="F6" s="601"/>
+      <c r="C6" s="368"/>
+      <c r="D6" s="369"/>
+      <c r="E6" s="369"/>
+      <c r="F6" s="626"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="498" t="s">
+      <c r="A7" s="466" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="605" t="s">
+      <c r="B7" s="613" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="276"/>
-      <c r="D7" s="276"/>
-      <c r="E7" s="276"/>
-      <c r="F7" s="400"/>
+      <c r="C7" s="302"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="417"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="604"/>
-      <c r="B8" s="606"/>
-      <c r="C8" s="272"/>
-      <c r="D8" s="272"/>
-      <c r="E8" s="272"/>
-      <c r="F8" s="607"/>
+      <c r="A8" s="612"/>
+      <c r="B8" s="614"/>
+      <c r="C8" s="298"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="615"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="608"/>
-      <c r="B9" s="609"/>
-      <c r="C9" s="609"/>
-      <c r="D9" s="609"/>
-      <c r="E9" s="609"/>
-      <c r="F9" s="497"/>
+      <c r="A9" s="603"/>
+      <c r="B9" s="604"/>
+      <c r="C9" s="604"/>
+      <c r="D9" s="604"/>
+      <c r="E9" s="604"/>
+      <c r="F9" s="465"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A10" s="610" t="s">
+      <c r="A10" s="616" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="496"/>
-      <c r="C10" s="611" t="s">
+      <c r="B10" s="464"/>
+      <c r="C10" s="617" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="482" t="s">
+      <c r="D10" s="491" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="556" t="s">
+      <c r="E10" s="547" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="616" t="s">
+      <c r="F10" s="622" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="610"/>
-      <c r="B11" s="496"/>
-      <c r="C11" s="612"/>
-      <c r="D11" s="614"/>
-      <c r="E11" s="423"/>
-      <c r="F11" s="617"/>
+      <c r="A11" s="616"/>
+      <c r="B11" s="464"/>
+      <c r="C11" s="618"/>
+      <c r="D11" s="620"/>
+      <c r="E11" s="440"/>
+      <c r="F11" s="623"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="610"/>
-      <c r="B12" s="496"/>
-      <c r="C12" s="612"/>
-      <c r="D12" s="614"/>
-      <c r="E12" s="423"/>
-      <c r="F12" s="617"/>
+      <c r="A12" s="616"/>
+      <c r="B12" s="464"/>
+      <c r="C12" s="618"/>
+      <c r="D12" s="620"/>
+      <c r="E12" s="440"/>
+      <c r="F12" s="623"/>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A13" s="610"/>
-      <c r="B13" s="496"/>
-      <c r="C13" s="613"/>
-      <c r="D13" s="615"/>
-      <c r="E13" s="424"/>
-      <c r="F13" s="618"/>
+      <c r="A13" s="616"/>
+      <c r="B13" s="464"/>
+      <c r="C13" s="619"/>
+      <c r="D13" s="621"/>
+      <c r="E13" s="441"/>
+      <c r="F13" s="624"/>
     </row>
     <row r="14" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="621" t="s">
+      <c r="A14" s="605" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="622"/>
+      <c r="B14" s="606"/>
       <c r="C14" s="42" t="e">
         <f>+#REF!</f>
         <v>#REF!</v>
@@ -20526,10 +20526,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="621" t="s">
+      <c r="A15" s="605" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="623"/>
+      <c r="B15" s="607"/>
       <c r="C15" s="42" t="e">
         <f>+#REF!</f>
         <v>#REF!</v>
@@ -20548,10 +20548,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
-      <c r="A16" s="621" t="s">
+      <c r="A16" s="605" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="623"/>
+      <c r="B16" s="607"/>
       <c r="C16" s="42" t="e">
         <f>+#REF!</f>
         <v>#REF!</v>
@@ -20570,10 +20570,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="621" t="s">
+      <c r="A17" s="605" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="623"/>
+      <c r="B17" s="607"/>
       <c r="C17" s="42" t="e">
         <f>+#REF!</f>
         <v>#REF!</v>
@@ -20592,10 +20592,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="624" t="s">
+      <c r="A18" s="608" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="625"/>
+      <c r="B18" s="609"/>
       <c r="C18" s="72" t="e">
         <f>+#REF!</f>
         <v>#REF!</v>
@@ -20614,10 +20614,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="626" t="s">
+      <c r="A19" s="610" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="627"/>
+      <c r="B19" s="611"/>
       <c r="C19" s="74"/>
       <c r="D19" s="74"/>
       <c r="E19" s="74">
@@ -20630,10 +20630,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
-      <c r="A20" s="619" t="s">
+      <c r="A20" s="601" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="620"/>
+      <c r="B20" s="602"/>
       <c r="C20" s="75" t="e">
         <f>SUM(C14:C18)</f>
         <v>#REF!</v>
@@ -20652,12 +20652,12 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A21" s="608"/>
-      <c r="B21" s="609"/>
-      <c r="C21" s="609"/>
-      <c r="D21" s="609"/>
-      <c r="E21" s="609"/>
-      <c r="F21" s="497"/>
+      <c r="A21" s="603"/>
+      <c r="B21" s="604"/>
+      <c r="C21" s="604"/>
+      <c r="D21" s="604"/>
+      <c r="E21" s="604"/>
+      <c r="F21" s="465"/>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="A22" s="39" t="s">
@@ -20692,14 +20692,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
@@ -20709,13 +20708,14 @@
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="F10:F13"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20740,146 +20740,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="574">
+      <c r="A1" s="569">
         <v>6.1</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="532" t="s">
+      <c r="C1" s="562" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="533"/>
-      <c r="E1" s="533"/>
-      <c r="F1" s="602"/>
+      <c r="D1" s="563"/>
+      <c r="E1" s="563"/>
+      <c r="F1" s="627"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="660"/>
+      <c r="A2" s="629"/>
       <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="600" t="s">
+      <c r="C2" s="625" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374"/>
-      <c r="F2" s="601"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="626"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="660"/>
+      <c r="A3" s="629"/>
       <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="600" t="s">
+      <c r="C3" s="625" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="374"/>
-      <c r="E3" s="374"/>
-      <c r="F3" s="601"/>
+      <c r="D3" s="369"/>
+      <c r="E3" s="369"/>
+      <c r="F3" s="626"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="660"/>
+      <c r="A4" s="629"/>
       <c r="B4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="373"/>
-      <c r="D4" s="374"/>
-      <c r="E4" s="374"/>
-      <c r="F4" s="601"/>
+      <c r="C4" s="368"/>
+      <c r="D4" s="369"/>
+      <c r="E4" s="369"/>
+      <c r="F4" s="626"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="661"/>
+      <c r="A5" s="630"/>
       <c r="B5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="373"/>
-      <c r="D5" s="374"/>
-      <c r="E5" s="374"/>
-      <c r="F5" s="601"/>
+      <c r="C5" s="368"/>
+      <c r="D5" s="369"/>
+      <c r="E5" s="369"/>
+      <c r="F5" s="626"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="498" t="s">
+      <c r="A6" s="466" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="605" t="s">
+      <c r="B6" s="613" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="276"/>
-      <c r="D6" s="276"/>
-      <c r="E6" s="276"/>
-      <c r="F6" s="400"/>
+      <c r="C6" s="302"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="417"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="665"/>
-      <c r="B7" s="606"/>
-      <c r="C7" s="272"/>
-      <c r="D7" s="272"/>
-      <c r="E7" s="272"/>
-      <c r="F7" s="607"/>
+      <c r="A7" s="634"/>
+      <c r="B7" s="614"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="615"/>
     </row>
     <row r="8" spans="1:6" ht="13.8" thickBot="1">
-      <c r="A8" s="662"/>
-      <c r="B8" s="663"/>
-      <c r="C8" s="663"/>
-      <c r="D8" s="663"/>
-      <c r="E8" s="663"/>
-      <c r="F8" s="664"/>
+      <c r="A8" s="631"/>
+      <c r="B8" s="632"/>
+      <c r="C8" s="632"/>
+      <c r="D8" s="632"/>
+      <c r="E8" s="632"/>
+      <c r="F8" s="633"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A9" s="651" t="s">
+      <c r="A9" s="648" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="652"/>
-      <c r="C9" s="657" t="s">
+      <c r="B9" s="649"/>
+      <c r="C9" s="654" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="659" t="s">
+      <c r="D9" s="656" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="640" t="s">
+      <c r="E9" s="637" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="648" t="s">
+      <c r="F9" s="645" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="653"/>
-      <c r="B10" s="654"/>
-      <c r="C10" s="658"/>
-      <c r="D10" s="483"/>
-      <c r="E10" s="641"/>
-      <c r="F10" s="649"/>
+      <c r="A10" s="650"/>
+      <c r="B10" s="651"/>
+      <c r="C10" s="655"/>
+      <c r="D10" s="492"/>
+      <c r="E10" s="638"/>
+      <c r="F10" s="646"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A11" s="653"/>
-      <c r="B11" s="654"/>
+      <c r="A11" s="650"/>
+      <c r="B11" s="651"/>
       <c r="C11" s="164" t="s">
         <v>138</v>
       </c>
       <c r="D11" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="641"/>
-      <c r="F11" s="649"/>
+      <c r="E11" s="638"/>
+      <c r="F11" s="646"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="655"/>
-      <c r="B12" s="656"/>
+      <c r="A12" s="652"/>
+      <c r="B12" s="653"/>
       <c r="C12" s="163" t="s">
         <v>139</v>
       </c>
       <c r="D12" s="162" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="642"/>
-      <c r="F12" s="650"/>
+      <c r="E12" s="639"/>
+      <c r="F12" s="647"/>
     </row>
     <row r="13" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="638" t="s">
+      <c r="A13" s="635" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="639"/>
+      <c r="B13" s="636"/>
       <c r="C13" s="188">
         <v>20</v>
       </c>
@@ -20896,10 +20896,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="621" t="s">
+      <c r="A14" s="605" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="623"/>
+      <c r="B14" s="607"/>
       <c r="C14" s="190">
         <v>4</v>
       </c>
@@ -20916,10 +20916,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="621" t="s">
+      <c r="A15" s="605" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="623"/>
+      <c r="B15" s="607"/>
       <c r="C15" s="190">
         <v>0.4</v>
       </c>
@@ -20936,10 +20936,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
-      <c r="A16" s="621" t="s">
+      <c r="A16" s="605" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="623"/>
+      <c r="B16" s="607"/>
       <c r="C16" s="190">
         <v>12.6</v>
       </c>
@@ -20956,10 +20956,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="624" t="s">
+      <c r="A17" s="608" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="625"/>
+      <c r="B17" s="609"/>
       <c r="C17" s="192">
         <v>6</v>
       </c>
@@ -20976,10 +20976,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="626" t="s">
+      <c r="A18" s="610" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="627"/>
+      <c r="B18" s="611"/>
       <c r="C18" s="74"/>
       <c r="D18" s="74"/>
       <c r="E18" s="74">
@@ -20992,10 +20992,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="634" t="s">
+      <c r="A19" s="659" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="635"/>
+      <c r="B19" s="660"/>
       <c r="C19" s="159">
         <f>SUM(C13:C17)</f>
         <v>43</v>
@@ -21014,12 +21014,12 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A20" s="645"/>
-      <c r="B20" s="646"/>
-      <c r="C20" s="646"/>
-      <c r="D20" s="646"/>
-      <c r="E20" s="646"/>
-      <c r="F20" s="647"/>
+      <c r="A20" s="642"/>
+      <c r="B20" s="643"/>
+      <c r="C20" s="643"/>
+      <c r="D20" s="643"/>
+      <c r="E20" s="643"/>
+      <c r="F20" s="644"/>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="A21" s="85" t="s">
@@ -21060,168 +21060,168 @@
       <c r="B43" s="172" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="643" t="s">
+      <c r="C43" s="640" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="643"/>
-      <c r="E43" s="643" t="s">
+      <c r="D43" s="640"/>
+      <c r="E43" s="640" t="s">
         <v>144</v>
       </c>
-      <c r="F43" s="644"/>
+      <c r="F43" s="641"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="170"/>
       <c r="B44" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="636"/>
-      <c r="D44" s="636"/>
-      <c r="E44" s="636"/>
-      <c r="F44" s="637"/>
+      <c r="C44" s="661"/>
+      <c r="D44" s="661"/>
+      <c r="E44" s="661"/>
+      <c r="F44" s="662"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="166"/>
       <c r="B45" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="628"/>
-      <c r="D45" s="628"/>
-      <c r="E45" s="628"/>
-      <c r="F45" s="629"/>
+      <c r="C45" s="657"/>
+      <c r="D45" s="657"/>
+      <c r="E45" s="657"/>
+      <c r="F45" s="658"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="166"/>
       <c r="B46" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="628"/>
-      <c r="D46" s="628"/>
-      <c r="E46" s="628"/>
-      <c r="F46" s="629"/>
+      <c r="C46" s="657"/>
+      <c r="D46" s="657"/>
+      <c r="E46" s="657"/>
+      <c r="F46" s="658"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="166"/>
       <c r="B47" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="C47" s="628"/>
-      <c r="D47" s="628"/>
-      <c r="E47" s="628"/>
-      <c r="F47" s="629"/>
+      <c r="C47" s="657"/>
+      <c r="D47" s="657"/>
+      <c r="E47" s="657"/>
+      <c r="F47" s="658"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="167"/>
       <c r="B48" s="165" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="628"/>
-      <c r="D48" s="628"/>
-      <c r="E48" s="628"/>
-      <c r="F48" s="629"/>
+      <c r="C48" s="657"/>
+      <c r="D48" s="657"/>
+      <c r="E48" s="657"/>
+      <c r="F48" s="658"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="166"/>
       <c r="B49" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="628"/>
-      <c r="D49" s="628"/>
-      <c r="E49" s="628"/>
-      <c r="F49" s="629"/>
+      <c r="C49" s="657"/>
+      <c r="D49" s="657"/>
+      <c r="E49" s="657"/>
+      <c r="F49" s="658"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="166"/>
       <c r="B50" s="67" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="628"/>
-      <c r="D50" s="628"/>
-      <c r="E50" s="628"/>
-      <c r="F50" s="629"/>
+      <c r="C50" s="657"/>
+      <c r="D50" s="657"/>
+      <c r="E50" s="657"/>
+      <c r="F50" s="658"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="166"/>
       <c r="B51" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="C51" s="628"/>
-      <c r="D51" s="628"/>
-      <c r="E51" s="628"/>
-      <c r="F51" s="629"/>
+      <c r="C51" s="657"/>
+      <c r="D51" s="657"/>
+      <c r="E51" s="657"/>
+      <c r="F51" s="658"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="166"/>
       <c r="B52" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="628"/>
-      <c r="D52" s="628"/>
-      <c r="E52" s="628"/>
-      <c r="F52" s="629"/>
+      <c r="C52" s="657"/>
+      <c r="D52" s="657"/>
+      <c r="E52" s="657"/>
+      <c r="F52" s="658"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="166"/>
       <c r="B53" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="628"/>
-      <c r="D53" s="628"/>
-      <c r="E53" s="632"/>
-      <c r="F53" s="633"/>
+      <c r="C53" s="657"/>
+      <c r="D53" s="657"/>
+      <c r="E53" s="663"/>
+      <c r="F53" s="664"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="166"/>
       <c r="B54" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="C54" s="628"/>
-      <c r="D54" s="628"/>
-      <c r="E54" s="628"/>
-      <c r="F54" s="629"/>
+      <c r="C54" s="657"/>
+      <c r="D54" s="657"/>
+      <c r="E54" s="657"/>
+      <c r="F54" s="658"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="166"/>
       <c r="B55" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="C55" s="628"/>
-      <c r="D55" s="628"/>
-      <c r="E55" s="628"/>
-      <c r="F55" s="629"/>
+      <c r="C55" s="657"/>
+      <c r="D55" s="657"/>
+      <c r="E55" s="657"/>
+      <c r="F55" s="658"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="166"/>
       <c r="B56" s="67" t="s">
         <v>157</v>
       </c>
-      <c r="C56" s="628"/>
-      <c r="D56" s="628"/>
-      <c r="E56" s="628"/>
-      <c r="F56" s="629"/>
+      <c r="C56" s="657"/>
+      <c r="D56" s="657"/>
+      <c r="E56" s="657"/>
+      <c r="F56" s="658"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="166"/>
       <c r="B57" s="67"/>
-      <c r="C57" s="628"/>
-      <c r="D57" s="628"/>
-      <c r="E57" s="628"/>
-      <c r="F57" s="629"/>
+      <c r="C57" s="657"/>
+      <c r="D57" s="657"/>
+      <c r="E57" s="657"/>
+      <c r="F57" s="658"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="166"/>
       <c r="B58" s="67"/>
-      <c r="C58" s="628"/>
-      <c r="D58" s="628"/>
-      <c r="E58" s="628"/>
-      <c r="F58" s="629"/>
+      <c r="C58" s="657"/>
+      <c r="D58" s="657"/>
+      <c r="E58" s="657"/>
+      <c r="F58" s="658"/>
     </row>
     <row r="59" spans="1:6" ht="13.8" thickBot="1">
       <c r="A59" s="168"/>
       <c r="B59" s="169"/>
-      <c r="C59" s="630"/>
-      <c r="D59" s="630"/>
-      <c r="E59" s="630"/>
-      <c r="F59" s="631"/>
+      <c r="C59" s="665"/>
+      <c r="D59" s="665"/>
+      <c r="E59" s="665"/>
+      <c r="F59" s="666"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="196" t="s">
@@ -21233,16 +21233,39 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="C43:D43"/>
@@ -21257,39 +21280,16 @@
     <mergeCell ref="A9:B12"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExcelReport/excel/Form_CFP.xlsx
+++ b/ExcelReport/excel/Form_CFP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carbon_2025\ExcelReport\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF873601-47F5-49C6-83EF-C1246C23751F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4251D34-A5DF-4E31-8605-70227F0F753D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2460" windowWidth="29040" windowHeight="15720" tabRatio="910" activeTab="9" xr2:uid="{0BFDB211-9E44-439F-BD4B-8C07F5A57B68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16776" tabRatio="910" activeTab="7" xr2:uid="{0BFDB211-9E44-439F-BD4B-8C07F5A57B68}"/>
   </bookViews>
   <sheets>
     <sheet name="Fr-01" sheetId="4" r:id="rId1"/>
@@ -2988,58 +2988,134 @@
     <xf numFmtId="4" fontId="25" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3048,15 +3124,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3088,21 +3155,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3112,103 +3164,99 @@
     <xf numFmtId="0" fontId="49" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="13" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3281,72 +3329,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="5" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3368,32 +3350,107 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="5" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="27" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3403,15 +3460,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="27" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="27" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="32" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -3498,193 +3546,58 @@
     <xf numFmtId="165" fontId="32" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="42" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="42" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3743,29 +3656,236 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="42" fillId="20" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="42" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3776,125 +3896,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3905,103 +3986,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="24" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4010,8 +4025,6 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="26" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4039,58 +4052,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4152,21 +4136,40 @@
     <xf numFmtId="0" fontId="32" fillId="13" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="8" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4193,9 +4196,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5923,456 +5923,456 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="336" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="269"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="336"/>
+      <c r="G1" s="336"/>
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="336"/>
+      <c r="K1" s="336"/>
+      <c r="L1" s="337"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="270">
+      <c r="A2" s="338">
         <v>1</v>
       </c>
-      <c r="B2" s="271"/>
+      <c r="B2" s="339"/>
       <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="280" t="s">
+      <c r="D2" s="348" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="282"/>
+      <c r="E2" s="349"/>
+      <c r="F2" s="349"/>
+      <c r="G2" s="349"/>
+      <c r="H2" s="350"/>
       <c r="I2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="272"/>
-      <c r="K2" s="272"/>
-      <c r="L2" s="273"/>
+      <c r="J2" s="340"/>
+      <c r="K2" s="340"/>
+      <c r="L2" s="341"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="270"/>
-      <c r="B3" s="271"/>
-      <c r="C3" s="277" t="s">
+      <c r="A3" s="338"/>
+      <c r="B3" s="339"/>
+      <c r="C3" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="278"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="274" t="s">
+      <c r="D3" s="346"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="342" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="275"/>
-      <c r="H3" s="275"/>
-      <c r="I3" s="275"/>
-      <c r="J3" s="275"/>
-      <c r="K3" s="275"/>
-      <c r="L3" s="276"/>
+      <c r="G3" s="343"/>
+      <c r="H3" s="343"/>
+      <c r="I3" s="343"/>
+      <c r="J3" s="343"/>
+      <c r="K3" s="343"/>
+      <c r="L3" s="344"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="270"/>
-      <c r="B4" s="271"/>
-      <c r="C4" s="277" t="s">
+      <c r="A4" s="338"/>
+      <c r="B4" s="339"/>
+      <c r="C4" s="345" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="278"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="274" t="s">
+      <c r="D4" s="346"/>
+      <c r="E4" s="347"/>
+      <c r="F4" s="342" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="275"/>
-      <c r="H4" s="275"/>
-      <c r="I4" s="275"/>
-      <c r="J4" s="275"/>
-      <c r="K4" s="275"/>
-      <c r="L4" s="276"/>
+      <c r="G4" s="343"/>
+      <c r="H4" s="343"/>
+      <c r="I4" s="343"/>
+      <c r="J4" s="343"/>
+      <c r="K4" s="343"/>
+      <c r="L4" s="344"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="270"/>
-      <c r="B5" s="271"/>
-      <c r="C5" s="277" t="s">
+      <c r="A5" s="338"/>
+      <c r="B5" s="339"/>
+      <c r="C5" s="345" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="278"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="284"/>
-      <c r="H5" s="284"/>
-      <c r="I5" s="284"/>
-      <c r="J5" s="284"/>
-      <c r="K5" s="284"/>
-      <c r="L5" s="285"/>
+      <c r="D5" s="346"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="351"/>
+      <c r="G5" s="352"/>
+      <c r="H5" s="352"/>
+      <c r="I5" s="352"/>
+      <c r="J5" s="352"/>
+      <c r="K5" s="352"/>
+      <c r="L5" s="353"/>
     </row>
     <row r="6" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A6" s="270"/>
-      <c r="B6" s="271"/>
-      <c r="C6" s="277" t="s">
+      <c r="A6" s="338"/>
+      <c r="B6" s="339"/>
+      <c r="C6" s="345" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="278"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="284"/>
-      <c r="H6" s="284"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="284"/>
-      <c r="K6" s="284"/>
-      <c r="L6" s="285"/>
+      <c r="D6" s="346"/>
+      <c r="E6" s="347"/>
+      <c r="F6" s="351"/>
+      <c r="G6" s="352"/>
+      <c r="H6" s="352"/>
+      <c r="I6" s="352"/>
+      <c r="J6" s="352"/>
+      <c r="K6" s="352"/>
+      <c r="L6" s="353"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="296" t="s">
+      <c r="A7" s="321" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="297"/>
-      <c r="C7" s="304" t="s">
+      <c r="B7" s="322"/>
+      <c r="C7" s="329" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="305"/>
-      <c r="E7" s="306"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="306"/>
-      <c r="H7" s="306"/>
-      <c r="I7" s="306"/>
-      <c r="J7" s="306"/>
-      <c r="K7" s="306"/>
-      <c r="L7" s="307"/>
+      <c r="D7" s="330"/>
+      <c r="E7" s="331"/>
+      <c r="F7" s="331"/>
+      <c r="G7" s="331"/>
+      <c r="H7" s="331"/>
+      <c r="I7" s="331"/>
+      <c r="J7" s="331"/>
+      <c r="K7" s="331"/>
+      <c r="L7" s="332"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="296"/>
-      <c r="B8" s="297"/>
-      <c r="C8" s="300" t="s">
+      <c r="A8" s="321"/>
+      <c r="B8" s="322"/>
+      <c r="C8" s="325" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="301"/>
-      <c r="E8" s="302"/>
-      <c r="F8" s="302"/>
-      <c r="G8" s="302"/>
-      <c r="H8" s="302"/>
-      <c r="I8" s="302"/>
-      <c r="J8" s="302"/>
-      <c r="K8" s="302"/>
-      <c r="L8" s="303"/>
+      <c r="D8" s="326"/>
+      <c r="E8" s="327"/>
+      <c r="F8" s="327"/>
+      <c r="G8" s="327"/>
+      <c r="H8" s="327"/>
+      <c r="I8" s="327"/>
+      <c r="J8" s="327"/>
+      <c r="K8" s="327"/>
+      <c r="L8" s="328"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="298"/>
-      <c r="B9" s="298"/>
-      <c r="C9" s="298"/>
-      <c r="D9" s="298"/>
-      <c r="E9" s="298"/>
-      <c r="F9" s="298"/>
-      <c r="G9" s="298"/>
-      <c r="H9" s="298"/>
-      <c r="I9" s="298"/>
-      <c r="J9" s="298"/>
-      <c r="K9" s="298"/>
-      <c r="L9" s="299"/>
+      <c r="A9" s="323"/>
+      <c r="B9" s="323"/>
+      <c r="C9" s="323"/>
+      <c r="D9" s="323"/>
+      <c r="E9" s="323"/>
+      <c r="F9" s="323"/>
+      <c r="G9" s="323"/>
+      <c r="H9" s="323"/>
+      <c r="I9" s="323"/>
+      <c r="J9" s="323"/>
+      <c r="K9" s="323"/>
+      <c r="L9" s="324"/>
     </row>
     <row r="10" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="347" t="s">
+      <c r="A10" s="284" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="347"/>
-      <c r="C10" s="347"/>
-      <c r="D10" s="347"/>
-      <c r="E10" s="347"/>
-      <c r="F10" s="348"/>
-      <c r="G10" s="352"/>
-      <c r="H10" s="286" t="s">
+      <c r="B10" s="284"/>
+      <c r="C10" s="284"/>
+      <c r="D10" s="284"/>
+      <c r="E10" s="284"/>
+      <c r="F10" s="285"/>
+      <c r="G10" s="291"/>
+      <c r="H10" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="287"/>
-      <c r="J10" s="323"/>
-      <c r="K10" s="308"/>
-      <c r="L10" s="309"/>
+      <c r="I10" s="275"/>
+      <c r="J10" s="306"/>
+      <c r="K10" s="307"/>
+      <c r="L10" s="308"/>
     </row>
     <row r="11" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A11" s="347"/>
-      <c r="B11" s="347"/>
-      <c r="C11" s="347"/>
-      <c r="D11" s="347"/>
-      <c r="E11" s="347"/>
-      <c r="F11" s="348"/>
-      <c r="G11" s="352"/>
-      <c r="H11" s="286" t="s">
+      <c r="A11" s="284"/>
+      <c r="B11" s="284"/>
+      <c r="C11" s="284"/>
+      <c r="D11" s="284"/>
+      <c r="E11" s="284"/>
+      <c r="F11" s="285"/>
+      <c r="G11" s="291"/>
+      <c r="H11" s="274" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="287"/>
-      <c r="J11" s="317"/>
-      <c r="K11" s="318"/>
-      <c r="L11" s="319"/>
+      <c r="I11" s="275"/>
+      <c r="J11" s="300"/>
+      <c r="K11" s="301"/>
+      <c r="L11" s="302"/>
       <c r="O11" s="45"/>
     </row>
     <row r="12" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A12" s="347"/>
-      <c r="B12" s="347"/>
-      <c r="C12" s="347"/>
-      <c r="D12" s="347"/>
-      <c r="E12" s="347"/>
-      <c r="F12" s="348"/>
-      <c r="G12" s="352"/>
-      <c r="H12" s="286" t="s">
+      <c r="A12" s="284"/>
+      <c r="B12" s="284"/>
+      <c r="C12" s="284"/>
+      <c r="D12" s="284"/>
+      <c r="E12" s="284"/>
+      <c r="F12" s="285"/>
+      <c r="G12" s="291"/>
+      <c r="H12" s="274" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="287"/>
-      <c r="J12" s="310" t="s">
+      <c r="I12" s="275"/>
+      <c r="J12" s="292" t="s">
         <v>208</v>
       </c>
-      <c r="K12" s="311"/>
-      <c r="L12" s="312"/>
+      <c r="K12" s="293"/>
+      <c r="L12" s="294"/>
       <c r="O12" s="45"/>
     </row>
     <row r="13" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A13" s="347"/>
-      <c r="B13" s="347"/>
-      <c r="C13" s="347"/>
-      <c r="D13" s="347"/>
-      <c r="E13" s="347"/>
-      <c r="F13" s="348"/>
-      <c r="G13" s="352"/>
-      <c r="H13" s="286" t="s">
+      <c r="A13" s="284"/>
+      <c r="B13" s="284"/>
+      <c r="C13" s="284"/>
+      <c r="D13" s="284"/>
+      <c r="E13" s="284"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="291"/>
+      <c r="H13" s="274" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="287"/>
-      <c r="J13" s="310"/>
-      <c r="K13" s="311"/>
-      <c r="L13" s="312"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="292"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="294"/>
       <c r="O13" s="45"/>
     </row>
     <row r="14" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A14" s="347"/>
-      <c r="B14" s="347"/>
-      <c r="C14" s="347"/>
-      <c r="D14" s="347"/>
-      <c r="E14" s="347"/>
-      <c r="F14" s="348"/>
-      <c r="G14" s="352"/>
-      <c r="H14" s="286" t="s">
+      <c r="A14" s="284"/>
+      <c r="B14" s="284"/>
+      <c r="C14" s="284"/>
+      <c r="D14" s="284"/>
+      <c r="E14" s="284"/>
+      <c r="F14" s="285"/>
+      <c r="G14" s="291"/>
+      <c r="H14" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="287"/>
-      <c r="J14" s="310"/>
-      <c r="K14" s="311"/>
-      <c r="L14" s="312"/>
+      <c r="I14" s="275"/>
+      <c r="J14" s="292"/>
+      <c r="K14" s="293"/>
+      <c r="L14" s="294"/>
       <c r="O14" s="45"/>
     </row>
     <row r="15" spans="1:15" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A15" s="347"/>
-      <c r="B15" s="347"/>
-      <c r="C15" s="347"/>
-      <c r="D15" s="347"/>
-      <c r="E15" s="347"/>
-      <c r="F15" s="348"/>
-      <c r="G15" s="352"/>
-      <c r="H15" s="286" t="s">
+      <c r="A15" s="284"/>
+      <c r="B15" s="284"/>
+      <c r="C15" s="284"/>
+      <c r="D15" s="284"/>
+      <c r="E15" s="284"/>
+      <c r="F15" s="285"/>
+      <c r="G15" s="291"/>
+      <c r="H15" s="274" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="287"/>
-      <c r="J15" s="310"/>
-      <c r="K15" s="311"/>
-      <c r="L15" s="312"/>
+      <c r="I15" s="275"/>
+      <c r="J15" s="292"/>
+      <c r="K15" s="293"/>
+      <c r="L15" s="294"/>
       <c r="O15" s="45"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
-      <c r="A16" s="347"/>
-      <c r="B16" s="347"/>
-      <c r="C16" s="347"/>
-      <c r="D16" s="347"/>
-      <c r="E16" s="347"/>
-      <c r="F16" s="348"/>
-      <c r="G16" s="352"/>
-      <c r="H16" s="286" t="s">
+      <c r="A16" s="284"/>
+      <c r="B16" s="284"/>
+      <c r="C16" s="284"/>
+      <c r="D16" s="284"/>
+      <c r="E16" s="284"/>
+      <c r="F16" s="285"/>
+      <c r="G16" s="291"/>
+      <c r="H16" s="274" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="287"/>
-      <c r="J16" s="310"/>
-      <c r="K16" s="311"/>
-      <c r="L16" s="312"/>
+      <c r="I16" s="275"/>
+      <c r="J16" s="292"/>
+      <c r="K16" s="293"/>
+      <c r="L16" s="294"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1">
-      <c r="A17" s="347"/>
-      <c r="B17" s="347"/>
-      <c r="C17" s="347"/>
-      <c r="D17" s="347"/>
-      <c r="E17" s="347"/>
-      <c r="F17" s="348"/>
-      <c r="G17" s="352"/>
-      <c r="H17" s="286" t="s">
+      <c r="A17" s="284"/>
+      <c r="B17" s="284"/>
+      <c r="C17" s="284"/>
+      <c r="D17" s="284"/>
+      <c r="E17" s="284"/>
+      <c r="F17" s="285"/>
+      <c r="G17" s="291"/>
+      <c r="H17" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="287"/>
-      <c r="J17" s="313"/>
-      <c r="K17" s="314"/>
-      <c r="L17" s="315"/>
+      <c r="I17" s="275"/>
+      <c r="J17" s="333"/>
+      <c r="K17" s="334"/>
+      <c r="L17" s="335"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A18" s="347"/>
-      <c r="B18" s="347"/>
-      <c r="C18" s="347"/>
-      <c r="D18" s="347"/>
-      <c r="E18" s="347"/>
-      <c r="F18" s="348"/>
-      <c r="G18" s="352"/>
-      <c r="H18" s="288" t="s">
+      <c r="A18" s="284"/>
+      <c r="B18" s="284"/>
+      <c r="C18" s="284"/>
+      <c r="D18" s="284"/>
+      <c r="E18" s="284"/>
+      <c r="F18" s="285"/>
+      <c r="G18" s="291"/>
+      <c r="H18" s="316" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="289"/>
-      <c r="J18" s="289"/>
-      <c r="K18" s="289"/>
-      <c r="L18" s="290"/>
+      <c r="I18" s="317"/>
+      <c r="J18" s="317"/>
+      <c r="K18" s="317"/>
+      <c r="L18" s="318"/>
     </row>
     <row r="19" spans="1:14" ht="22.95" customHeight="1">
-      <c r="A19" s="347"/>
-      <c r="B19" s="347"/>
-      <c r="C19" s="347"/>
-      <c r="D19" s="347"/>
-      <c r="E19" s="347"/>
-      <c r="F19" s="348"/>
-      <c r="G19" s="352"/>
+      <c r="A19" s="284"/>
+      <c r="B19" s="284"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="284"/>
+      <c r="E19" s="284"/>
+      <c r="F19" s="285"/>
+      <c r="G19" s="291"/>
       <c r="H19" s="114">
         <v>1</v>
       </c>
-      <c r="I19" s="291"/>
-      <c r="J19" s="292"/>
-      <c r="K19" s="292"/>
-      <c r="L19" s="293"/>
+      <c r="I19" s="295"/>
+      <c r="J19" s="296"/>
+      <c r="K19" s="296"/>
+      <c r="L19" s="297"/>
     </row>
     <row r="20" spans="1:14" ht="22.95" customHeight="1">
-      <c r="A20" s="347"/>
-      <c r="B20" s="347"/>
-      <c r="C20" s="347"/>
-      <c r="D20" s="347"/>
-      <c r="E20" s="347"/>
-      <c r="F20" s="348"/>
-      <c r="G20" s="352"/>
+      <c r="A20" s="284"/>
+      <c r="B20" s="284"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="284"/>
+      <c r="E20" s="284"/>
+      <c r="F20" s="285"/>
+      <c r="G20" s="291"/>
       <c r="H20" s="123">
         <v>2</v>
       </c>
-      <c r="I20" s="326"/>
-      <c r="J20" s="327"/>
-      <c r="K20" s="327"/>
-      <c r="L20" s="328"/>
+      <c r="I20" s="311"/>
+      <c r="J20" s="312"/>
+      <c r="K20" s="312"/>
+      <c r="L20" s="313"/>
     </row>
     <row r="21" spans="1:14" ht="22.95" customHeight="1">
-      <c r="A21" s="347"/>
-      <c r="B21" s="347"/>
-      <c r="C21" s="347"/>
-      <c r="D21" s="347"/>
-      <c r="E21" s="347"/>
-      <c r="F21" s="348"/>
-      <c r="G21" s="352"/>
+      <c r="A21" s="284"/>
+      <c r="B21" s="284"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="284"/>
+      <c r="E21" s="284"/>
+      <c r="F21" s="285"/>
+      <c r="G21" s="291"/>
       <c r="H21" s="114">
         <v>3</v>
       </c>
-      <c r="I21" s="320"/>
-      <c r="J21" s="321"/>
-      <c r="K21" s="321"/>
-      <c r="L21" s="322"/>
+      <c r="I21" s="303"/>
+      <c r="J21" s="304"/>
+      <c r="K21" s="304"/>
+      <c r="L21" s="305"/>
     </row>
     <row r="22" spans="1:14" ht="22.95" customHeight="1">
-      <c r="A22" s="347"/>
-      <c r="B22" s="347"/>
-      <c r="C22" s="347"/>
-      <c r="D22" s="347"/>
-      <c r="E22" s="347"/>
-      <c r="F22" s="348"/>
-      <c r="G22" s="352"/>
+      <c r="A22" s="284"/>
+      <c r="B22" s="284"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="284"/>
+      <c r="E22" s="284"/>
+      <c r="F22" s="285"/>
+      <c r="G22" s="291"/>
       <c r="H22" s="114">
         <v>4</v>
       </c>
-      <c r="I22" s="291"/>
-      <c r="J22" s="292"/>
-      <c r="K22" s="292"/>
-      <c r="L22" s="293"/>
+      <c r="I22" s="295"/>
+      <c r="J22" s="296"/>
+      <c r="K22" s="296"/>
+      <c r="L22" s="297"/>
     </row>
     <row r="23" spans="1:14" s="7" customFormat="1" ht="22.95" customHeight="1">
-      <c r="A23" s="347"/>
-      <c r="B23" s="347"/>
-      <c r="C23" s="347"/>
-      <c r="D23" s="347"/>
-      <c r="E23" s="347"/>
-      <c r="F23" s="348"/>
-      <c r="G23" s="352"/>
+      <c r="A23" s="284"/>
+      <c r="B23" s="284"/>
+      <c r="C23" s="284"/>
+      <c r="D23" s="284"/>
+      <c r="E23" s="284"/>
+      <c r="F23" s="285"/>
+      <c r="G23" s="291"/>
       <c r="H23" s="123">
         <v>5</v>
       </c>
-      <c r="I23" s="291"/>
-      <c r="J23" s="292"/>
-      <c r="K23" s="292"/>
-      <c r="L23" s="293"/>
+      <c r="I23" s="295"/>
+      <c r="J23" s="296"/>
+      <c r="K23" s="296"/>
+      <c r="L23" s="297"/>
       <c r="N23" s="44"/>
     </row>
     <row r="24" spans="1:14" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A24" s="347"/>
-      <c r="B24" s="347"/>
-      <c r="C24" s="347"/>
-      <c r="D24" s="347"/>
-      <c r="E24" s="347"/>
-      <c r="F24" s="348"/>
-      <c r="G24" s="352"/>
-      <c r="H24" s="286" t="s">
+      <c r="A24" s="284"/>
+      <c r="B24" s="284"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="284"/>
+      <c r="F24" s="285"/>
+      <c r="G24" s="291"/>
+      <c r="H24" s="274" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="332"/>
-      <c r="J24" s="308"/>
-      <c r="K24" s="308"/>
-      <c r="L24" s="309"/>
+      <c r="I24" s="315"/>
+      <c r="J24" s="307"/>
+      <c r="K24" s="307"/>
+      <c r="L24" s="308"/>
     </row>
     <row r="25" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A25" s="347"/>
-      <c r="B25" s="347"/>
-      <c r="C25" s="347"/>
-      <c r="D25" s="347"/>
-      <c r="E25" s="347"/>
-      <c r="F25" s="348"/>
-      <c r="G25" s="352"/>
-      <c r="H25" s="286" t="s">
+      <c r="A25" s="284"/>
+      <c r="B25" s="284"/>
+      <c r="C25" s="284"/>
+      <c r="D25" s="284"/>
+      <c r="E25" s="284"/>
+      <c r="F25" s="285"/>
+      <c r="G25" s="291"/>
+      <c r="H25" s="274" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="332"/>
-      <c r="J25" s="308"/>
-      <c r="K25" s="308"/>
-      <c r="L25" s="309"/>
+      <c r="I25" s="315"/>
+      <c r="J25" s="307"/>
+      <c r="K25" s="307"/>
+      <c r="L25" s="308"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="294"/>
-      <c r="B26" s="294"/>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
-      <c r="E26" s="294"/>
-      <c r="F26" s="294"/>
-      <c r="G26" s="294"/>
-      <c r="H26" s="294"/>
-      <c r="I26" s="294"/>
-      <c r="J26" s="294"/>
-      <c r="K26" s="294"/>
-      <c r="L26" s="295"/>
+      <c r="A26" s="319"/>
+      <c r="B26" s="319"/>
+      <c r="C26" s="319"/>
+      <c r="D26" s="319"/>
+      <c r="E26" s="319"/>
+      <c r="F26" s="319"/>
+      <c r="G26" s="319"/>
+      <c r="H26" s="319"/>
+      <c r="I26" s="319"/>
+      <c r="J26" s="319"/>
+      <c r="K26" s="319"/>
+      <c r="L26" s="320"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="330" t="s">
+      <c r="A27" s="286" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="330"/>
-      <c r="C27" s="330"/>
-      <c r="D27" s="330"/>
-      <c r="E27" s="330"/>
-      <c r="F27" s="331"/>
-      <c r="G27" s="324"/>
-      <c r="H27" s="329" t="s">
+      <c r="B27" s="286"/>
+      <c r="C27" s="286"/>
+      <c r="D27" s="286"/>
+      <c r="E27" s="286"/>
+      <c r="F27" s="287"/>
+      <c r="G27" s="309"/>
+      <c r="H27" s="314" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="330"/>
-      <c r="J27" s="330"/>
-      <c r="K27" s="330"/>
-      <c r="L27" s="331"/>
+      <c r="I27" s="286"/>
+      <c r="J27" s="286"/>
+      <c r="K27" s="286"/>
+      <c r="L27" s="287"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="196"/>
@@ -6381,188 +6381,188 @@
       <c r="D28" s="195"/>
       <c r="E28" s="195"/>
       <c r="F28" s="192"/>
-      <c r="G28" s="325"/>
-      <c r="H28" s="333"/>
-      <c r="I28" s="334"/>
-      <c r="J28" s="334"/>
-      <c r="K28" s="334"/>
-      <c r="L28" s="335"/>
+      <c r="G28" s="310"/>
+      <c r="H28" s="268"/>
+      <c r="I28" s="269"/>
+      <c r="J28" s="269"/>
+      <c r="K28" s="269"/>
+      <c r="L28" s="270"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="196"/>
-      <c r="B29" s="350"/>
-      <c r="C29" s="350"/>
-      <c r="D29" s="350"/>
+      <c r="B29" s="289"/>
+      <c r="C29" s="289"/>
+      <c r="D29" s="289"/>
       <c r="E29" s="195"/>
       <c r="F29" s="192"/>
-      <c r="G29" s="325"/>
-      <c r="H29" s="333"/>
-      <c r="I29" s="334"/>
-      <c r="J29" s="334"/>
-      <c r="K29" s="334"/>
-      <c r="L29" s="335"/>
+      <c r="G29" s="310"/>
+      <c r="H29" s="268"/>
+      <c r="I29" s="269"/>
+      <c r="J29" s="269"/>
+      <c r="K29" s="269"/>
+      <c r="L29" s="270"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="196"/>
-      <c r="B30" s="350"/>
-      <c r="C30" s="350"/>
-      <c r="D30" s="350"/>
+      <c r="B30" s="289"/>
+      <c r="C30" s="289"/>
+      <c r="D30" s="289"/>
       <c r="E30" s="195"/>
       <c r="F30" s="192"/>
-      <c r="G30" s="325"/>
-      <c r="H30" s="333"/>
-      <c r="I30" s="334"/>
-      <c r="J30" s="334"/>
-      <c r="K30" s="334"/>
-      <c r="L30" s="335"/>
+      <c r="G30" s="310"/>
+      <c r="H30" s="268"/>
+      <c r="I30" s="269"/>
+      <c r="J30" s="269"/>
+      <c r="K30" s="269"/>
+      <c r="L30" s="270"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="196"/>
-      <c r="B31" s="350"/>
-      <c r="C31" s="350"/>
-      <c r="D31" s="350"/>
+      <c r="B31" s="289"/>
+      <c r="C31" s="289"/>
+      <c r="D31" s="289"/>
       <c r="E31" s="195"/>
       <c r="F31" s="192"/>
-      <c r="G31" s="325"/>
-      <c r="H31" s="333"/>
-      <c r="I31" s="334"/>
-      <c r="J31" s="334"/>
-      <c r="K31" s="334"/>
-      <c r="L31" s="335"/>
+      <c r="G31" s="310"/>
+      <c r="H31" s="268"/>
+      <c r="I31" s="269"/>
+      <c r="J31" s="269"/>
+      <c r="K31" s="269"/>
+      <c r="L31" s="270"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="196"/>
-      <c r="B32" s="350"/>
-      <c r="C32" s="350"/>
-      <c r="D32" s="350"/>
-      <c r="E32" s="353" t="e">
+      <c r="B32" s="289"/>
+      <c r="C32" s="289"/>
+      <c r="D32" s="289"/>
+      <c r="E32" s="298">
         <f>+'Fr-05'!E20</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F32" s="316" t="str">
+        <v>0</v>
+      </c>
+      <c r="F32" s="299" t="str">
         <f>IF('Fr-05'!E10="ผลรวม(kgCO2 eq.)","kg",IF('Fr-05'!E10="ผลรวม(gCO2 eq.)","g","ton"))</f>
         <v>kg</v>
       </c>
-      <c r="G32" s="325"/>
-      <c r="H32" s="333"/>
-      <c r="I32" s="334"/>
-      <c r="J32" s="334"/>
-      <c r="K32" s="334"/>
-      <c r="L32" s="335"/>
+      <c r="G32" s="310"/>
+      <c r="H32" s="268"/>
+      <c r="I32" s="269"/>
+      <c r="J32" s="269"/>
+      <c r="K32" s="269"/>
+      <c r="L32" s="270"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="196"/>
-      <c r="B33" s="350"/>
-      <c r="C33" s="350"/>
-      <c r="D33" s="350"/>
-      <c r="E33" s="353"/>
-      <c r="F33" s="316"/>
-      <c r="G33" s="325"/>
-      <c r="H33" s="333"/>
-      <c r="I33" s="334"/>
-      <c r="J33" s="334"/>
-      <c r="K33" s="334"/>
-      <c r="L33" s="335"/>
+      <c r="B33" s="289"/>
+      <c r="C33" s="289"/>
+      <c r="D33" s="289"/>
+      <c r="E33" s="298"/>
+      <c r="F33" s="299"/>
+      <c r="G33" s="310"/>
+      <c r="H33" s="268"/>
+      <c r="I33" s="269"/>
+      <c r="J33" s="269"/>
+      <c r="K33" s="269"/>
+      <c r="L33" s="270"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="196"/>
-      <c r="B34" s="350"/>
-      <c r="C34" s="350"/>
-      <c r="D34" s="350"/>
+      <c r="B34" s="289"/>
+      <c r="C34" s="289"/>
+      <c r="D34" s="289"/>
       <c r="E34" s="195"/>
       <c r="F34" s="192"/>
-      <c r="G34" s="325"/>
-      <c r="H34" s="333"/>
-      <c r="I34" s="334"/>
-      <c r="J34" s="334"/>
-      <c r="K34" s="334"/>
-      <c r="L34" s="335"/>
+      <c r="G34" s="310"/>
+      <c r="H34" s="268"/>
+      <c r="I34" s="269"/>
+      <c r="J34" s="269"/>
+      <c r="K34" s="269"/>
+      <c r="L34" s="270"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="196"/>
-      <c r="B35" s="350"/>
-      <c r="C35" s="350"/>
-      <c r="D35" s="350"/>
+      <c r="B35" s="289"/>
+      <c r="C35" s="289"/>
+      <c r="D35" s="289"/>
       <c r="E35" s="195"/>
       <c r="F35" s="192"/>
-      <c r="G35" s="325"/>
-      <c r="H35" s="333"/>
-      <c r="I35" s="334"/>
-      <c r="J35" s="334"/>
-      <c r="K35" s="334"/>
-      <c r="L35" s="335"/>
+      <c r="G35" s="310"/>
+      <c r="H35" s="268"/>
+      <c r="I35" s="269"/>
+      <c r="J35" s="269"/>
+      <c r="K35" s="269"/>
+      <c r="L35" s="270"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="196"/>
-      <c r="B36" s="350"/>
-      <c r="C36" s="350"/>
-      <c r="D36" s="350"/>
+      <c r="B36" s="289"/>
+      <c r="C36" s="289"/>
+      <c r="D36" s="289"/>
       <c r="E36" s="195"/>
       <c r="F36" s="192"/>
-      <c r="G36" s="325"/>
-      <c r="H36" s="333"/>
-      <c r="I36" s="334"/>
-      <c r="J36" s="334"/>
-      <c r="K36" s="334"/>
-      <c r="L36" s="335"/>
+      <c r="G36" s="310"/>
+      <c r="H36" s="268"/>
+      <c r="I36" s="269"/>
+      <c r="J36" s="269"/>
+      <c r="K36" s="269"/>
+      <c r="L36" s="270"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="196"/>
-      <c r="B37" s="350"/>
-      <c r="C37" s="350"/>
-      <c r="D37" s="350"/>
+      <c r="B37" s="289"/>
+      <c r="C37" s="289"/>
+      <c r="D37" s="289"/>
       <c r="E37" s="195"/>
       <c r="F37" s="192"/>
-      <c r="G37" s="325"/>
-      <c r="H37" s="333"/>
-      <c r="I37" s="334"/>
-      <c r="J37" s="334"/>
-      <c r="K37" s="334"/>
-      <c r="L37" s="335"/>
+      <c r="G37" s="310"/>
+      <c r="H37" s="268"/>
+      <c r="I37" s="269"/>
+      <c r="J37" s="269"/>
+      <c r="K37" s="269"/>
+      <c r="L37" s="270"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="196"/>
-      <c r="B38" s="350"/>
-      <c r="C38" s="350"/>
-      <c r="D38" s="350"/>
+      <c r="B38" s="289"/>
+      <c r="C38" s="289"/>
+      <c r="D38" s="289"/>
       <c r="E38" s="195"/>
       <c r="F38" s="192"/>
-      <c r="G38" s="325"/>
-      <c r="H38" s="333"/>
-      <c r="I38" s="334"/>
-      <c r="J38" s="334"/>
-      <c r="K38" s="334"/>
-      <c r="L38" s="335"/>
+      <c r="G38" s="310"/>
+      <c r="H38" s="268"/>
+      <c r="I38" s="269"/>
+      <c r="J38" s="269"/>
+      <c r="K38" s="269"/>
+      <c r="L38" s="270"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="196"/>
-      <c r="B39" s="350"/>
-      <c r="C39" s="350"/>
-      <c r="D39" s="350"/>
+      <c r="B39" s="289"/>
+      <c r="C39" s="289"/>
+      <c r="D39" s="289"/>
       <c r="E39" s="195"/>
       <c r="F39" s="192"/>
-      <c r="G39" s="325"/>
-      <c r="H39" s="333"/>
-      <c r="I39" s="334"/>
-      <c r="J39" s="334"/>
-      <c r="K39" s="334"/>
-      <c r="L39" s="335"/>
+      <c r="G39" s="310"/>
+      <c r="H39" s="268"/>
+      <c r="I39" s="269"/>
+      <c r="J39" s="269"/>
+      <c r="K39" s="269"/>
+      <c r="L39" s="270"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="349" t="s">
+      <c r="A40" s="288" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="350"/>
-      <c r="C40" s="350"/>
-      <c r="D40" s="350"/>
-      <c r="E40" s="350"/>
-      <c r="F40" s="351"/>
-      <c r="G40" s="325"/>
-      <c r="H40" s="333"/>
-      <c r="I40" s="334"/>
-      <c r="J40" s="334"/>
-      <c r="K40" s="334"/>
-      <c r="L40" s="335"/>
+      <c r="B40" s="289"/>
+      <c r="C40" s="289"/>
+      <c r="D40" s="289"/>
+      <c r="E40" s="289"/>
+      <c r="F40" s="290"/>
+      <c r="G40" s="310"/>
+      <c r="H40" s="268"/>
+      <c r="I40" s="269"/>
+      <c r="J40" s="269"/>
+      <c r="K40" s="269"/>
+      <c r="L40" s="270"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="196"/>
@@ -6571,12 +6571,12 @@
       <c r="D41" s="195"/>
       <c r="E41" s="195"/>
       <c r="F41" s="192"/>
-      <c r="G41" s="325"/>
-      <c r="H41" s="333"/>
-      <c r="I41" s="334"/>
-      <c r="J41" s="334"/>
-      <c r="K41" s="334"/>
-      <c r="L41" s="335"/>
+      <c r="G41" s="310"/>
+      <c r="H41" s="268"/>
+      <c r="I41" s="269"/>
+      <c r="J41" s="269"/>
+      <c r="K41" s="269"/>
+      <c r="L41" s="270"/>
     </row>
     <row r="42" spans="1:12" ht="12" customHeight="1">
       <c r="A42" s="197"/>
@@ -6585,44 +6585,44 @@
       <c r="D42" s="193"/>
       <c r="E42" s="193"/>
       <c r="F42" s="194"/>
-      <c r="G42" s="325"/>
-      <c r="H42" s="336"/>
-      <c r="I42" s="337"/>
-      <c r="J42" s="337"/>
-      <c r="K42" s="337"/>
-      <c r="L42" s="338"/>
+      <c r="G42" s="310"/>
+      <c r="H42" s="271"/>
+      <c r="I42" s="272"/>
+      <c r="J42" s="272"/>
+      <c r="K42" s="272"/>
+      <c r="L42" s="273"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="B43" s="3"/>
       <c r="L43" s="6"/>
     </row>
     <row r="44" spans="1:12" s="4" customFormat="1" ht="10.5" customHeight="1">
-      <c r="B44" s="344"/>
-      <c r="C44" s="345"/>
-      <c r="D44" s="345"/>
-      <c r="E44" s="345"/>
-      <c r="F44" s="345"/>
-      <c r="G44" s="345"/>
-      <c r="H44" s="345"/>
-      <c r="I44" s="345"/>
-      <c r="J44" s="345"/>
-      <c r="K44" s="345"/>
-      <c r="L44" s="346"/>
+      <c r="B44" s="281"/>
+      <c r="C44" s="282"/>
+      <c r="D44" s="282"/>
+      <c r="E44" s="282"/>
+      <c r="F44" s="282"/>
+      <c r="G44" s="282"/>
+      <c r="H44" s="282"/>
+      <c r="I44" s="282"/>
+      <c r="J44" s="282"/>
+      <c r="K44" s="282"/>
+      <c r="L44" s="283"/>
     </row>
     <row r="45" spans="1:12" ht="13.5" customHeight="1">
       <c r="B45" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="339" t="s">
+      <c r="C45" s="276" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="340"/>
-      <c r="E45" s="340"/>
-      <c r="F45" s="341" t="s">
+      <c r="D45" s="277"/>
+      <c r="E45" s="277"/>
+      <c r="F45" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="G45" s="342"/>
-      <c r="H45" s="343"/>
+      <c r="G45" s="279"/>
+      <c r="H45" s="280"/>
       <c r="I45" s="18" t="s">
         <v>29</v>
       </c>
@@ -6636,6 +6636,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="G27:G42"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="H28:L42"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H16:I16"/>
@@ -6652,46 +6692,6 @@
     <mergeCell ref="I22:L22"/>
     <mergeCell ref="E32:E33"/>
     <mergeCell ref="J13:L13"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="G27:G42"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.5" footer="0.5"/>
@@ -6706,7 +6706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9FA0D6-8391-4C7B-880E-9B4A83DF2101}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11:F15"/>
     </sheetView>
   </sheetViews>
@@ -6718,168 +6718,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="565">
+      <c r="A1" s="574">
         <v>6.2</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="561" t="s">
+      <c r="C1" s="587" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="562"/>
-      <c r="E1" s="562"/>
-      <c r="F1" s="628"/>
+      <c r="D1" s="588"/>
+      <c r="E1" s="588"/>
+      <c r="F1" s="652"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="566"/>
+      <c r="A2" s="575"/>
       <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="626" t="s">
+      <c r="C2" s="650" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="404"/>
-      <c r="E2" s="404"/>
-      <c r="F2" s="627"/>
+      <c r="D2" s="398"/>
+      <c r="E2" s="398"/>
+      <c r="F2" s="651"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="566"/>
+      <c r="A3" s="575"/>
       <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="626" t="s">
+      <c r="C3" s="650" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="404"/>
-      <c r="E3" s="404"/>
-      <c r="F3" s="627"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="651"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="566"/>
+      <c r="A4" s="575"/>
       <c r="B4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="403">
+      <c r="C4" s="397">
         <f>'Fr-01'!F5</f>
         <v>0</v>
       </c>
-      <c r="D4" s="404"/>
-      <c r="E4" s="404"/>
-      <c r="F4" s="627"/>
+      <c r="D4" s="398"/>
+      <c r="E4" s="398"/>
+      <c r="F4" s="651"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="567"/>
+      <c r="A5" s="576"/>
       <c r="B5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="403">
+      <c r="C5" s="397">
         <f>'Fr-01'!F6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="404"/>
-      <c r="E5" s="404"/>
-      <c r="F5" s="627"/>
+      <c r="D5" s="398"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="651"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="524" t="s">
+      <c r="A6" s="495" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="631" t="s">
+      <c r="B6" s="638" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="306"/>
-      <c r="D6" s="306"/>
-      <c r="E6" s="306"/>
-      <c r="F6" s="430"/>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="446"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="630"/>
-      <c r="B7" s="632"/>
-      <c r="C7" s="302"/>
-      <c r="D7" s="302"/>
-      <c r="E7" s="302"/>
-      <c r="F7" s="633"/>
+      <c r="A7" s="637"/>
+      <c r="B7" s="639"/>
+      <c r="C7" s="327"/>
+      <c r="D7" s="327"/>
+      <c r="E7" s="327"/>
+      <c r="F7" s="640"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="688"/>
-      <c r="B8" s="689"/>
-      <c r="C8" s="689"/>
-      <c r="D8" s="689"/>
-      <c r="E8" s="689"/>
-      <c r="F8" s="690"/>
+      <c r="A8" s="656"/>
+      <c r="B8" s="657"/>
+      <c r="C8" s="657"/>
+      <c r="D8" s="657"/>
+      <c r="E8" s="657"/>
+      <c r="F8" s="658"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1">
       <c r="A9" s="171"/>
       <c r="B9" s="692" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="693" t="s">
+      <c r="C9" s="694" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="694" t="s">
+      <c r="D9" s="695" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="501" t="s">
+      <c r="E9" s="524" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="501"/>
+      <c r="F9" s="524"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="171"/>
-      <c r="B10" s="548"/>
-      <c r="C10" s="508"/>
-      <c r="D10" s="481"/>
-      <c r="E10" s="582"/>
-      <c r="F10" s="582"/>
+      <c r="B10" s="489"/>
+      <c r="C10" s="520"/>
+      <c r="D10" s="432"/>
+      <c r="E10" s="572"/>
+      <c r="F10" s="572"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" ht="25.2" customHeight="1">
       <c r="A11" s="171"/>
       <c r="B11" s="265"/>
       <c r="C11" s="266"/>
       <c r="D11" s="267"/>
-      <c r="E11" s="702"/>
-      <c r="F11" s="702"/>
+      <c r="E11" s="693"/>
+      <c r="F11" s="693"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" ht="25.2" customHeight="1">
       <c r="A12" s="171"/>
       <c r="B12" s="265"/>
       <c r="C12" s="266"/>
       <c r="D12" s="267"/>
-      <c r="E12" s="702"/>
-      <c r="F12" s="702"/>
+      <c r="E12" s="693"/>
+      <c r="F12" s="693"/>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" ht="25.2" customHeight="1">
       <c r="A13" s="171"/>
       <c r="B13" s="265"/>
       <c r="C13" s="266"/>
       <c r="D13" s="267"/>
-      <c r="E13" s="702"/>
-      <c r="F13" s="702"/>
+      <c r="E13" s="693"/>
+      <c r="F13" s="693"/>
     </row>
     <row r="14" spans="1:6" s="10" customFormat="1" ht="25.2" customHeight="1">
       <c r="A14" s="171"/>
       <c r="B14" s="265"/>
       <c r="C14" s="266"/>
       <c r="D14" s="267"/>
-      <c r="E14" s="702"/>
-      <c r="F14" s="702"/>
+      <c r="E14" s="693"/>
+      <c r="F14" s="693"/>
     </row>
     <row r="15" spans="1:6" s="13" customFormat="1" ht="25.2" customHeight="1">
       <c r="A15" s="172"/>
       <c r="B15" s="265"/>
       <c r="C15" s="266"/>
       <c r="D15" s="267"/>
-      <c r="E15" s="702"/>
-      <c r="F15" s="702"/>
+      <c r="E15" s="693"/>
+      <c r="F15" s="693"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A16" s="671"/>
-      <c r="B16" s="672"/>
-      <c r="C16" s="672"/>
-      <c r="D16" s="672"/>
-      <c r="E16" s="672"/>
-      <c r="F16" s="673"/>
+      <c r="A16" s="667"/>
+      <c r="B16" s="668"/>
+      <c r="C16" s="668"/>
+      <c r="D16" s="668"/>
+      <c r="E16" s="668"/>
+      <c r="F16" s="669"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="A17" s="37" t="s">
@@ -6914,12 +6914,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="E9:F10"/>
     <mergeCell ref="B9:B10"/>
@@ -6934,6 +6928,12 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6988,12 +6988,12 @@
     </row>
     <row r="4" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="B4" s="88"/>
-      <c r="C4" s="698" t="s">
+      <c r="C4" s="699" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="699"/>
-      <c r="E4" s="699"/>
-      <c r="F4" s="700"/>
+      <c r="D4" s="700"/>
+      <c r="E4" s="700"/>
+      <c r="F4" s="701"/>
     </row>
     <row r="5" spans="1:7" s="92" customFormat="1" ht="36" customHeight="1" thickBot="1">
       <c r="B5" s="99"/>
@@ -7012,7 +7012,7 @@
       <c r="G5" s="89"/>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1">
-      <c r="A6" s="695" t="s">
+      <c r="A6" s="696" t="s">
         <v>179</v>
       </c>
       <c r="B6" s="101" t="s">
@@ -7032,7 +7032,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="36" customHeight="1">
-      <c r="A7" s="696"/>
+      <c r="A7" s="697"/>
       <c r="B7" s="103" t="s">
         <v>176</v>
       </c>
@@ -7050,7 +7050,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1">
-      <c r="A8" s="696"/>
+      <c r="A8" s="697"/>
       <c r="B8" s="103" t="s">
         <v>177</v>
       </c>
@@ -7068,7 +7068,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1" thickBot="1">
-      <c r="A9" s="697"/>
+      <c r="A9" s="698"/>
       <c r="B9" s="105" t="s">
         <v>178</v>
       </c>
@@ -7109,12 +7109,12 @@
     </row>
     <row r="14" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="B14" s="88"/>
-      <c r="C14" s="698" t="s">
+      <c r="C14" s="699" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="699"/>
-      <c r="E14" s="699"/>
-      <c r="F14" s="700"/>
+      <c r="D14" s="700"/>
+      <c r="E14" s="700"/>
+      <c r="F14" s="701"/>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="B15" s="99"/>
@@ -7132,7 +7132,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1">
-      <c r="A16" s="695" t="s">
+      <c r="A16" s="696" t="s">
         <v>179</v>
       </c>
       <c r="B16" s="101" t="s">
@@ -7152,7 +7152,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="36" customHeight="1">
-      <c r="A17" s="696"/>
+      <c r="A17" s="697"/>
       <c r="B17" s="103" t="s">
         <v>176</v>
       </c>
@@ -7170,7 +7170,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="36" customHeight="1">
-      <c r="A18" s="696"/>
+      <c r="A18" s="697"/>
       <c r="B18" s="103" t="s">
         <v>177</v>
       </c>
@@ -7188,7 +7188,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A19" s="697"/>
+      <c r="A19" s="698"/>
       <c r="B19" s="105" t="s">
         <v>178</v>
       </c>
@@ -7349,10 +7349,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="174" customFormat="1" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A1" s="701" t="s">
+      <c r="A1" s="702" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="701"/>
+      <c r="B1" s="702"/>
     </row>
     <row r="2" spans="1:2" s="173" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="178" t="s">
@@ -7531,135 +7531,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="360">
+      <c r="A1" s="376">
         <v>2</v>
       </c>
-      <c r="B1" s="371" t="s">
+      <c r="B1" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="372"/>
-      <c r="D1" s="366" t="s">
+      <c r="C1" s="388"/>
+      <c r="D1" s="382" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="367"/>
-      <c r="F1" s="367"/>
-      <c r="G1" s="367"/>
-      <c r="H1" s="367"/>
-      <c r="I1" s="367"/>
-      <c r="J1" s="368"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
+      <c r="H1" s="383"/>
+      <c r="I1" s="383"/>
+      <c r="J1" s="384"/>
       <c r="K1" s="125" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="126"/>
       <c r="M1" s="126"/>
-      <c r="N1" s="369"/>
-      <c r="O1" s="369"/>
-      <c r="P1" s="369"/>
-      <c r="Q1" s="370"/>
+      <c r="N1" s="385"/>
+      <c r="O1" s="385"/>
+      <c r="P1" s="385"/>
+      <c r="Q1" s="386"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="361"/>
-      <c r="B2" s="373" t="s">
+      <c r="A2" s="377"/>
+      <c r="B2" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="374"/>
-      <c r="D2" s="375"/>
-      <c r="E2" s="362">
+      <c r="C2" s="390"/>
+      <c r="D2" s="391"/>
+      <c r="E2" s="378">
         <f>'Fr-01'!F5</f>
         <v>0</v>
       </c>
-      <c r="F2" s="363"/>
-      <c r="G2" s="363"/>
-      <c r="H2" s="363"/>
-      <c r="I2" s="363"/>
-      <c r="J2" s="364"/>
-      <c r="K2" s="277" t="s">
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
+      <c r="H2" s="379"/>
+      <c r="I2" s="379"/>
+      <c r="J2" s="380"/>
+      <c r="K2" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="278"/>
-      <c r="M2" s="365"/>
-      <c r="N2" s="274" t="s">
+      <c r="L2" s="346"/>
+      <c r="M2" s="381"/>
+      <c r="N2" s="342" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="376"/>
-      <c r="P2" s="376"/>
-      <c r="Q2" s="377"/>
+      <c r="O2" s="392"/>
+      <c r="P2" s="392"/>
+      <c r="Q2" s="393"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="361"/>
-      <c r="B3" s="384" t="s">
+      <c r="A3" s="377"/>
+      <c r="B3" s="360" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="385"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="362">
+      <c r="C3" s="361"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="378">
         <f>'Fr-01'!F6</f>
         <v>0</v>
       </c>
-      <c r="F3" s="363"/>
-      <c r="G3" s="363"/>
-      <c r="H3" s="363"/>
-      <c r="I3" s="363"/>
-      <c r="J3" s="364"/>
-      <c r="K3" s="277" t="s">
+      <c r="F3" s="379"/>
+      <c r="G3" s="379"/>
+      <c r="H3" s="379"/>
+      <c r="I3" s="379"/>
+      <c r="J3" s="380"/>
+      <c r="K3" s="345" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="278"/>
-      <c r="M3" s="365"/>
-      <c r="N3" s="274" t="s">
+      <c r="L3" s="346"/>
+      <c r="M3" s="381"/>
+      <c r="N3" s="342" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="376"/>
-      <c r="P3" s="376"/>
-      <c r="Q3" s="377"/>
+      <c r="O3" s="392"/>
+      <c r="P3" s="392"/>
+      <c r="Q3" s="393"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A4" s="392" t="s">
+      <c r="A4" s="368" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="387" t="s">
+      <c r="B4" s="363" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="387"/>
-      <c r="D4" s="387"/>
-      <c r="E4" s="387"/>
-      <c r="F4" s="387"/>
-      <c r="G4" s="387"/>
-      <c r="H4" s="387"/>
-      <c r="I4" s="387"/>
-      <c r="J4" s="387"/>
-      <c r="K4" s="387"/>
-      <c r="L4" s="387"/>
-      <c r="M4" s="387"/>
-      <c r="N4" s="387"/>
-      <c r="O4" s="387"/>
-      <c r="P4" s="387"/>
-      <c r="Q4" s="388"/>
+      <c r="C4" s="363"/>
+      <c r="D4" s="363"/>
+      <c r="E4" s="363"/>
+      <c r="F4" s="363"/>
+      <c r="G4" s="363"/>
+      <c r="H4" s="363"/>
+      <c r="I4" s="363"/>
+      <c r="J4" s="363"/>
+      <c r="K4" s="363"/>
+      <c r="L4" s="363"/>
+      <c r="M4" s="363"/>
+      <c r="N4" s="363"/>
+      <c r="O4" s="363"/>
+      <c r="P4" s="363"/>
+      <c r="Q4" s="364"/>
     </row>
     <row r="5" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A5" s="393"/>
-      <c r="B5" s="389" t="s">
+      <c r="A5" s="369"/>
+      <c r="B5" s="365" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="389"/>
-      <c r="D5" s="389"/>
-      <c r="E5" s="389"/>
-      <c r="F5" s="389"/>
-      <c r="G5" s="389"/>
-      <c r="H5" s="389"/>
-      <c r="I5" s="389"/>
-      <c r="J5" s="389"/>
-      <c r="K5" s="389"/>
-      <c r="L5" s="389"/>
-      <c r="M5" s="389"/>
-      <c r="N5" s="389"/>
-      <c r="O5" s="389"/>
-      <c r="P5" s="389"/>
-      <c r="Q5" s="390"/>
+      <c r="C5" s="365"/>
+      <c r="D5" s="365"/>
+      <c r="E5" s="365"/>
+      <c r="F5" s="365"/>
+      <c r="G5" s="365"/>
+      <c r="H5" s="365"/>
+      <c r="I5" s="365"/>
+      <c r="J5" s="365"/>
+      <c r="K5" s="365"/>
+      <c r="L5" s="365"/>
+      <c r="M5" s="365"/>
+      <c r="N5" s="365"/>
+      <c r="O5" s="365"/>
+      <c r="P5" s="365"/>
+      <c r="Q5" s="366"/>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="200"/>
@@ -7681,25 +7681,25 @@
       <c r="Q6" s="200"/>
     </row>
     <row r="7" spans="1:19" ht="30.75" customHeight="1">
-      <c r="A7" s="391" t="s">
+      <c r="A7" s="367" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="391"/>
-      <c r="C7" s="391"/>
-      <c r="D7" s="391"/>
-      <c r="E7" s="391"/>
-      <c r="F7" s="391"/>
-      <c r="G7" s="391"/>
-      <c r="H7" s="391"/>
-      <c r="I7" s="391"/>
-      <c r="J7" s="391"/>
-      <c r="K7" s="391"/>
-      <c r="L7" s="391"/>
-      <c r="M7" s="391"/>
-      <c r="N7" s="391"/>
-      <c r="O7" s="391"/>
-      <c r="P7" s="391"/>
-      <c r="Q7" s="391"/>
+      <c r="B7" s="367"/>
+      <c r="C7" s="367"/>
+      <c r="D7" s="367"/>
+      <c r="E7" s="367"/>
+      <c r="F7" s="367"/>
+      <c r="G7" s="367"/>
+      <c r="H7" s="367"/>
+      <c r="I7" s="367"/>
+      <c r="J7" s="367"/>
+      <c r="K7" s="367"/>
+      <c r="L7" s="367"/>
+      <c r="M7" s="367"/>
+      <c r="N7" s="367"/>
+      <c r="O7" s="367"/>
+      <c r="P7" s="367"/>
+      <c r="Q7" s="367"/>
     </row>
     <row r="8" spans="1:19" ht="30.75" customHeight="1">
       <c r="A8" s="200"/>
@@ -7722,25 +7722,25 @@
     </row>
     <row r="9" spans="1:19" ht="30.75" customHeight="1">
       <c r="A9" s="200"/>
-      <c r="B9" s="378" t="s">
+      <c r="B9" s="354" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="379"/>
-      <c r="D9" s="379"/>
-      <c r="E9" s="379"/>
-      <c r="F9" s="379"/>
-      <c r="G9" s="380"/>
+      <c r="C9" s="355"/>
+      <c r="D9" s="355"/>
+      <c r="E9" s="355"/>
+      <c r="F9" s="355"/>
+      <c r="G9" s="356"/>
       <c r="H9" s="201"/>
       <c r="I9" s="202"/>
       <c r="J9" s="200"/>
       <c r="K9" s="200"/>
-      <c r="L9" s="378" t="s">
+      <c r="L9" s="354" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="379"/>
-      <c r="N9" s="379"/>
-      <c r="O9" s="379"/>
-      <c r="P9" s="380"/>
+      <c r="M9" s="355"/>
+      <c r="N9" s="355"/>
+      <c r="O9" s="355"/>
+      <c r="P9" s="356"/>
       <c r="Q9" s="200"/>
     </row>
     <row r="10" spans="1:19" ht="30.75" customHeight="1">
@@ -7764,25 +7764,25 @@
     </row>
     <row r="11" spans="1:19" ht="30.75" customHeight="1">
       <c r="A11" s="206"/>
-      <c r="B11" s="381" t="s">
+      <c r="B11" s="357" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="382"/>
-      <c r="D11" s="382"/>
-      <c r="E11" s="382"/>
-      <c r="F11" s="382"/>
-      <c r="G11" s="383"/>
+      <c r="C11" s="358"/>
+      <c r="D11" s="358"/>
+      <c r="E11" s="358"/>
+      <c r="F11" s="358"/>
+      <c r="G11" s="359"/>
       <c r="H11" s="200"/>
       <c r="I11" s="202"/>
       <c r="J11" s="200"/>
       <c r="K11" s="206"/>
-      <c r="L11" s="381" t="s">
+      <c r="L11" s="357" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="382"/>
-      <c r="N11" s="382"/>
-      <c r="O11" s="382"/>
-      <c r="P11" s="383"/>
+      <c r="M11" s="358"/>
+      <c r="N11" s="358"/>
+      <c r="O11" s="358"/>
+      <c r="P11" s="359"/>
       <c r="Q11" s="200"/>
     </row>
     <row r="12" spans="1:19" ht="30.75" customHeight="1">
@@ -8208,45 +8208,37 @@
         <v>26</v>
       </c>
       <c r="B34" s="110"/>
-      <c r="C34" s="339" t="str">
+      <c r="C34" s="276" t="str">
         <f>'Fr-01'!C45:E45</f>
         <v>(ที่ปรึกษา/ผู้คำนวณ)</v>
       </c>
-      <c r="D34" s="357"/>
-      <c r="E34" s="357"/>
-      <c r="F34" s="342" t="s">
+      <c r="D34" s="373"/>
+      <c r="E34" s="373"/>
+      <c r="F34" s="279" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="342"/>
+      <c r="G34" s="279"/>
       <c r="H34" s="198"/>
       <c r="I34" s="198"/>
-      <c r="J34" s="358" t="str">
+      <c r="J34" s="374" t="str">
         <f>'Fr-01'!I45</f>
         <v>วันที่ผู้ทวนสอบตรวจเสร็จ</v>
       </c>
-      <c r="K34" s="340"/>
-      <c r="L34" s="340"/>
-      <c r="M34" s="359"/>
+      <c r="K34" s="277"/>
+      <c r="L34" s="277"/>
+      <c r="M34" s="375"/>
       <c r="N34" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="O34" s="354" t="str">
+      <c r="O34" s="370" t="str">
         <f>'Fr-01'!L45</f>
         <v>กรณีที่ อบก. ให้แก้ไขเพิ่มเติม</v>
       </c>
-      <c r="P34" s="355"/>
-      <c r="Q34" s="356"/>
+      <c r="P34" s="371"/>
+      <c r="Q34" s="372"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="L11:P11"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="O34:Q34"/>
     <mergeCell ref="C34:E34"/>
@@ -8263,6 +8255,14 @@
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="B9:G9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="B5:Q5"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="L11:P11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8292,130 +8292,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="360">
+      <c r="A1" s="376">
         <v>3</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="366" t="s">
+      <c r="C1" s="382" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="367"/>
-      <c r="E1" s="367"/>
-      <c r="F1" s="367"/>
-      <c r="G1" s="368"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="384"/>
       <c r="H1" s="125" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="126"/>
-      <c r="J1" s="402"/>
-      <c r="K1" s="369"/>
-      <c r="L1" s="369"/>
-      <c r="M1" s="370"/>
+      <c r="J1" s="396"/>
+      <c r="K1" s="385"/>
+      <c r="L1" s="385"/>
+      <c r="M1" s="386"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="361"/>
-      <c r="B2" s="277" t="s">
+      <c r="A2" s="377"/>
+      <c r="B2" s="345" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="365"/>
-      <c r="D2" s="403">
+      <c r="C2" s="381"/>
+      <c r="D2" s="397">
         <f>'Fr-02'!E2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="404"/>
-      <c r="F2" s="404"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="277" t="s">
+      <c r="E2" s="398"/>
+      <c r="F2" s="398"/>
+      <c r="G2" s="347"/>
+      <c r="H2" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="365"/>
-      <c r="J2" s="274" t="s">
+      <c r="I2" s="381"/>
+      <c r="J2" s="342" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="376"/>
-      <c r="L2" s="376"/>
-      <c r="M2" s="377"/>
+      <c r="K2" s="392"/>
+      <c r="L2" s="392"/>
+      <c r="M2" s="393"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="361"/>
-      <c r="B3" s="277" t="s">
+      <c r="A3" s="377"/>
+      <c r="B3" s="345" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="365"/>
-      <c r="D3" s="403">
+      <c r="C3" s="381"/>
+      <c r="D3" s="397">
         <f>'Fr-02'!E3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="404"/>
-      <c r="F3" s="404"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="277" t="s">
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="345" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="365"/>
-      <c r="J3" s="274" t="s">
+      <c r="I3" s="381"/>
+      <c r="J3" s="342" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="376"/>
-      <c r="L3" s="376"/>
-      <c r="M3" s="377"/>
+      <c r="K3" s="392"/>
+      <c r="L3" s="392"/>
+      <c r="M3" s="393"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A4" s="392" t="s">
+      <c r="A4" s="368" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="405" t="s">
+      <c r="B4" s="399" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306"/>
-      <c r="H4" s="306"/>
-      <c r="I4" s="306"/>
-      <c r="J4" s="306"/>
-      <c r="K4" s="306"/>
-      <c r="L4" s="306"/>
-      <c r="M4" s="307"/>
+      <c r="C4" s="331"/>
+      <c r="D4" s="331"/>
+      <c r="E4" s="331"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="331"/>
+      <c r="H4" s="331"/>
+      <c r="I4" s="331"/>
+      <c r="J4" s="331"/>
+      <c r="K4" s="331"/>
+      <c r="L4" s="331"/>
+      <c r="M4" s="332"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A5" s="393"/>
-      <c r="B5" s="406" t="s">
+      <c r="A5" s="369"/>
+      <c r="B5" s="400" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="302"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="302"/>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="302"/>
-      <c r="K5" s="302"/>
-      <c r="L5" s="302"/>
-      <c r="M5" s="303"/>
+      <c r="C5" s="327"/>
+      <c r="D5" s="327"/>
+      <c r="E5" s="327"/>
+      <c r="F5" s="327"/>
+      <c r="G5" s="327"/>
+      <c r="H5" s="327"/>
+      <c r="I5" s="327"/>
+      <c r="J5" s="327"/>
+      <c r="K5" s="327"/>
+      <c r="L5" s="327"/>
+      <c r="M5" s="328"/>
     </row>
     <row r="6" spans="1:15" ht="12" customHeight="1">
-      <c r="A6" s="407"/>
-      <c r="B6" s="408"/>
-      <c r="C6" s="408"/>
-      <c r="D6" s="408"/>
-      <c r="E6" s="408"/>
-      <c r="F6" s="408"/>
-      <c r="G6" s="408"/>
-      <c r="H6" s="408"/>
-      <c r="I6" s="408"/>
-      <c r="J6" s="408"/>
-      <c r="K6" s="408"/>
-      <c r="L6" s="408"/>
-      <c r="M6" s="409"/>
+      <c r="A6" s="401"/>
+      <c r="B6" s="402"/>
+      <c r="C6" s="402"/>
+      <c r="D6" s="402"/>
+      <c r="E6" s="402"/>
+      <c r="F6" s="402"/>
+      <c r="G6" s="402"/>
+      <c r="H6" s="402"/>
+      <c r="I6" s="402"/>
+      <c r="J6" s="402"/>
+      <c r="K6" s="402"/>
+      <c r="L6" s="402"/>
+      <c r="M6" s="403"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="20"/>
@@ -8429,10 +8429,10 @@
       <c r="I7" s="24"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
-      <c r="L7" s="400" t="s">
+      <c r="L7" s="394" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="401"/>
+      <c r="M7" s="395"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="218"/>
@@ -8445,10 +8445,10 @@
       <c r="I8" s="26"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
-      <c r="L8" s="394" t="s">
+      <c r="L8" s="404" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="395"/>
+      <c r="M8" s="405"/>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="218"/>
@@ -8461,10 +8461,10 @@
       <c r="I9" s="26"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="396" t="s">
+      <c r="L9" s="406" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="397"/>
+      <c r="M9" s="407"/>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="218"/>
@@ -8477,10 +8477,10 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="398" t="s">
+      <c r="L10" s="408" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="399"/>
+      <c r="M10" s="409"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="220"/>
@@ -9018,35 +9018,42 @@
       <c r="A60" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="339" t="e" cm="1" vm="1">
+      <c r="B60" s="276" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="B60" ca="1">'Fr-01'!C45:E45</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C60" s="340"/>
-      <c r="D60" s="340"/>
-      <c r="E60" s="342" t="s">
+      <c r="C60" s="277"/>
+      <c r="D60" s="277"/>
+      <c r="E60" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="342"/>
-      <c r="G60" s="358" t="str">
+      <c r="F60" s="279"/>
+      <c r="G60" s="374" t="str">
         <f>'Fr-01'!I45</f>
         <v>วันที่ผู้ทวนสอบตรวจเสร็จ</v>
       </c>
-      <c r="H60" s="340"/>
-      <c r="I60" s="359"/>
+      <c r="H60" s="277"/>
+      <c r="I60" s="375"/>
       <c r="J60" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K60" s="354" t="str">
+      <c r="K60" s="370" t="str">
         <f>'Fr-01'!L45</f>
         <v>กรณีที่ อบก. ให้แก้ไขเพิ่มเติม</v>
       </c>
-      <c r="L60" s="355"/>
-      <c r="M60" s="356"/>
+      <c r="L60" s="371"/>
+      <c r="M60" s="372"/>
     </row>
     <row r="62" spans="1:13" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:G1"/>
@@ -9063,13 +9070,6 @@
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="A6:M6"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="1.4960629921259843" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9109,20 +9109,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="410">
+      <c r="A1" s="475">
         <v>4.0999999999999996</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="412" t="s">
+      <c r="C1" s="477" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="412"/>
-      <c r="E1" s="412"/>
-      <c r="F1" s="412"/>
-      <c r="G1" s="412"/>
-      <c r="H1" s="412"/>
+      <c r="D1" s="477"/>
+      <c r="E1" s="477"/>
+      <c r="F1" s="477"/>
+      <c r="G1" s="477"/>
+      <c r="H1" s="477"/>
       <c r="I1" s="125" t="s">
         <v>3</v>
       </c>
@@ -9131,27 +9131,27 @@
       <c r="L1" s="126"/>
       <c r="M1" s="125"/>
       <c r="N1" s="126"/>
-      <c r="O1" s="413"/>
-      <c r="P1" s="413"/>
-      <c r="Q1" s="413"/>
-      <c r="R1" s="413"/>
-      <c r="S1" s="413"/>
-      <c r="T1" s="414"/>
+      <c r="O1" s="478"/>
+      <c r="P1" s="478"/>
+      <c r="Q1" s="478"/>
+      <c r="R1" s="478"/>
+      <c r="S1" s="478"/>
+      <c r="T1" s="479"/>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="411"/>
+      <c r="A2" s="476"/>
       <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="415">
+      <c r="C2" s="480">
         <f>'Fr-01'!F5</f>
         <v>0</v>
       </c>
-      <c r="D2" s="415"/>
-      <c r="E2" s="416"/>
-      <c r="F2" s="416"/>
-      <c r="G2" s="416"/>
-      <c r="H2" s="416"/>
+      <c r="D2" s="480"/>
+      <c r="E2" s="481"/>
+      <c r="F2" s="481"/>
+      <c r="G2" s="481"/>
+      <c r="H2" s="481"/>
       <c r="I2" s="15" t="s">
         <v>4</v>
       </c>
@@ -9160,31 +9160,31 @@
       <c r="L2" s="124"/>
       <c r="M2" s="124"/>
       <c r="N2" s="124"/>
-      <c r="O2" s="417" t="s">
+      <c r="O2" s="482" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="417"/>
-      <c r="Q2" s="417"/>
-      <c r="R2" s="417"/>
-      <c r="S2" s="417"/>
-      <c r="T2" s="418"/>
+      <c r="P2" s="482"/>
+      <c r="Q2" s="482"/>
+      <c r="R2" s="482"/>
+      <c r="S2" s="482"/>
+      <c r="T2" s="483"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="411"/>
+      <c r="A3" s="476"/>
       <c r="B3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="415">
+      <c r="C3" s="480">
         <f>'Fr-01'!F6</f>
         <v>0</v>
       </c>
-      <c r="D3" s="415"/>
-      <c r="E3" s="416"/>
-      <c r="F3" s="416"/>
-      <c r="G3" s="416"/>
-      <c r="H3" s="416"/>
+      <c r="D3" s="480"/>
+      <c r="E3" s="481"/>
+      <c r="F3" s="481"/>
+      <c r="G3" s="481"/>
+      <c r="H3" s="481"/>
       <c r="I3" s="15" t="s">
         <v>6</v>
       </c>
@@ -9193,200 +9193,200 @@
       <c r="L3" s="124"/>
       <c r="M3" s="124"/>
       <c r="N3" s="124"/>
-      <c r="O3" s="417" t="s">
+      <c r="O3" s="482" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="417"/>
-      <c r="Q3" s="417"/>
-      <c r="R3" s="417"/>
-      <c r="S3" s="417"/>
-      <c r="T3" s="418"/>
+      <c r="P3" s="482"/>
+      <c r="Q3" s="482"/>
+      <c r="R3" s="482"/>
+      <c r="S3" s="482"/>
+      <c r="T3" s="483"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A4" s="428" t="s">
+      <c r="A4" s="444" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="405" t="s">
+      <c r="B4" s="399" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306"/>
-      <c r="H4" s="306"/>
-      <c r="I4" s="306"/>
-      <c r="J4" s="306"/>
-      <c r="K4" s="306"/>
-      <c r="L4" s="306"/>
-      <c r="M4" s="306"/>
-      <c r="N4" s="306"/>
-      <c r="O4" s="306"/>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="306"/>
-      <c r="S4" s="306"/>
-      <c r="T4" s="430"/>
+      <c r="C4" s="331"/>
+      <c r="D4" s="331"/>
+      <c r="E4" s="331"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="331"/>
+      <c r="H4" s="331"/>
+      <c r="I4" s="331"/>
+      <c r="J4" s="331"/>
+      <c r="K4" s="331"/>
+      <c r="L4" s="331"/>
+      <c r="M4" s="331"/>
+      <c r="N4" s="331"/>
+      <c r="O4" s="331"/>
+      <c r="P4" s="331"/>
+      <c r="Q4" s="331"/>
+      <c r="R4" s="331"/>
+      <c r="S4" s="331"/>
+      <c r="T4" s="446"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A5" s="429"/>
-      <c r="B5" s="431" t="s">
+      <c r="A5" s="445"/>
+      <c r="B5" s="447" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="432"/>
-      <c r="D5" s="432"/>
-      <c r="E5" s="432"/>
-      <c r="F5" s="432"/>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
-      <c r="I5" s="432"/>
-      <c r="J5" s="432"/>
-      <c r="K5" s="432"/>
-      <c r="L5" s="432"/>
-      <c r="M5" s="432"/>
-      <c r="N5" s="432"/>
-      <c r="O5" s="432"/>
-      <c r="P5" s="432"/>
-      <c r="Q5" s="432"/>
-      <c r="R5" s="432"/>
-      <c r="S5" s="432"/>
-      <c r="T5" s="433"/>
+      <c r="C5" s="448"/>
+      <c r="D5" s="448"/>
+      <c r="E5" s="448"/>
+      <c r="F5" s="448"/>
+      <c r="G5" s="448"/>
+      <c r="H5" s="448"/>
+      <c r="I5" s="448"/>
+      <c r="J5" s="448"/>
+      <c r="K5" s="448"/>
+      <c r="L5" s="448"/>
+      <c r="M5" s="448"/>
+      <c r="N5" s="448"/>
+      <c r="O5" s="448"/>
+      <c r="P5" s="448"/>
+      <c r="Q5" s="448"/>
+      <c r="R5" s="448"/>
+      <c r="S5" s="448"/>
+      <c r="T5" s="449"/>
     </row>
     <row r="6" spans="1:22" ht="12" customHeight="1">
-      <c r="A6" s="434"/>
-      <c r="B6" s="435"/>
-      <c r="C6" s="435"/>
-      <c r="D6" s="435"/>
-      <c r="E6" s="435"/>
-      <c r="F6" s="435"/>
-      <c r="G6" s="435"/>
-      <c r="H6" s="435"/>
-      <c r="I6" s="435"/>
-      <c r="J6" s="435"/>
-      <c r="K6" s="435"/>
-      <c r="L6" s="435"/>
-      <c r="M6" s="435"/>
-      <c r="N6" s="435"/>
-      <c r="O6" s="435"/>
-      <c r="P6" s="435"/>
-      <c r="Q6" s="435"/>
-      <c r="R6" s="435"/>
-      <c r="S6" s="435"/>
-      <c r="T6" s="436"/>
+      <c r="A6" s="450"/>
+      <c r="B6" s="451"/>
+      <c r="C6" s="451"/>
+      <c r="D6" s="451"/>
+      <c r="E6" s="451"/>
+      <c r="F6" s="451"/>
+      <c r="G6" s="451"/>
+      <c r="H6" s="451"/>
+      <c r="I6" s="451"/>
+      <c r="J6" s="451"/>
+      <c r="K6" s="451"/>
+      <c r="L6" s="451"/>
+      <c r="M6" s="451"/>
+      <c r="N6" s="451"/>
+      <c r="O6" s="451"/>
+      <c r="P6" s="451"/>
+      <c r="Q6" s="451"/>
+      <c r="R6" s="451"/>
+      <c r="S6" s="451"/>
+      <c r="T6" s="452"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="437" t="s">
+      <c r="A7" s="453" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="440" t="s">
+      <c r="B7" s="456" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="443" t="s">
+      <c r="C7" s="459" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="444"/>
-      <c r="E7" s="445"/>
-      <c r="F7" s="452" t="s">
+      <c r="D7" s="460"/>
+      <c r="E7" s="461"/>
+      <c r="F7" s="468" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="455" t="s">
+      <c r="G7" s="471" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="458" t="s">
+      <c r="H7" s="423" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="459"/>
-      <c r="J7" s="459"/>
-      <c r="K7" s="459"/>
-      <c r="L7" s="459"/>
-      <c r="M7" s="460"/>
-      <c r="N7" s="474" t="s">
+      <c r="I7" s="424"/>
+      <c r="J7" s="424"/>
+      <c r="K7" s="424"/>
+      <c r="L7" s="424"/>
+      <c r="M7" s="474"/>
+      <c r="N7" s="425" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="481" t="s">
+      <c r="O7" s="432" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="422" t="s">
+      <c r="P7" s="435" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" s="419" t="s">
+      <c r="Q7" s="438" t="s">
         <v>58</v>
       </c>
-      <c r="R7" s="422" t="s">
+      <c r="R7" s="435" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="425" t="s">
+      <c r="S7" s="441" t="s">
         <v>60</v>
       </c>
-      <c r="T7" s="470" t="s">
+      <c r="T7" s="419" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="438"/>
-      <c r="B8" s="441"/>
-      <c r="C8" s="446"/>
-      <c r="D8" s="447"/>
-      <c r="E8" s="448"/>
-      <c r="F8" s="453"/>
-      <c r="G8" s="456"/>
-      <c r="H8" s="473" t="s">
+      <c r="A8" s="454"/>
+      <c r="B8" s="457"/>
+      <c r="C8" s="462"/>
+      <c r="D8" s="463"/>
+      <c r="E8" s="464"/>
+      <c r="F8" s="469"/>
+      <c r="G8" s="472"/>
+      <c r="H8" s="422" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="473"/>
-      <c r="J8" s="458" t="s">
+      <c r="I8" s="422"/>
+      <c r="J8" s="423" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="459"/>
-      <c r="L8" s="459"/>
-      <c r="M8" s="474" t="s">
+      <c r="K8" s="424"/>
+      <c r="L8" s="424"/>
+      <c r="M8" s="425" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="475"/>
-      <c r="O8" s="482"/>
-      <c r="P8" s="423"/>
-      <c r="Q8" s="420"/>
-      <c r="R8" s="423"/>
-      <c r="S8" s="426"/>
-      <c r="T8" s="471"/>
+      <c r="N8" s="426"/>
+      <c r="O8" s="433"/>
+      <c r="P8" s="436"/>
+      <c r="Q8" s="439"/>
+      <c r="R8" s="436"/>
+      <c r="S8" s="442"/>
+      <c r="T8" s="420"/>
     </row>
     <row r="9" spans="1:22" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A9" s="438"/>
-      <c r="B9" s="441"/>
-      <c r="C9" s="449"/>
-      <c r="D9" s="450"/>
-      <c r="E9" s="451"/>
-      <c r="F9" s="453"/>
-      <c r="G9" s="456"/>
-      <c r="H9" s="474" t="s">
+      <c r="A9" s="454"/>
+      <c r="B9" s="457"/>
+      <c r="C9" s="465"/>
+      <c r="D9" s="466"/>
+      <c r="E9" s="467"/>
+      <c r="F9" s="469"/>
+      <c r="G9" s="472"/>
+      <c r="H9" s="425" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="477" t="s">
+      <c r="I9" s="428" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="479" t="s">
+      <c r="J9" s="430" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="474" t="s">
+      <c r="K9" s="425" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="479" t="s">
+      <c r="L9" s="430" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="475"/>
-      <c r="N9" s="475"/>
-      <c r="O9" s="482"/>
-      <c r="P9" s="423"/>
-      <c r="Q9" s="420"/>
-      <c r="R9" s="423"/>
-      <c r="S9" s="426"/>
-      <c r="T9" s="471"/>
+      <c r="M9" s="426"/>
+      <c r="N9" s="426"/>
+      <c r="O9" s="433"/>
+      <c r="P9" s="436"/>
+      <c r="Q9" s="439"/>
+      <c r="R9" s="436"/>
+      <c r="S9" s="442"/>
+      <c r="T9" s="420"/>
     </row>
     <row r="10" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A10" s="439"/>
-      <c r="B10" s="442"/>
+      <c r="A10" s="455"/>
+      <c r="B10" s="458"/>
       <c r="C10" s="79" t="s">
         <v>45</v>
       </c>
@@ -9396,21 +9396,21 @@
       <c r="E10" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="454"/>
-      <c r="G10" s="457"/>
-      <c r="H10" s="476"/>
-      <c r="I10" s="478"/>
-      <c r="J10" s="480"/>
-      <c r="K10" s="476"/>
-      <c r="L10" s="480"/>
-      <c r="M10" s="476"/>
-      <c r="N10" s="476"/>
-      <c r="O10" s="483"/>
-      <c r="P10" s="424"/>
-      <c r="Q10" s="421"/>
-      <c r="R10" s="424"/>
-      <c r="S10" s="427"/>
-      <c r="T10" s="472"/>
+      <c r="F10" s="470"/>
+      <c r="G10" s="473"/>
+      <c r="H10" s="427"/>
+      <c r="I10" s="429"/>
+      <c r="J10" s="431"/>
+      <c r="K10" s="427"/>
+      <c r="L10" s="431"/>
+      <c r="M10" s="427"/>
+      <c r="N10" s="427"/>
+      <c r="O10" s="434"/>
+      <c r="P10" s="437"/>
+      <c r="Q10" s="440"/>
+      <c r="R10" s="437"/>
+      <c r="S10" s="443"/>
+      <c r="T10" s="421"/>
     </row>
     <row r="11" spans="1:22" ht="19.5" customHeight="1">
       <c r="A11" s="229"/>
@@ -12716,38 +12716,38 @@
       <c r="A161" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B161" s="464" t="e">
+      <c r="B161" s="413" t="e">
         <f>'Fr-01'!C45:E45</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C161" s="465"/>
-      <c r="D161" s="465"/>
-      <c r="E161" s="465"/>
-      <c r="F161" s="465"/>
-      <c r="G161" s="466" t="s">
+      <c r="C161" s="414"/>
+      <c r="D161" s="414"/>
+      <c r="E161" s="414"/>
+      <c r="F161" s="414"/>
+      <c r="G161" s="415" t="s">
         <v>28</v>
       </c>
-      <c r="H161" s="466"/>
-      <c r="I161" s="466"/>
-      <c r="J161" s="467" t="str">
+      <c r="H161" s="415"/>
+      <c r="I161" s="415"/>
+      <c r="J161" s="416" t="str">
         <f>'Fr-01'!I45</f>
         <v>วันที่ผู้ทวนสอบตรวจเสร็จ</v>
       </c>
-      <c r="K161" s="468"/>
-      <c r="L161" s="468"/>
-      <c r="M161" s="468"/>
-      <c r="N161" s="468"/>
-      <c r="O161" s="469"/>
+      <c r="K161" s="417"/>
+      <c r="L161" s="417"/>
+      <c r="M161" s="417"/>
+      <c r="N161" s="417"/>
+      <c r="O161" s="418"/>
       <c r="P161" s="38"/>
       <c r="Q161" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="R161" s="461" t="str">
+      <c r="R161" s="410" t="str">
         <f>'Fr-01'!L45</f>
         <v>กรณีที่ อบก. ให้แก้ไขเพิ่มเติม</v>
       </c>
-      <c r="S161" s="462"/>
-      <c r="T161" s="463"/>
+      <c r="S161" s="411"/>
+      <c r="T161" s="412"/>
     </row>
     <row r="162" spans="1:20" s="4" customFormat="1" ht="21.75" customHeight="1">
       <c r="A162" s="1"/>
@@ -12773,6 +12773,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="S7:S10"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="B5:T5"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:E9"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:M7"/>
     <mergeCell ref="R161:T161"/>
     <mergeCell ref="B161:F161"/>
     <mergeCell ref="G161:I161"/>
@@ -12789,26 +12809,6 @@
     <mergeCell ref="N7:N10"/>
     <mergeCell ref="O7:O10"/>
     <mergeCell ref="P7:P10"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="S7:S10"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="B5:T5"/>
-    <mergeCell ref="A6:T6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:E9"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="O3:T3"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
@@ -12861,81 +12861,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="410">
+      <c r="A1" s="475">
         <v>4.2</v>
       </c>
-      <c r="B1" s="534" t="s">
+      <c r="B1" s="505" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="534"/>
-      <c r="D1" s="412" t="s">
+      <c r="C1" s="505"/>
+      <c r="D1" s="477" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="412"/>
-      <c r="F1" s="412"/>
-      <c r="G1" s="412"/>
-      <c r="H1" s="412"/>
-      <c r="I1" s="412"/>
-      <c r="J1" s="412"/>
-      <c r="K1" s="412"/>
-      <c r="L1" s="412"/>
-      <c r="M1" s="535" t="s">
+      <c r="E1" s="477"/>
+      <c r="F1" s="477"/>
+      <c r="G1" s="477"/>
+      <c r="H1" s="477"/>
+      <c r="I1" s="477"/>
+      <c r="J1" s="477"/>
+      <c r="K1" s="477"/>
+      <c r="L1" s="477"/>
+      <c r="M1" s="506" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="536"/>
-      <c r="O1" s="537"/>
-      <c r="P1" s="537"/>
-      <c r="Q1" s="537"/>
-      <c r="R1" s="537"/>
-      <c r="S1" s="537"/>
-      <c r="T1" s="537"/>
-      <c r="U1" s="537"/>
-      <c r="V1" s="537"/>
-      <c r="W1" s="537"/>
-      <c r="X1" s="537"/>
-      <c r="Y1" s="537"/>
-      <c r="Z1" s="538"/>
+      <c r="N1" s="507"/>
+      <c r="O1" s="508"/>
+      <c r="P1" s="508"/>
+      <c r="Q1" s="508"/>
+      <c r="R1" s="508"/>
+      <c r="S1" s="508"/>
+      <c r="T1" s="508"/>
+      <c r="U1" s="508"/>
+      <c r="V1" s="508"/>
+      <c r="W1" s="508"/>
+      <c r="X1" s="508"/>
+      <c r="Y1" s="508"/>
+      <c r="Z1" s="509"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:31" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="411"/>
-      <c r="B2" s="539" t="s">
+      <c r="A2" s="476"/>
+      <c r="B2" s="510" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="540"/>
-      <c r="D2" s="541">
+      <c r="C2" s="511"/>
+      <c r="D2" s="512">
         <f>'Fr-01'!F5</f>
         <v>0</v>
       </c>
-      <c r="E2" s="541"/>
-      <c r="F2" s="541"/>
-      <c r="G2" s="542"/>
-      <c r="H2" s="542"/>
-      <c r="I2" s="542"/>
-      <c r="J2" s="542"/>
-      <c r="K2" s="542"/>
-      <c r="L2" s="542"/>
+      <c r="E2" s="512"/>
+      <c r="F2" s="512"/>
+      <c r="G2" s="513"/>
+      <c r="H2" s="513"/>
+      <c r="I2" s="513"/>
+      <c r="J2" s="513"/>
+      <c r="K2" s="513"/>
+      <c r="L2" s="513"/>
       <c r="M2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="15"/>
-      <c r="O2" s="521" t="s">
+      <c r="O2" s="492" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="522"/>
-      <c r="Q2" s="522"/>
-      <c r="R2" s="522"/>
-      <c r="S2" s="522"/>
-      <c r="T2" s="522"/>
-      <c r="U2" s="522"/>
-      <c r="V2" s="522"/>
-      <c r="W2" s="522"/>
-      <c r="X2" s="522"/>
-      <c r="Y2" s="522"/>
-      <c r="Z2" s="523"/>
+      <c r="P2" s="493"/>
+      <c r="Q2" s="493"/>
+      <c r="R2" s="493"/>
+      <c r="S2" s="493"/>
+      <c r="T2" s="493"/>
+      <c r="U2" s="493"/>
+      <c r="V2" s="493"/>
+      <c r="W2" s="493"/>
+      <c r="X2" s="493"/>
+      <c r="Y2" s="493"/>
+      <c r="Z2" s="494"/>
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
@@ -12943,41 +12943,41 @@
       <c r="AE2" s="5"/>
     </row>
     <row r="3" spans="1:31" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="411"/>
-      <c r="B3" s="539" t="s">
+      <c r="A3" s="476"/>
+      <c r="B3" s="510" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="540"/>
-      <c r="D3" s="541">
+      <c r="C3" s="511"/>
+      <c r="D3" s="512">
         <f>'Fr-01'!F6</f>
         <v>0</v>
       </c>
-      <c r="E3" s="541"/>
-      <c r="F3" s="541"/>
-      <c r="G3" s="542"/>
-      <c r="H3" s="542"/>
-      <c r="I3" s="542"/>
-      <c r="J3" s="542"/>
-      <c r="K3" s="542"/>
-      <c r="L3" s="542"/>
+      <c r="E3" s="512"/>
+      <c r="F3" s="512"/>
+      <c r="G3" s="513"/>
+      <c r="H3" s="513"/>
+      <c r="I3" s="513"/>
+      <c r="J3" s="513"/>
+      <c r="K3" s="513"/>
+      <c r="L3" s="513"/>
       <c r="M3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="15"/>
-      <c r="O3" s="521" t="s">
+      <c r="O3" s="492" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="522"/>
-      <c r="Q3" s="522"/>
-      <c r="R3" s="522"/>
-      <c r="S3" s="522"/>
-      <c r="T3" s="522"/>
-      <c r="U3" s="522"/>
-      <c r="V3" s="522"/>
-      <c r="W3" s="522"/>
-      <c r="X3" s="522"/>
-      <c r="Y3" s="522"/>
-      <c r="Z3" s="523"/>
+      <c r="P3" s="493"/>
+      <c r="Q3" s="493"/>
+      <c r="R3" s="493"/>
+      <c r="S3" s="493"/>
+      <c r="T3" s="493"/>
+      <c r="U3" s="493"/>
+      <c r="V3" s="493"/>
+      <c r="W3" s="493"/>
+      <c r="X3" s="493"/>
+      <c r="Y3" s="493"/>
+      <c r="Z3" s="494"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
@@ -12985,154 +12985,154 @@
       <c r="AE3" s="5"/>
     </row>
     <row r="4" spans="1:31" ht="12.75" customHeight="1">
-      <c r="A4" s="524" t="s">
+      <c r="A4" s="495" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="304" t="s">
+      <c r="B4" s="329" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="526"/>
-      <c r="D4" s="526"/>
-      <c r="E4" s="526"/>
-      <c r="F4" s="526"/>
-      <c r="G4" s="526"/>
-      <c r="H4" s="526"/>
-      <c r="I4" s="526"/>
-      <c r="J4" s="526"/>
-      <c r="K4" s="526"/>
-      <c r="L4" s="526"/>
-      <c r="M4" s="526"/>
-      <c r="N4" s="526"/>
-      <c r="O4" s="526"/>
-      <c r="P4" s="526"/>
-      <c r="Q4" s="526"/>
-      <c r="R4" s="526"/>
-      <c r="S4" s="526"/>
-      <c r="T4" s="526"/>
-      <c r="U4" s="526"/>
-      <c r="V4" s="526"/>
-      <c r="W4" s="526"/>
-      <c r="X4" s="526"/>
-      <c r="Y4" s="526"/>
-      <c r="Z4" s="527"/>
+      <c r="C4" s="497"/>
+      <c r="D4" s="497"/>
+      <c r="E4" s="497"/>
+      <c r="F4" s="497"/>
+      <c r="G4" s="497"/>
+      <c r="H4" s="497"/>
+      <c r="I4" s="497"/>
+      <c r="J4" s="497"/>
+      <c r="K4" s="497"/>
+      <c r="L4" s="497"/>
+      <c r="M4" s="497"/>
+      <c r="N4" s="497"/>
+      <c r="O4" s="497"/>
+      <c r="P4" s="497"/>
+      <c r="Q4" s="497"/>
+      <c r="R4" s="497"/>
+      <c r="S4" s="497"/>
+      <c r="T4" s="497"/>
+      <c r="U4" s="497"/>
+      <c r="V4" s="497"/>
+      <c r="W4" s="497"/>
+      <c r="X4" s="497"/>
+      <c r="Y4" s="497"/>
+      <c r="Z4" s="498"/>
     </row>
     <row r="5" spans="1:31" ht="12.75" customHeight="1">
-      <c r="A5" s="525"/>
-      <c r="B5" s="528" t="s">
+      <c r="A5" s="496"/>
+      <c r="B5" s="499" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="529"/>
-      <c r="D5" s="529"/>
-      <c r="E5" s="529"/>
-      <c r="F5" s="529"/>
-      <c r="G5" s="529"/>
-      <c r="H5" s="529"/>
-      <c r="I5" s="529"/>
-      <c r="J5" s="529"/>
-      <c r="K5" s="529"/>
-      <c r="L5" s="529"/>
-      <c r="M5" s="529"/>
-      <c r="N5" s="529"/>
-      <c r="O5" s="529"/>
-      <c r="P5" s="529"/>
-      <c r="Q5" s="529"/>
-      <c r="R5" s="529"/>
-      <c r="S5" s="529"/>
-      <c r="T5" s="529"/>
-      <c r="U5" s="529"/>
-      <c r="V5" s="529"/>
-      <c r="W5" s="529"/>
-      <c r="X5" s="529"/>
-      <c r="Y5" s="529"/>
-      <c r="Z5" s="530"/>
+      <c r="C5" s="500"/>
+      <c r="D5" s="500"/>
+      <c r="E5" s="500"/>
+      <c r="F5" s="500"/>
+      <c r="G5" s="500"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="500"/>
+      <c r="J5" s="500"/>
+      <c r="K5" s="500"/>
+      <c r="L5" s="500"/>
+      <c r="M5" s="500"/>
+      <c r="N5" s="500"/>
+      <c r="O5" s="500"/>
+      <c r="P5" s="500"/>
+      <c r="Q5" s="500"/>
+      <c r="R5" s="500"/>
+      <c r="S5" s="500"/>
+      <c r="T5" s="500"/>
+      <c r="U5" s="500"/>
+      <c r="V5" s="500"/>
+      <c r="W5" s="500"/>
+      <c r="X5" s="500"/>
+      <c r="Y5" s="500"/>
+      <c r="Z5" s="501"/>
     </row>
     <row r="6" spans="1:31" ht="12" customHeight="1">
-      <c r="A6" s="531"/>
-      <c r="B6" s="532"/>
-      <c r="C6" s="532"/>
-      <c r="D6" s="532"/>
-      <c r="E6" s="532"/>
-      <c r="F6" s="532"/>
-      <c r="G6" s="532"/>
-      <c r="H6" s="532"/>
-      <c r="I6" s="532"/>
-      <c r="J6" s="532"/>
-      <c r="K6" s="532"/>
-      <c r="L6" s="532"/>
-      <c r="M6" s="532"/>
-      <c r="N6" s="532"/>
-      <c r="O6" s="532"/>
-      <c r="P6" s="532"/>
-      <c r="Q6" s="532"/>
-      <c r="R6" s="532"/>
-      <c r="S6" s="532"/>
-      <c r="T6" s="532"/>
-      <c r="U6" s="532"/>
-      <c r="V6" s="532"/>
-      <c r="W6" s="532"/>
-      <c r="X6" s="532"/>
-      <c r="Y6" s="532"/>
-      <c r="Z6" s="533"/>
+      <c r="A6" s="502"/>
+      <c r="B6" s="503"/>
+      <c r="C6" s="503"/>
+      <c r="D6" s="503"/>
+      <c r="E6" s="503"/>
+      <c r="F6" s="503"/>
+      <c r="G6" s="503"/>
+      <c r="H6" s="503"/>
+      <c r="I6" s="503"/>
+      <c r="J6" s="503"/>
+      <c r="K6" s="503"/>
+      <c r="L6" s="503"/>
+      <c r="M6" s="503"/>
+      <c r="N6" s="503"/>
+      <c r="O6" s="503"/>
+      <c r="P6" s="503"/>
+      <c r="Q6" s="503"/>
+      <c r="R6" s="503"/>
+      <c r="S6" s="503"/>
+      <c r="T6" s="503"/>
+      <c r="U6" s="503"/>
+      <c r="V6" s="503"/>
+      <c r="W6" s="503"/>
+      <c r="X6" s="503"/>
+      <c r="Y6" s="503"/>
+      <c r="Z6" s="504"/>
     </row>
     <row r="7" spans="1:31" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="437" t="s">
+      <c r="A7" s="453" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="440" t="s">
+      <c r="B7" s="456" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="440" t="s">
+      <c r="C7" s="456" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="545" t="s">
+      <c r="D7" s="486" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="548" t="s">
+      <c r="E7" s="489" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="440" t="s">
+      <c r="F7" s="456" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="507" t="s">
+      <c r="G7" s="519" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="507"/>
-      <c r="I7" s="507"/>
-      <c r="J7" s="508" t="s">
+      <c r="H7" s="519"/>
+      <c r="I7" s="519"/>
+      <c r="J7" s="520" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="507" t="s">
+      <c r="K7" s="519" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="507"/>
-      <c r="M7" s="501" t="s">
+      <c r="L7" s="519"/>
+      <c r="M7" s="524" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="501"/>
-      <c r="O7" s="501"/>
-      <c r="P7" s="501"/>
-      <c r="Q7" s="501"/>
-      <c r="R7" s="512" t="s">
+      <c r="N7" s="524"/>
+      <c r="O7" s="524"/>
+      <c r="P7" s="524"/>
+      <c r="Q7" s="524"/>
+      <c r="R7" s="525" t="s">
         <v>88</v>
       </c>
-      <c r="S7" s="513"/>
-      <c r="T7" s="501" t="s">
+      <c r="S7" s="526"/>
+      <c r="T7" s="524" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="501"/>
-      <c r="V7" s="512" t="s">
+      <c r="U7" s="524"/>
+      <c r="V7" s="525" t="s">
         <v>89</v>
       </c>
-      <c r="W7" s="518" t="s">
+      <c r="W7" s="533" t="s">
         <v>57</v>
       </c>
-      <c r="X7" s="481" t="s">
+      <c r="X7" s="432" t="s">
         <v>58</v>
       </c>
-      <c r="Y7" s="425" t="s">
+      <c r="Y7" s="441" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="502" t="s">
+      <c r="Z7" s="514" t="s">
         <v>61</v>
       </c>
       <c r="AA7" s="1"/>
@@ -13141,69 +13141,69 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" spans="1:31" ht="12.75" customHeight="1">
-      <c r="A8" s="438"/>
-      <c r="B8" s="543"/>
-      <c r="C8" s="543"/>
-      <c r="D8" s="546"/>
-      <c r="E8" s="549"/>
-      <c r="F8" s="453"/>
-      <c r="G8" s="507"/>
-      <c r="H8" s="507"/>
-      <c r="I8" s="507"/>
-      <c r="J8" s="509"/>
-      <c r="K8" s="511"/>
-      <c r="L8" s="511"/>
-      <c r="M8" s="501"/>
-      <c r="N8" s="501"/>
-      <c r="O8" s="501"/>
-      <c r="P8" s="501"/>
-      <c r="Q8" s="501"/>
-      <c r="R8" s="514"/>
-      <c r="S8" s="515"/>
-      <c r="T8" s="516"/>
-      <c r="U8" s="516"/>
-      <c r="V8" s="517"/>
-      <c r="W8" s="519"/>
-      <c r="X8" s="493"/>
-      <c r="Y8" s="426"/>
-      <c r="Z8" s="503"/>
+      <c r="A8" s="454"/>
+      <c r="B8" s="484"/>
+      <c r="C8" s="484"/>
+      <c r="D8" s="487"/>
+      <c r="E8" s="490"/>
+      <c r="F8" s="469"/>
+      <c r="G8" s="519"/>
+      <c r="H8" s="519"/>
+      <c r="I8" s="519"/>
+      <c r="J8" s="521"/>
+      <c r="K8" s="523"/>
+      <c r="L8" s="523"/>
+      <c r="M8" s="524"/>
+      <c r="N8" s="524"/>
+      <c r="O8" s="524"/>
+      <c r="P8" s="524"/>
+      <c r="Q8" s="524"/>
+      <c r="R8" s="527"/>
+      <c r="S8" s="528"/>
+      <c r="T8" s="531"/>
+      <c r="U8" s="531"/>
+      <c r="V8" s="532"/>
+      <c r="W8" s="534"/>
+      <c r="X8" s="536"/>
+      <c r="Y8" s="442"/>
+      <c r="Z8" s="515"/>
     </row>
     <row r="9" spans="1:31" ht="12.75" customHeight="1">
-      <c r="A9" s="438"/>
-      <c r="B9" s="543"/>
-      <c r="C9" s="543"/>
-      <c r="D9" s="546"/>
-      <c r="E9" s="549"/>
-      <c r="F9" s="453"/>
-      <c r="G9" s="507" t="s">
+      <c r="A9" s="454"/>
+      <c r="B9" s="484"/>
+      <c r="C9" s="484"/>
+      <c r="D9" s="487"/>
+      <c r="E9" s="490"/>
+      <c r="F9" s="469"/>
+      <c r="G9" s="519" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="507" t="s">
+      <c r="H9" s="519" t="s">
         <v>45</v>
       </c>
-      <c r="I9" s="507" t="s">
+      <c r="I9" s="519" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="509"/>
-      <c r="K9" s="497" t="s">
+      <c r="J9" s="521"/>
+      <c r="K9" s="529" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="497" t="s">
+      <c r="L9" s="529" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="499" t="s">
+      <c r="M9" s="540" t="s">
         <v>91</v>
       </c>
-      <c r="N9" s="495" t="s">
+      <c r="N9" s="538" t="s">
         <v>92</v>
       </c>
-      <c r="O9" s="501" t="s">
+      <c r="O9" s="524" t="s">
         <v>93</v>
       </c>
-      <c r="P9" s="495" t="s">
+      <c r="P9" s="538" t="s">
         <v>94</v>
       </c>
-      <c r="Q9" s="499" t="s">
+      <c r="Q9" s="540" t="s">
         <v>95</v>
       </c>
       <c r="R9" s="78" t="s">
@@ -13212,77 +13212,77 @@
       <c r="S9" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="T9" s="505" t="s">
+      <c r="T9" s="517" t="s">
         <v>68</v>
       </c>
-      <c r="U9" s="505" t="s">
+      <c r="U9" s="517" t="s">
         <v>69</v>
       </c>
-      <c r="V9" s="517"/>
-      <c r="W9" s="519"/>
-      <c r="X9" s="493"/>
-      <c r="Y9" s="426"/>
-      <c r="Z9" s="503"/>
+      <c r="V9" s="532"/>
+      <c r="W9" s="534"/>
+      <c r="X9" s="536"/>
+      <c r="Y9" s="442"/>
+      <c r="Z9" s="515"/>
     </row>
     <row r="10" spans="1:31" ht="12.75" customHeight="1">
-      <c r="A10" s="438"/>
-      <c r="B10" s="543"/>
-      <c r="C10" s="543"/>
-      <c r="D10" s="546"/>
-      <c r="E10" s="549"/>
-      <c r="F10" s="453"/>
-      <c r="G10" s="507"/>
-      <c r="H10" s="507"/>
-      <c r="I10" s="507"/>
-      <c r="J10" s="509"/>
-      <c r="K10" s="498"/>
-      <c r="L10" s="498"/>
-      <c r="M10" s="499"/>
-      <c r="N10" s="500"/>
-      <c r="O10" s="501"/>
-      <c r="P10" s="500"/>
-      <c r="Q10" s="499"/>
-      <c r="R10" s="495" t="s">
+      <c r="A10" s="454"/>
+      <c r="B10" s="484"/>
+      <c r="C10" s="484"/>
+      <c r="D10" s="487"/>
+      <c r="E10" s="490"/>
+      <c r="F10" s="469"/>
+      <c r="G10" s="519"/>
+      <c r="H10" s="519"/>
+      <c r="I10" s="519"/>
+      <c r="J10" s="521"/>
+      <c r="K10" s="530"/>
+      <c r="L10" s="530"/>
+      <c r="M10" s="540"/>
+      <c r="N10" s="541"/>
+      <c r="O10" s="524"/>
+      <c r="P10" s="541"/>
+      <c r="Q10" s="540"/>
+      <c r="R10" s="538" t="s">
         <v>98</v>
       </c>
-      <c r="S10" s="495" t="s">
+      <c r="S10" s="538" t="s">
         <v>99</v>
       </c>
-      <c r="T10" s="506"/>
-      <c r="U10" s="506"/>
-      <c r="V10" s="517"/>
-      <c r="W10" s="519"/>
-      <c r="X10" s="493"/>
-      <c r="Y10" s="426"/>
-      <c r="Z10" s="503"/>
+      <c r="T10" s="518"/>
+      <c r="U10" s="518"/>
+      <c r="V10" s="532"/>
+      <c r="W10" s="534"/>
+      <c r="X10" s="536"/>
+      <c r="Y10" s="442"/>
+      <c r="Z10" s="515"/>
     </row>
     <row r="11" spans="1:31" ht="27.75" customHeight="1">
-      <c r="A11" s="439"/>
-      <c r="B11" s="544"/>
-      <c r="C11" s="544"/>
-      <c r="D11" s="547"/>
-      <c r="E11" s="550"/>
-      <c r="F11" s="454"/>
-      <c r="G11" s="507"/>
-      <c r="H11" s="507"/>
-      <c r="I11" s="507"/>
-      <c r="J11" s="510"/>
-      <c r="K11" s="498"/>
-      <c r="L11" s="498"/>
-      <c r="M11" s="499"/>
-      <c r="N11" s="496"/>
-      <c r="O11" s="501"/>
-      <c r="P11" s="496"/>
-      <c r="Q11" s="499"/>
-      <c r="R11" s="496"/>
-      <c r="S11" s="496"/>
-      <c r="T11" s="506"/>
-      <c r="U11" s="506"/>
-      <c r="V11" s="517"/>
-      <c r="W11" s="520"/>
-      <c r="X11" s="494"/>
-      <c r="Y11" s="427"/>
-      <c r="Z11" s="504"/>
+      <c r="A11" s="455"/>
+      <c r="B11" s="485"/>
+      <c r="C11" s="485"/>
+      <c r="D11" s="488"/>
+      <c r="E11" s="491"/>
+      <c r="F11" s="470"/>
+      <c r="G11" s="519"/>
+      <c r="H11" s="519"/>
+      <c r="I11" s="519"/>
+      <c r="J11" s="522"/>
+      <c r="K11" s="530"/>
+      <c r="L11" s="530"/>
+      <c r="M11" s="540"/>
+      <c r="N11" s="539"/>
+      <c r="O11" s="524"/>
+      <c r="P11" s="539"/>
+      <c r="Q11" s="540"/>
+      <c r="R11" s="539"/>
+      <c r="S11" s="539"/>
+      <c r="T11" s="518"/>
+      <c r="U11" s="518"/>
+      <c r="V11" s="532"/>
+      <c r="W11" s="535"/>
+      <c r="X11" s="537"/>
+      <c r="Y11" s="443"/>
+      <c r="Z11" s="516"/>
     </row>
     <row r="12" spans="1:31" ht="13.2" customHeight="1">
       <c r="A12" s="34"/>
@@ -21380,44 +21380,44 @@
       <c r="A301" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B301" s="484" t="e">
+      <c r="B301" s="542" t="e">
         <f>'Fr-01'!C45:E45</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C301" s="485"/>
-      <c r="D301" s="485"/>
-      <c r="E301" s="485"/>
-      <c r="F301" s="485"/>
-      <c r="G301" s="485"/>
-      <c r="H301" s="486"/>
-      <c r="I301" s="487" t="s">
+      <c r="C301" s="543"/>
+      <c r="D301" s="543"/>
+      <c r="E301" s="543"/>
+      <c r="F301" s="543"/>
+      <c r="G301" s="543"/>
+      <c r="H301" s="544"/>
+      <c r="I301" s="545" t="s">
         <v>28</v>
       </c>
-      <c r="J301" s="488"/>
-      <c r="K301" s="467" t="str">
+      <c r="J301" s="546"/>
+      <c r="K301" s="416" t="str">
         <f>'Fr-01'!I45</f>
         <v>วันที่ผู้ทวนสอบตรวจเสร็จ</v>
       </c>
-      <c r="L301" s="467"/>
-      <c r="M301" s="467"/>
-      <c r="N301" s="467"/>
-      <c r="O301" s="467"/>
-      <c r="P301" s="467"/>
-      <c r="Q301" s="467"/>
+      <c r="L301" s="416"/>
+      <c r="M301" s="416"/>
+      <c r="N301" s="416"/>
+      <c r="O301" s="416"/>
+      <c r="P301" s="416"/>
+      <c r="Q301" s="416"/>
       <c r="R301" s="116"/>
-      <c r="S301" s="489" t="s">
+      <c r="S301" s="547" t="s">
         <v>30</v>
       </c>
-      <c r="T301" s="468"/>
-      <c r="U301" s="490" t="str">
+      <c r="T301" s="417"/>
+      <c r="U301" s="548" t="str">
         <f>'Fr-01'!L45</f>
         <v>กรณีที่ อบก. ให้แก้ไขเพิ่มเติม</v>
       </c>
-      <c r="V301" s="491"/>
-      <c r="W301" s="491"/>
-      <c r="X301" s="491"/>
-      <c r="Y301" s="491"/>
-      <c r="Z301" s="492"/>
+      <c r="V301" s="549"/>
+      <c r="W301" s="549"/>
+      <c r="X301" s="549"/>
+      <c r="Y301" s="549"/>
+      <c r="Z301" s="550"/>
       <c r="AA301" s="1"/>
       <c r="AB301" s="1"/>
       <c r="AC301" s="1"/>
@@ -21425,26 +21425,21 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="O3:Z3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:Z4"/>
-    <mergeCell ref="B5:Z5"/>
-    <mergeCell ref="A6:Z6"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:Z1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="B301:H301"/>
+    <mergeCell ref="I301:J301"/>
+    <mergeCell ref="K301:Q301"/>
+    <mergeCell ref="S301:T301"/>
+    <mergeCell ref="U301:Z301"/>
+    <mergeCell ref="X7:X11"/>
+    <mergeCell ref="Y7:Y11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
     <mergeCell ref="Z7:Z11"/>
     <mergeCell ref="T9:T11"/>
     <mergeCell ref="U9:U11"/>
@@ -21461,21 +21456,26 @@
     <mergeCell ref="T7:U8"/>
     <mergeCell ref="V7:V11"/>
     <mergeCell ref="W7:W11"/>
-    <mergeCell ref="X7:X11"/>
-    <mergeCell ref="Y7:Y11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="B301:H301"/>
-    <mergeCell ref="I301:J301"/>
-    <mergeCell ref="K301:Q301"/>
-    <mergeCell ref="S301:T301"/>
-    <mergeCell ref="U301:Z301"/>
+    <mergeCell ref="O3:Z3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:Z4"/>
+    <mergeCell ref="B5:Z5"/>
+    <mergeCell ref="A6:Z6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:Z1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.43307086614173229" top="0.43307086614173229" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -21518,36 +21518,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="565">
+      <c r="A1" s="574">
         <v>4.3</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="561" t="s">
+      <c r="C1" s="587" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="562"/>
-      <c r="E1" s="562"/>
-      <c r="F1" s="562"/>
-      <c r="G1" s="562"/>
-      <c r="H1" s="563"/>
-      <c r="I1" s="535" t="s">
+      <c r="D1" s="588"/>
+      <c r="E1" s="588"/>
+      <c r="F1" s="588"/>
+      <c r="G1" s="588"/>
+      <c r="H1" s="589"/>
+      <c r="I1" s="506" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="536"/>
-      <c r="K1" s="536"/>
-      <c r="L1" s="536"/>
-      <c r="M1" s="536"/>
-      <c r="N1" s="564"/>
-      <c r="O1" s="557"/>
-      <c r="P1" s="557"/>
-      <c r="Q1" s="557"/>
-      <c r="R1" s="557"/>
-      <c r="S1" s="557"/>
-      <c r="T1" s="557"/>
-      <c r="U1" s="557"/>
-      <c r="V1" s="558"/>
+      <c r="J1" s="507"/>
+      <c r="K1" s="507"/>
+      <c r="L1" s="507"/>
+      <c r="M1" s="507"/>
+      <c r="N1" s="590"/>
+      <c r="O1" s="583"/>
+      <c r="P1" s="583"/>
+      <c r="Q1" s="583"/>
+      <c r="R1" s="583"/>
+      <c r="S1" s="583"/>
+      <c r="T1" s="583"/>
+      <c r="U1" s="583"/>
+      <c r="V1" s="584"/>
       <c r="W1" s="122"/>
       <c r="X1" s="84"/>
       <c r="Y1" s="84"/>
@@ -21567,19 +21567,19 @@
       <c r="AM1" s="85"/>
     </row>
     <row r="2" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="566"/>
+      <c r="A2" s="575"/>
       <c r="B2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="403">
+      <c r="C2" s="397">
         <f>'Fr-01'!F5</f>
         <v>0</v>
       </c>
-      <c r="D2" s="568"/>
-      <c r="E2" s="404"/>
-      <c r="F2" s="404"/>
-      <c r="G2" s="404"/>
-      <c r="H2" s="279"/>
+      <c r="D2" s="577"/>
+      <c r="E2" s="398"/>
+      <c r="F2" s="398"/>
+      <c r="G2" s="398"/>
+      <c r="H2" s="347"/>
       <c r="I2" s="76" t="s">
         <v>4</v>
       </c>
@@ -21588,33 +21588,33 @@
       <c r="L2" s="113"/>
       <c r="M2" s="113"/>
       <c r="N2" s="113"/>
-      <c r="O2" s="559" t="s">
+      <c r="O2" s="585" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="559"/>
-      <c r="Q2" s="559"/>
-      <c r="R2" s="559"/>
-      <c r="S2" s="559"/>
-      <c r="T2" s="559"/>
-      <c r="U2" s="559"/>
-      <c r="V2" s="560"/>
+      <c r="P2" s="585"/>
+      <c r="Q2" s="585"/>
+      <c r="R2" s="585"/>
+      <c r="S2" s="585"/>
+      <c r="T2" s="585"/>
+      <c r="U2" s="585"/>
+      <c r="V2" s="586"/>
       <c r="W2" s="57"/>
       <c r="AM2" s="86"/>
     </row>
     <row r="3" spans="1:39" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="567"/>
+      <c r="A3" s="576"/>
       <c r="B3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="403">
+      <c r="C3" s="397">
         <f>'Fr-01'!F6</f>
         <v>0</v>
       </c>
-      <c r="D3" s="568"/>
-      <c r="E3" s="404"/>
-      <c r="F3" s="404"/>
-      <c r="G3" s="404"/>
-      <c r="H3" s="279"/>
+      <c r="D3" s="577"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
+      <c r="G3" s="398"/>
+      <c r="H3" s="347"/>
       <c r="I3" s="76" t="s">
         <v>6</v>
       </c>
@@ -21623,290 +21623,290 @@
       <c r="L3" s="113"/>
       <c r="M3" s="113"/>
       <c r="N3" s="113"/>
-      <c r="O3" s="559" t="s">
+      <c r="O3" s="585" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="559"/>
-      <c r="Q3" s="559"/>
-      <c r="R3" s="559"/>
-      <c r="S3" s="559"/>
-      <c r="T3" s="559"/>
-      <c r="U3" s="559"/>
-      <c r="V3" s="560"/>
+      <c r="P3" s="585"/>
+      <c r="Q3" s="585"/>
+      <c r="R3" s="585"/>
+      <c r="S3" s="585"/>
+      <c r="T3" s="585"/>
+      <c r="U3" s="585"/>
+      <c r="V3" s="586"/>
       <c r="W3" s="57"/>
       <c r="AM3" s="86"/>
     </row>
     <row r="4" spans="1:39" ht="13.5" customHeight="1">
-      <c r="A4" s="428" t="s">
+      <c r="A4" s="444" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="405" t="s">
+      <c r="B4" s="399" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306"/>
-      <c r="H4" s="306"/>
-      <c r="I4" s="306"/>
-      <c r="J4" s="306"/>
-      <c r="K4" s="306"/>
-      <c r="L4" s="306"/>
-      <c r="M4" s="306"/>
-      <c r="N4" s="306"/>
-      <c r="O4" s="306"/>
-      <c r="P4" s="306"/>
-      <c r="Q4" s="306"/>
-      <c r="R4" s="306"/>
-      <c r="S4" s="306"/>
-      <c r="T4" s="306"/>
-      <c r="U4" s="306"/>
-      <c r="V4" s="430"/>
+      <c r="C4" s="331"/>
+      <c r="D4" s="331"/>
+      <c r="E4" s="331"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="331"/>
+      <c r="H4" s="331"/>
+      <c r="I4" s="331"/>
+      <c r="J4" s="331"/>
+      <c r="K4" s="331"/>
+      <c r="L4" s="331"/>
+      <c r="M4" s="331"/>
+      <c r="N4" s="331"/>
+      <c r="O4" s="331"/>
+      <c r="P4" s="331"/>
+      <c r="Q4" s="331"/>
+      <c r="R4" s="331"/>
+      <c r="S4" s="331"/>
+      <c r="T4" s="331"/>
+      <c r="U4" s="331"/>
+      <c r="V4" s="446"/>
       <c r="W4" s="57"/>
       <c r="AM4" s="36"/>
     </row>
     <row r="5" spans="1:39" ht="13.5" customHeight="1">
-      <c r="A5" s="429"/>
-      <c r="B5" s="431" t="s">
+      <c r="A5" s="445"/>
+      <c r="B5" s="447" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="432"/>
-      <c r="D5" s="432"/>
-      <c r="E5" s="432"/>
-      <c r="F5" s="432"/>
-      <c r="G5" s="432"/>
-      <c r="H5" s="432"/>
-      <c r="I5" s="432"/>
-      <c r="J5" s="432"/>
-      <c r="K5" s="432"/>
-      <c r="L5" s="432"/>
-      <c r="M5" s="432"/>
-      <c r="N5" s="432"/>
-      <c r="O5" s="432"/>
-      <c r="P5" s="432"/>
-      <c r="Q5" s="432"/>
-      <c r="R5" s="432"/>
-      <c r="S5" s="432"/>
-      <c r="T5" s="432"/>
-      <c r="U5" s="432"/>
-      <c r="V5" s="433"/>
+      <c r="C5" s="448"/>
+      <c r="D5" s="448"/>
+      <c r="E5" s="448"/>
+      <c r="F5" s="448"/>
+      <c r="G5" s="448"/>
+      <c r="H5" s="448"/>
+      <c r="I5" s="448"/>
+      <c r="J5" s="448"/>
+      <c r="K5" s="448"/>
+      <c r="L5" s="448"/>
+      <c r="M5" s="448"/>
+      <c r="N5" s="448"/>
+      <c r="O5" s="448"/>
+      <c r="P5" s="448"/>
+      <c r="Q5" s="448"/>
+      <c r="R5" s="448"/>
+      <c r="S5" s="448"/>
+      <c r="T5" s="448"/>
+      <c r="U5" s="448"/>
+      <c r="V5" s="449"/>
       <c r="W5" s="57"/>
       <c r="AM5" s="36"/>
     </row>
     <row r="6" spans="1:39" ht="12" customHeight="1">
-      <c r="A6" s="434"/>
-      <c r="B6" s="435"/>
-      <c r="C6" s="435"/>
-      <c r="D6" s="435"/>
-      <c r="E6" s="435"/>
-      <c r="F6" s="435"/>
-      <c r="G6" s="435"/>
-      <c r="H6" s="435"/>
-      <c r="I6" s="435"/>
-      <c r="J6" s="435"/>
-      <c r="K6" s="435"/>
-      <c r="L6" s="435"/>
-      <c r="M6" s="435"/>
-      <c r="N6" s="435"/>
-      <c r="O6" s="435"/>
-      <c r="P6" s="435"/>
-      <c r="Q6" s="435"/>
-      <c r="R6" s="435"/>
-      <c r="S6" s="435"/>
-      <c r="T6" s="435"/>
-      <c r="U6" s="435"/>
-      <c r="V6" s="436"/>
+      <c r="A6" s="450"/>
+      <c r="B6" s="451"/>
+      <c r="C6" s="451"/>
+      <c r="D6" s="451"/>
+      <c r="E6" s="451"/>
+      <c r="F6" s="451"/>
+      <c r="G6" s="451"/>
+      <c r="H6" s="451"/>
+      <c r="I6" s="451"/>
+      <c r="J6" s="451"/>
+      <c r="K6" s="451"/>
+      <c r="L6" s="451"/>
+      <c r="M6" s="451"/>
+      <c r="N6" s="451"/>
+      <c r="O6" s="451"/>
+      <c r="P6" s="451"/>
+      <c r="Q6" s="451"/>
+      <c r="R6" s="451"/>
+      <c r="S6" s="451"/>
+      <c r="T6" s="451"/>
+      <c r="U6" s="451"/>
+      <c r="V6" s="452"/>
       <c r="W6" s="57"/>
       <c r="AM6" s="36"/>
     </row>
     <row r="7" spans="1:39" ht="13.2" customHeight="1">
-      <c r="A7" s="569" t="s">
+      <c r="A7" s="578" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="440" t="s">
+      <c r="B7" s="456" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="443" t="s">
+      <c r="C7" s="459" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="444"/>
-      <c r="E7" s="445"/>
-      <c r="F7" s="452" t="s">
+      <c r="D7" s="460"/>
+      <c r="E7" s="461"/>
+      <c r="F7" s="468" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="455" t="s">
+      <c r="G7" s="471" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="458" t="s">
+      <c r="H7" s="423" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="459"/>
-      <c r="J7" s="459"/>
-      <c r="K7" s="459"/>
-      <c r="L7" s="459"/>
-      <c r="M7" s="460"/>
-      <c r="N7" s="474" t="s">
+      <c r="I7" s="424"/>
+      <c r="J7" s="424"/>
+      <c r="K7" s="424"/>
+      <c r="L7" s="424"/>
+      <c r="M7" s="474"/>
+      <c r="N7" s="425" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="481" t="s">
+      <c r="O7" s="432" t="s">
         <v>56</v>
       </c>
-      <c r="P7" s="554" t="s">
+      <c r="P7" s="551" t="s">
         <v>103</v>
       </c>
-      <c r="Q7" s="580" t="s">
+      <c r="Q7" s="563" t="s">
         <v>85</v>
       </c>
-      <c r="R7" s="589"/>
-      <c r="S7" s="589"/>
-      <c r="T7" s="589"/>
-      <c r="U7" s="589"/>
-      <c r="V7" s="590"/>
-      <c r="W7" s="574" t="s">
+      <c r="R7" s="564"/>
+      <c r="S7" s="564"/>
+      <c r="T7" s="564"/>
+      <c r="U7" s="564"/>
+      <c r="V7" s="565"/>
+      <c r="W7" s="555" t="s">
         <v>87</v>
       </c>
-      <c r="X7" s="585"/>
-      <c r="Y7" s="585"/>
-      <c r="Z7" s="585"/>
-      <c r="AA7" s="585"/>
-      <c r="AB7" s="575"/>
-      <c r="AC7" s="512" t="s">
+      <c r="X7" s="556"/>
+      <c r="Y7" s="556"/>
+      <c r="Z7" s="556"/>
+      <c r="AA7" s="556"/>
+      <c r="AB7" s="557"/>
+      <c r="AC7" s="525" t="s">
         <v>88</v>
       </c>
-      <c r="AD7" s="513"/>
-      <c r="AE7" s="574" t="s">
+      <c r="AD7" s="526"/>
+      <c r="AE7" s="555" t="s">
         <v>54</v>
       </c>
-      <c r="AF7" s="575"/>
-      <c r="AG7" s="512" t="s">
+      <c r="AF7" s="557"/>
+      <c r="AG7" s="525" t="s">
         <v>89</v>
       </c>
-      <c r="AH7" s="554" t="s">
+      <c r="AH7" s="551" t="s">
         <v>104</v>
       </c>
-      <c r="AI7" s="554" t="s">
+      <c r="AI7" s="551" t="s">
         <v>105</v>
       </c>
-      <c r="AJ7" s="422" t="s">
+      <c r="AJ7" s="435" t="s">
         <v>59</v>
       </c>
-      <c r="AK7" s="425" t="s">
+      <c r="AK7" s="441" t="s">
         <v>57</v>
       </c>
-      <c r="AL7" s="425" t="s">
+      <c r="AL7" s="441" t="s">
         <v>60</v>
       </c>
-      <c r="AM7" s="470" t="s">
+      <c r="AM7" s="419" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:39" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="570"/>
-      <c r="B8" s="441"/>
-      <c r="C8" s="446"/>
-      <c r="D8" s="447"/>
-      <c r="E8" s="448"/>
-      <c r="F8" s="453"/>
-      <c r="G8" s="456"/>
-      <c r="H8" s="473" t="s">
+      <c r="A8" s="579"/>
+      <c r="B8" s="457"/>
+      <c r="C8" s="462"/>
+      <c r="D8" s="463"/>
+      <c r="E8" s="464"/>
+      <c r="F8" s="469"/>
+      <c r="G8" s="472"/>
+      <c r="H8" s="422" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="473"/>
-      <c r="J8" s="458" t="s">
+      <c r="I8" s="422"/>
+      <c r="J8" s="423" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="459"/>
-      <c r="L8" s="459"/>
-      <c r="M8" s="474" t="s">
+      <c r="K8" s="424"/>
+      <c r="L8" s="424"/>
+      <c r="M8" s="425" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="475"/>
-      <c r="O8" s="482"/>
-      <c r="P8" s="555"/>
-      <c r="Q8" s="591"/>
-      <c r="R8" s="592"/>
-      <c r="S8" s="592"/>
-      <c r="T8" s="592"/>
-      <c r="U8" s="592"/>
-      <c r="V8" s="593"/>
-      <c r="W8" s="576"/>
-      <c r="X8" s="586"/>
-      <c r="Y8" s="586"/>
-      <c r="Z8" s="586"/>
-      <c r="AA8" s="586"/>
-      <c r="AB8" s="577"/>
-      <c r="AC8" s="514"/>
-      <c r="AD8" s="515"/>
-      <c r="AE8" s="576"/>
-      <c r="AF8" s="577"/>
-      <c r="AG8" s="517"/>
-      <c r="AH8" s="555"/>
-      <c r="AI8" s="555"/>
-      <c r="AJ8" s="423"/>
-      <c r="AK8" s="587"/>
-      <c r="AL8" s="587"/>
-      <c r="AM8" s="471"/>
+      <c r="N8" s="426"/>
+      <c r="O8" s="433"/>
+      <c r="P8" s="552"/>
+      <c r="Q8" s="566"/>
+      <c r="R8" s="567"/>
+      <c r="S8" s="567"/>
+      <c r="T8" s="567"/>
+      <c r="U8" s="567"/>
+      <c r="V8" s="568"/>
+      <c r="W8" s="558"/>
+      <c r="X8" s="559"/>
+      <c r="Y8" s="559"/>
+      <c r="Z8" s="559"/>
+      <c r="AA8" s="559"/>
+      <c r="AB8" s="560"/>
+      <c r="AC8" s="527"/>
+      <c r="AD8" s="528"/>
+      <c r="AE8" s="558"/>
+      <c r="AF8" s="560"/>
+      <c r="AG8" s="532"/>
+      <c r="AH8" s="552"/>
+      <c r="AI8" s="552"/>
+      <c r="AJ8" s="436"/>
+      <c r="AK8" s="561"/>
+      <c r="AL8" s="561"/>
+      <c r="AM8" s="420"/>
     </row>
     <row r="9" spans="1:39" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A9" s="570"/>
-      <c r="B9" s="441"/>
-      <c r="C9" s="449"/>
-      <c r="D9" s="450"/>
-      <c r="E9" s="451"/>
-      <c r="F9" s="453"/>
-      <c r="G9" s="456"/>
-      <c r="H9" s="474" t="s">
+      <c r="A9" s="579"/>
+      <c r="B9" s="457"/>
+      <c r="C9" s="465"/>
+      <c r="D9" s="466"/>
+      <c r="E9" s="467"/>
+      <c r="F9" s="469"/>
+      <c r="G9" s="472"/>
+      <c r="H9" s="425" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="477" t="s">
+      <c r="I9" s="428" t="s">
         <v>66</v>
       </c>
-      <c r="J9" s="479" t="s">
+      <c r="J9" s="430" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="474" t="s">
+      <c r="K9" s="425" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="479" t="s">
+      <c r="L9" s="430" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="475"/>
-      <c r="N9" s="475"/>
-      <c r="O9" s="482"/>
-      <c r="P9" s="555"/>
-      <c r="Q9" s="452" t="s">
+      <c r="M9" s="426"/>
+      <c r="N9" s="426"/>
+      <c r="O9" s="433"/>
+      <c r="P9" s="552"/>
+      <c r="Q9" s="468" t="s">
         <v>90</v>
       </c>
-      <c r="R9" s="580" t="s">
+      <c r="R9" s="563" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="452" t="s">
+      <c r="S9" s="468" t="s">
         <v>46</v>
       </c>
-      <c r="T9" s="445" t="s">
+      <c r="T9" s="461" t="s">
         <v>86</v>
       </c>
-      <c r="U9" s="572" t="s">
+      <c r="U9" s="581" t="s">
         <v>54</v>
       </c>
-      <c r="V9" s="573"/>
-      <c r="W9" s="495" t="s">
+      <c r="V9" s="582"/>
+      <c r="W9" s="538" t="s">
         <v>106</v>
       </c>
-      <c r="X9" s="495" t="s">
+      <c r="X9" s="538" t="s">
         <v>91</v>
       </c>
-      <c r="Y9" s="495" t="s">
+      <c r="Y9" s="538" t="s">
         <v>92</v>
       </c>
-      <c r="Z9" s="582" t="s">
+      <c r="Z9" s="572" t="s">
         <v>107</v>
       </c>
-      <c r="AA9" s="495" t="s">
+      <c r="AA9" s="538" t="s">
         <v>94</v>
       </c>
-      <c r="AB9" s="495" t="s">
+      <c r="AB9" s="538" t="s">
         <v>95</v>
       </c>
       <c r="AC9" s="78" t="s">
@@ -21915,23 +21915,23 @@
       <c r="AD9" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="AE9" s="578" t="s">
+      <c r="AE9" s="569" t="s">
         <v>68</v>
       </c>
-      <c r="AF9" s="578" t="s">
+      <c r="AF9" s="569" t="s">
         <v>69</v>
       </c>
-      <c r="AG9" s="517"/>
-      <c r="AH9" s="555"/>
-      <c r="AI9" s="555"/>
-      <c r="AJ9" s="423"/>
-      <c r="AK9" s="587"/>
-      <c r="AL9" s="587"/>
-      <c r="AM9" s="471"/>
+      <c r="AG9" s="532"/>
+      <c r="AH9" s="552"/>
+      <c r="AI9" s="552"/>
+      <c r="AJ9" s="436"/>
+      <c r="AK9" s="561"/>
+      <c r="AL9" s="561"/>
+      <c r="AM9" s="420"/>
     </row>
     <row r="10" spans="1:39" ht="40.5" customHeight="1">
-      <c r="A10" s="571"/>
-      <c r="B10" s="442"/>
+      <c r="A10" s="580"/>
+      <c r="B10" s="458"/>
       <c r="C10" s="79" t="s">
         <v>45</v>
       </c>
@@ -21941,48 +21941,48 @@
       <c r="E10" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="454"/>
-      <c r="G10" s="457"/>
-      <c r="H10" s="476"/>
-      <c r="I10" s="478"/>
-      <c r="J10" s="480"/>
-      <c r="K10" s="476"/>
-      <c r="L10" s="480"/>
-      <c r="M10" s="476"/>
-      <c r="N10" s="476"/>
-      <c r="O10" s="483"/>
-      <c r="P10" s="556"/>
-      <c r="Q10" s="584"/>
-      <c r="R10" s="581"/>
-      <c r="S10" s="584"/>
-      <c r="T10" s="448"/>
+      <c r="F10" s="470"/>
+      <c r="G10" s="473"/>
+      <c r="H10" s="427"/>
+      <c r="I10" s="429"/>
+      <c r="J10" s="431"/>
+      <c r="K10" s="427"/>
+      <c r="L10" s="431"/>
+      <c r="M10" s="427"/>
+      <c r="N10" s="427"/>
+      <c r="O10" s="434"/>
+      <c r="P10" s="553"/>
+      <c r="Q10" s="554"/>
+      <c r="R10" s="571"/>
+      <c r="S10" s="554"/>
+      <c r="T10" s="464"/>
       <c r="U10" s="80" t="s">
         <v>68</v>
       </c>
       <c r="V10" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="W10" s="496"/>
-      <c r="X10" s="496"/>
-      <c r="Y10" s="496"/>
-      <c r="Z10" s="583"/>
-      <c r="AA10" s="496"/>
-      <c r="AB10" s="496"/>
+      <c r="W10" s="539"/>
+      <c r="X10" s="539"/>
+      <c r="Y10" s="539"/>
+      <c r="Z10" s="573"/>
+      <c r="AA10" s="539"/>
+      <c r="AB10" s="539"/>
       <c r="AC10" s="77" t="s">
         <v>98</v>
       </c>
       <c r="AD10" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="AE10" s="579"/>
-      <c r="AF10" s="579"/>
-      <c r="AG10" s="514"/>
-      <c r="AH10" s="556"/>
-      <c r="AI10" s="556"/>
-      <c r="AJ10" s="424"/>
-      <c r="AK10" s="588"/>
-      <c r="AL10" s="588"/>
-      <c r="AM10" s="472"/>
+      <c r="AE10" s="570"/>
+      <c r="AF10" s="570"/>
+      <c r="AG10" s="527"/>
+      <c r="AH10" s="553"/>
+      <c r="AI10" s="553"/>
+      <c r="AJ10" s="437"/>
+      <c r="AK10" s="562"/>
+      <c r="AL10" s="562"/>
+      <c r="AM10" s="421"/>
     </row>
     <row r="11" spans="1:39" ht="19.5" customHeight="1">
       <c r="A11" s="262"/>
@@ -28589,40 +28589,40 @@
       <c r="A172" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B172" s="551" t="e">
+      <c r="B172" s="591" t="e">
         <f>'Fr-01'!C45:E45</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C172" s="491"/>
-      <c r="D172" s="491"/>
-      <c r="E172" s="553"/>
+      <c r="C172" s="549"/>
+      <c r="D172" s="549"/>
+      <c r="E172" s="593"/>
       <c r="F172" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="G172" s="551" t="str">
+      <c r="G172" s="591" t="str">
         <f>'Fr-01'!I45</f>
         <v>วันที่ผู้ทวนสอบตรวจเสร็จ</v>
       </c>
-      <c r="H172" s="491"/>
-      <c r="I172" s="491"/>
-      <c r="J172" s="491"/>
-      <c r="K172" s="491"/>
-      <c r="L172" s="491"/>
-      <c r="M172" s="491"/>
-      <c r="N172" s="553"/>
+      <c r="H172" s="549"/>
+      <c r="I172" s="549"/>
+      <c r="J172" s="549"/>
+      <c r="K172" s="549"/>
+      <c r="L172" s="549"/>
+      <c r="M172" s="549"/>
+      <c r="N172" s="593"/>
       <c r="O172" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="P172" s="551" t="str">
+      <c r="P172" s="591" t="str">
         <f>'Fr-01'!L45</f>
         <v>กรณีที่ อบก. ให้แก้ไขเพิ่มเติม</v>
       </c>
-      <c r="Q172" s="552"/>
-      <c r="R172" s="552"/>
-      <c r="S172" s="552"/>
-      <c r="T172" s="552"/>
-      <c r="U172" s="552"/>
-      <c r="V172" s="552"/>
+      <c r="Q172" s="592"/>
+      <c r="R172" s="592"/>
+      <c r="S172" s="592"/>
+      <c r="T172" s="592"/>
+      <c r="U172" s="592"/>
+      <c r="V172" s="592"/>
       <c r="W172" s="119"/>
       <c r="X172" s="81"/>
       <c r="Y172" s="81"/>
@@ -28737,6 +28737,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="P172:V172"/>
+    <mergeCell ref="G172:N172"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="O2:V2"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:V4"/>
+    <mergeCell ref="B5:V5"/>
+    <mergeCell ref="A6:V6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:E9"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="AE7:AF8"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="T9:T10"/>
     <mergeCell ref="AM7:AM10"/>
     <mergeCell ref="AJ7:AJ10"/>
     <mergeCell ref="AH7:AH10"/>
@@ -28753,46 +28793,6 @@
     <mergeCell ref="Q9:Q10"/>
     <mergeCell ref="AG7:AG10"/>
     <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="AE7:AF8"/>
-    <mergeCell ref="AF9:AF10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:V4"/>
-    <mergeCell ref="B5:V5"/>
-    <mergeCell ref="A6:V6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:E9"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="O2:V2"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="P172:V172"/>
-    <mergeCell ref="G172:N172"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="M8:M10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="J8:L8"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
@@ -28832,7 +28832,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="600">
+      <c r="A1" s="594">
         <v>4.4000000000000004</v>
       </c>
       <c r="B1" s="125" t="s">
@@ -28850,10 +28850,10 @@
       <c r="J1" s="84"/>
       <c r="K1" s="84"/>
       <c r="L1" s="84"/>
-      <c r="M1" s="535" t="s">
+      <c r="M1" s="506" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="536"/>
+      <c r="N1" s="507"/>
       <c r="O1" s="155"/>
       <c r="P1" s="131"/>
       <c r="Q1" s="132"/>
@@ -28861,7 +28861,7 @@
       <c r="S1" s="134"/>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="566"/>
+      <c r="A2" s="575"/>
       <c r="B2" s="51" t="s">
         <v>7</v>
       </c>
@@ -28888,7 +28888,7 @@
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="566"/>
+      <c r="A3" s="575"/>
       <c r="B3" s="55" t="s">
         <v>8</v>
       </c>
@@ -28910,50 +28910,50 @@
       <c r="S3" s="136"/>
     </row>
     <row r="4" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A4" s="601" t="s">
+      <c r="A4" s="595" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="603" t="s">
+      <c r="B4" s="597" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="387"/>
-      <c r="D4" s="387"/>
-      <c r="E4" s="387"/>
-      <c r="F4" s="387"/>
-      <c r="G4" s="387"/>
-      <c r="H4" s="387"/>
-      <c r="I4" s="387"/>
-      <c r="J4" s="387"/>
-      <c r="K4" s="387"/>
-      <c r="L4" s="387"/>
-      <c r="M4" s="387"/>
-      <c r="N4" s="387"/>
-      <c r="O4" s="387"/>
-      <c r="P4" s="387"/>
-      <c r="Q4" s="387"/>
-      <c r="R4" s="387"/>
-      <c r="S4" s="604"/>
+      <c r="C4" s="363"/>
+      <c r="D4" s="363"/>
+      <c r="E4" s="363"/>
+      <c r="F4" s="363"/>
+      <c r="G4" s="363"/>
+      <c r="H4" s="363"/>
+      <c r="I4" s="363"/>
+      <c r="J4" s="363"/>
+      <c r="K4" s="363"/>
+      <c r="L4" s="363"/>
+      <c r="M4" s="363"/>
+      <c r="N4" s="363"/>
+      <c r="O4" s="363"/>
+      <c r="P4" s="363"/>
+      <c r="Q4" s="363"/>
+      <c r="R4" s="363"/>
+      <c r="S4" s="598"/>
     </row>
     <row r="5" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A5" s="602"/>
-      <c r="B5" s="605"/>
-      <c r="C5" s="606"/>
-      <c r="D5" s="606"/>
-      <c r="E5" s="606"/>
-      <c r="F5" s="606"/>
-      <c r="G5" s="606"/>
-      <c r="H5" s="606"/>
-      <c r="I5" s="606"/>
-      <c r="J5" s="606"/>
-      <c r="K5" s="606"/>
-      <c r="L5" s="606"/>
-      <c r="M5" s="606"/>
-      <c r="N5" s="606"/>
-      <c r="O5" s="606"/>
-      <c r="P5" s="606"/>
-      <c r="Q5" s="606"/>
-      <c r="R5" s="606"/>
-      <c r="S5" s="607"/>
+      <c r="A5" s="596"/>
+      <c r="B5" s="599"/>
+      <c r="C5" s="600"/>
+      <c r="D5" s="600"/>
+      <c r="E5" s="600"/>
+      <c r="F5" s="600"/>
+      <c r="G5" s="600"/>
+      <c r="H5" s="600"/>
+      <c r="I5" s="600"/>
+      <c r="J5" s="600"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="600"/>
+      <c r="M5" s="600"/>
+      <c r="N5" s="600"/>
+      <c r="O5" s="600"/>
+      <c r="P5" s="600"/>
+      <c r="Q5" s="600"/>
+      <c r="R5" s="600"/>
+      <c r="S5" s="601"/>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="137"/>
@@ -28977,48 +28977,48 @@
       <c r="S6" s="138"/>
     </row>
     <row r="7" spans="1:19" s="62" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A7" s="608" t="s">
+      <c r="A7" s="602" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="609"/>
-      <c r="C7" s="612" t="s">
+      <c r="B7" s="603"/>
+      <c r="C7" s="606" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="622" t="s">
+      <c r="D7" s="617" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="624" t="s">
+      <c r="E7" s="619" t="s">
         <v>111</v>
       </c>
-      <c r="F7" s="618" t="s">
+      <c r="F7" s="612" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="620" t="s">
+      <c r="G7" s="614" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="616" t="s">
+      <c r="H7" s="610" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="617"/>
-      <c r="J7" s="616" t="s">
+      <c r="I7" s="611"/>
+      <c r="J7" s="610" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="617"/>
-      <c r="L7" s="597" t="s">
+      <c r="K7" s="611"/>
+      <c r="L7" s="616" t="s">
         <v>115</v>
       </c>
-      <c r="M7" s="597"/>
-      <c r="N7" s="597" t="s">
+      <c r="M7" s="616"/>
+      <c r="N7" s="616" t="s">
         <v>116</v>
       </c>
-      <c r="O7" s="597"/>
-      <c r="P7" s="614" t="s">
+      <c r="O7" s="616"/>
+      <c r="P7" s="608" t="s">
         <v>117</v>
       </c>
-      <c r="Q7" s="614" t="s">
+      <c r="Q7" s="608" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="598" t="s">
+      <c r="R7" s="624" t="s">
         <v>58</v>
       </c>
       <c r="S7" s="139" t="s">
@@ -29026,13 +29026,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="62" customFormat="1">
-      <c r="A8" s="610"/>
-      <c r="B8" s="611"/>
-      <c r="C8" s="613"/>
-      <c r="D8" s="623"/>
-      <c r="E8" s="625"/>
-      <c r="F8" s="619"/>
-      <c r="G8" s="621"/>
+      <c r="A8" s="604"/>
+      <c r="B8" s="605"/>
+      <c r="C8" s="607"/>
+      <c r="D8" s="618"/>
+      <c r="E8" s="620"/>
+      <c r="F8" s="613"/>
+      <c r="G8" s="615"/>
       <c r="H8" s="121" t="s">
         <v>118</v>
       </c>
@@ -29057,9 +29057,9 @@
       <c r="O8" s="120" t="s">
         <v>123</v>
       </c>
-      <c r="P8" s="615"/>
-      <c r="Q8" s="615"/>
-      <c r="R8" s="599"/>
+      <c r="P8" s="609"/>
+      <c r="Q8" s="609"/>
+      <c r="R8" s="625"/>
       <c r="S8" s="140" t="s">
         <v>124</v>
       </c>
@@ -29516,40 +29516,46 @@
       <c r="A30" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="464" t="e">
+      <c r="B30" s="413" t="e">
         <f>'Fr-01'!C45:E45</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C30" s="465"/>
-      <c r="D30" s="465"/>
-      <c r="E30" s="465"/>
-      <c r="F30" s="465"/>
-      <c r="G30" s="465"/>
-      <c r="H30" s="465"/>
-      <c r="I30" s="594" t="s">
+      <c r="C30" s="414"/>
+      <c r="D30" s="414"/>
+      <c r="E30" s="414"/>
+      <c r="F30" s="414"/>
+      <c r="G30" s="414"/>
+      <c r="H30" s="414"/>
+      <c r="I30" s="621" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="553"/>
-      <c r="K30" s="595" t="str">
+      <c r="J30" s="593"/>
+      <c r="K30" s="622" t="str">
         <f>'Fr-01'!I45</f>
         <v>วันที่ผู้ทวนสอบตรวจเสร็จ</v>
       </c>
-      <c r="L30" s="468"/>
-      <c r="M30" s="468"/>
-      <c r="N30" s="469"/>
+      <c r="L30" s="417"/>
+      <c r="M30" s="417"/>
+      <c r="N30" s="418"/>
       <c r="O30" s="145" t="s">
         <v>30</v>
       </c>
       <c r="P30" s="146"/>
-      <c r="Q30" s="461" t="str">
+      <c r="Q30" s="410" t="str">
         <f>'Fr-01'!L45</f>
         <v>กรณีที่ อบก. ให้แก้ไขเพิ่มเติม</v>
       </c>
-      <c r="R30" s="468"/>
-      <c r="S30" s="596"/>
+      <c r="R30" s="417"/>
+      <c r="S30" s="623"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="R7:R8"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:S4"/>
@@ -29566,12 +29572,6 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="R7:R8"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="เลือกประเภทการใช้พื้นที่" sqref="M9:M27 O9:O27" xr:uid="{24553045-8D66-4394-BAD5-3A5B83CF336C}">
@@ -29588,8 +29588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2F2D0C-FAE0-4A35-AB1D-4FF984D6E474}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
@@ -29604,258 +29604,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="565">
+      <c r="A1" s="574">
         <v>5</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="561" t="s">
+      <c r="C1" s="587" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="562"/>
-      <c r="E1" s="562"/>
-      <c r="F1" s="628"/>
+      <c r="D1" s="588"/>
+      <c r="E1" s="588"/>
+      <c r="F1" s="652"/>
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="566"/>
+      <c r="A2" s="575"/>
       <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="629"/>
-      <c r="D2" s="557"/>
-      <c r="E2" s="557"/>
-      <c r="F2" s="558"/>
+      <c r="C2" s="653"/>
+      <c r="D2" s="583"/>
+      <c r="E2" s="583"/>
+      <c r="F2" s="584"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="566"/>
+      <c r="A3" s="575"/>
       <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="626" t="s">
+      <c r="C3" s="650" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="404"/>
-      <c r="E3" s="404"/>
-      <c r="F3" s="627"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="651"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="566"/>
+      <c r="A4" s="575"/>
       <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="626" t="s">
+      <c r="C4" s="650" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="404"/>
-      <c r="E4" s="404"/>
-      <c r="F4" s="627"/>
+      <c r="D4" s="398"/>
+      <c r="E4" s="398"/>
+      <c r="F4" s="651"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="566"/>
+      <c r="A5" s="575"/>
       <c r="B5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="403"/>
-      <c r="D5" s="404"/>
-      <c r="E5" s="404"/>
-      <c r="F5" s="627"/>
+      <c r="C5" s="397"/>
+      <c r="D5" s="398"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="651"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="567"/>
+      <c r="A6" s="576"/>
       <c r="B6" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="403"/>
-      <c r="D6" s="404"/>
-      <c r="E6" s="404"/>
-      <c r="F6" s="627"/>
+      <c r="C6" s="397"/>
+      <c r="D6" s="398"/>
+      <c r="E6" s="398"/>
+      <c r="F6" s="651"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="524" t="s">
+      <c r="A7" s="495" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="631" t="s">
+      <c r="B7" s="638" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="306"/>
-      <c r="D7" s="306"/>
-      <c r="E7" s="306"/>
-      <c r="F7" s="430"/>
+      <c r="C7" s="331"/>
+      <c r="D7" s="331"/>
+      <c r="E7" s="331"/>
+      <c r="F7" s="446"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="630"/>
-      <c r="B8" s="632"/>
-      <c r="C8" s="302"/>
-      <c r="D8" s="302"/>
-      <c r="E8" s="302"/>
-      <c r="F8" s="633"/>
+      <c r="A8" s="637"/>
+      <c r="B8" s="639"/>
+      <c r="C8" s="327"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="327"/>
+      <c r="F8" s="640"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="634"/>
-      <c r="B9" s="635"/>
-      <c r="C9" s="635"/>
-      <c r="D9" s="635"/>
-      <c r="E9" s="635"/>
-      <c r="F9" s="523"/>
+      <c r="A9" s="628"/>
+      <c r="B9" s="629"/>
+      <c r="C9" s="629"/>
+      <c r="D9" s="629"/>
+      <c r="E9" s="629"/>
+      <c r="F9" s="494"/>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A10" s="636" t="s">
+      <c r="A10" s="641" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="522"/>
-      <c r="C10" s="637" t="s">
+      <c r="B10" s="493"/>
+      <c r="C10" s="642" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="508" t="s">
+      <c r="D10" s="520" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="582" t="s">
+      <c r="E10" s="572" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="642" t="s">
+      <c r="F10" s="647" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="636"/>
-      <c r="B11" s="522"/>
-      <c r="C11" s="638"/>
-      <c r="D11" s="640"/>
-      <c r="E11" s="453"/>
-      <c r="F11" s="643"/>
+      <c r="A11" s="641"/>
+      <c r="B11" s="493"/>
+      <c r="C11" s="643"/>
+      <c r="D11" s="645"/>
+      <c r="E11" s="469"/>
+      <c r="F11" s="648"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="636"/>
-      <c r="B12" s="522"/>
-      <c r="C12" s="638"/>
-      <c r="D12" s="640"/>
-      <c r="E12" s="453"/>
-      <c r="F12" s="643"/>
+      <c r="A12" s="641"/>
+      <c r="B12" s="493"/>
+      <c r="C12" s="643"/>
+      <c r="D12" s="645"/>
+      <c r="E12" s="469"/>
+      <c r="F12" s="648"/>
     </row>
     <row r="13" spans="1:6" s="10" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A13" s="636"/>
-      <c r="B13" s="522"/>
-      <c r="C13" s="639"/>
-      <c r="D13" s="641"/>
-      <c r="E13" s="454"/>
-      <c r="F13" s="644"/>
+      <c r="A13" s="641"/>
+      <c r="B13" s="493"/>
+      <c r="C13" s="644"/>
+      <c r="D13" s="646"/>
+      <c r="E13" s="470"/>
+      <c r="F13" s="649"/>
     </row>
     <row r="14" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="647" t="s">
+      <c r="A14" s="630" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="648"/>
-      <c r="C14" s="40" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D14" s="41" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E14" s="42" t="e">
+      <c r="B14" s="631"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42">
         <f>+C14+D14</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F14" s="147" t="e">
         <f t="shared" ref="F14:F19" si="0">E14/E$20%</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="647" t="s">
+      <c r="A15" s="630" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="649"/>
-      <c r="C15" s="40" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="41" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="42" t="e">
+      <c r="B15" s="632"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42">
         <f>+C15+D15</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F15" s="147" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
-      <c r="A16" s="647" t="s">
+      <c r="A16" s="630" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="649"/>
-      <c r="C16" s="40" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="41" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="42" t="e">
+      <c r="B16" s="632"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42">
         <f>+C16+D16</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F16" s="147" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="647" t="s">
+      <c r="A17" s="630" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="649"/>
-      <c r="C17" s="40" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="41" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E17" s="42" t="e">
+      <c r="B17" s="632"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42">
         <f>+C17+D17</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F17" s="147" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="650" t="s">
+      <c r="A18" s="633" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="651"/>
-      <c r="C18" s="70" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D18" s="71" t="e">
-        <f>+#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E18" s="43" t="e">
+      <c r="B18" s="634"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="43">
         <f>+C18+D18</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F18" s="148" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="652" t="s">
+      <c r="A19" s="635" t="s">
         <v>131</v>
       </c>
-      <c r="B19" s="653"/>
+      <c r="B19" s="636"/>
       <c r="C19" s="72"/>
       <c r="D19" s="72"/>
       <c r="E19" s="72">
@@ -29864,38 +29834,38 @@
       </c>
       <c r="F19" s="149" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
-      <c r="A20" s="645" t="s">
+      <c r="A20" s="626" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="646"/>
-      <c r="C20" s="73" t="e">
+      <c r="B20" s="627"/>
+      <c r="C20" s="73">
         <f>SUM(C14:C18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="74" t="e">
+        <v>0</v>
+      </c>
+      <c r="D20" s="74">
         <f>SUM(D14:D18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E20" s="75" t="e">
+        <v>0</v>
+      </c>
+      <c r="E20" s="75">
         <f>SUM(E14:E18)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F20" s="150" t="e">
         <f>SUM(F14:F18)</f>
-        <v>#REF!</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A21" s="634"/>
-      <c r="B21" s="635"/>
-      <c r="C21" s="635"/>
-      <c r="D21" s="635"/>
-      <c r="E21" s="635"/>
-      <c r="F21" s="523"/>
+      <c r="A21" s="628"/>
+      <c r="B21" s="629"/>
+      <c r="C21" s="629"/>
+      <c r="D21" s="629"/>
+      <c r="E21" s="629"/>
+      <c r="F21" s="494"/>
     </row>
     <row r="22" spans="1:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="A22" s="37" t="s">
@@ -29930,14 +29900,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
@@ -29947,13 +29916,14 @@
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="F10:F13"/>
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29978,152 +29948,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="600">
+      <c r="A1" s="594">
         <v>6.1</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="561" t="s">
+      <c r="C1" s="587" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="562"/>
-      <c r="E1" s="562"/>
-      <c r="F1" s="628"/>
+      <c r="D1" s="588"/>
+      <c r="E1" s="588"/>
+      <c r="F1" s="652"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="686"/>
+      <c r="A2" s="654"/>
       <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="626" t="s">
+      <c r="C2" s="650" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="404"/>
-      <c r="E2" s="404"/>
-      <c r="F2" s="627"/>
+      <c r="D2" s="398"/>
+      <c r="E2" s="398"/>
+      <c r="F2" s="651"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="686"/>
+      <c r="A3" s="654"/>
       <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="626" t="s">
+      <c r="C3" s="650" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="404"/>
-      <c r="E3" s="404"/>
-      <c r="F3" s="627"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="651"/>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="686"/>
+      <c r="A4" s="654"/>
       <c r="B4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="403">
+      <c r="C4" s="397">
         <f>'Fr-01'!F5</f>
         <v>0</v>
       </c>
-      <c r="D4" s="404"/>
-      <c r="E4" s="404"/>
-      <c r="F4" s="627"/>
+      <c r="D4" s="398"/>
+      <c r="E4" s="398"/>
+      <c r="F4" s="651"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="687"/>
+      <c r="A5" s="655"/>
       <c r="B5" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="403">
+      <c r="C5" s="397">
         <f>'Fr-01'!F6</f>
         <v>0</v>
       </c>
-      <c r="D5" s="404"/>
-      <c r="E5" s="404"/>
-      <c r="F5" s="627"/>
+      <c r="D5" s="398"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="651"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="524" t="s">
+      <c r="A6" s="495" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="631" t="s">
+      <c r="B6" s="638" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="306"/>
-      <c r="D6" s="306"/>
-      <c r="E6" s="306"/>
-      <c r="F6" s="430"/>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="446"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="691"/>
-      <c r="B7" s="632"/>
-      <c r="C7" s="302"/>
-      <c r="D7" s="302"/>
-      <c r="E7" s="302"/>
-      <c r="F7" s="633"/>
+      <c r="A7" s="659"/>
+      <c r="B7" s="639"/>
+      <c r="C7" s="327"/>
+      <c r="D7" s="327"/>
+      <c r="E7" s="327"/>
+      <c r="F7" s="640"/>
     </row>
     <row r="8" spans="1:6" ht="13.8" thickBot="1">
-      <c r="A8" s="688"/>
-      <c r="B8" s="689"/>
-      <c r="C8" s="689"/>
-      <c r="D8" s="689"/>
-      <c r="E8" s="689"/>
-      <c r="F8" s="690"/>
+      <c r="A8" s="656"/>
+      <c r="B8" s="657"/>
+      <c r="C8" s="657"/>
+      <c r="D8" s="657"/>
+      <c r="E8" s="657"/>
+      <c r="F8" s="658"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A9" s="677" t="s">
+      <c r="A9" s="673" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="678"/>
-      <c r="C9" s="683" t="s">
+      <c r="B9" s="674"/>
+      <c r="C9" s="679" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="685" t="s">
+      <c r="D9" s="681" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="666" t="s">
+      <c r="E9" s="662" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="674" t="s">
+      <c r="F9" s="670" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="679"/>
-      <c r="B10" s="680"/>
-      <c r="C10" s="684"/>
-      <c r="D10" s="509"/>
-      <c r="E10" s="667"/>
-      <c r="F10" s="675"/>
+      <c r="A10" s="675"/>
+      <c r="B10" s="676"/>
+      <c r="C10" s="680"/>
+      <c r="D10" s="521"/>
+      <c r="E10" s="663"/>
+      <c r="F10" s="671"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A11" s="679"/>
-      <c r="B11" s="680"/>
+      <c r="A11" s="675"/>
+      <c r="B11" s="676"/>
       <c r="C11" s="162" t="s">
         <v>138</v>
       </c>
       <c r="D11" s="118" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="667"/>
-      <c r="F11" s="675"/>
+      <c r="E11" s="663"/>
+      <c r="F11" s="671"/>
     </row>
     <row r="12" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="681"/>
-      <c r="B12" s="682"/>
+      <c r="A12" s="677"/>
+      <c r="B12" s="678"/>
       <c r="C12" s="161" t="s">
         <v>139</v>
       </c>
       <c r="D12" s="160" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="668"/>
-      <c r="F12" s="676"/>
+      <c r="E12" s="664"/>
+      <c r="F12" s="672"/>
     </row>
     <row r="13" spans="1:6" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="664" t="s">
+      <c r="A13" s="660" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="665"/>
+      <c r="B13" s="661"/>
       <c r="C13" s="183"/>
       <c r="D13" s="184"/>
       <c r="E13" s="189">
@@ -30136,10 +30106,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1">
-      <c r="A14" s="647" t="s">
+      <c r="A14" s="630" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="649"/>
+      <c r="B14" s="632"/>
       <c r="C14" s="185"/>
       <c r="D14" s="186"/>
       <c r="E14" s="189">
@@ -30152,10 +30122,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1">
-      <c r="A15" s="647" t="s">
+      <c r="A15" s="630" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="649"/>
+      <c r="B15" s="632"/>
       <c r="C15" s="185"/>
       <c r="D15" s="186"/>
       <c r="E15" s="189">
@@ -30168,10 +30138,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1">
-      <c r="A16" s="647" t="s">
+      <c r="A16" s="630" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="649"/>
+      <c r="B16" s="632"/>
       <c r="C16" s="185"/>
       <c r="D16" s="186"/>
       <c r="E16" s="189">
@@ -30184,10 +30154,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="650" t="s">
+      <c r="A17" s="633" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="651"/>
+      <c r="B17" s="634"/>
       <c r="C17" s="187"/>
       <c r="D17" s="188"/>
       <c r="E17" s="189">
@@ -30200,10 +30170,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="652" t="s">
+      <c r="A18" s="635" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="653"/>
+      <c r="B18" s="636"/>
       <c r="C18" s="72"/>
       <c r="D18" s="72"/>
       <c r="E18" s="72">
@@ -30216,10 +30186,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="660" t="s">
+      <c r="A19" s="684" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="661"/>
+      <c r="B19" s="685"/>
       <c r="C19" s="157">
         <f>SUM(C13:C17)</f>
         <v>0</v>
@@ -30238,12 +30208,12 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A20" s="671"/>
-      <c r="B20" s="672"/>
-      <c r="C20" s="672"/>
-      <c r="D20" s="672"/>
-      <c r="E20" s="672"/>
-      <c r="F20" s="673"/>
+      <c r="A20" s="667"/>
+      <c r="B20" s="668"/>
+      <c r="C20" s="668"/>
+      <c r="D20" s="668"/>
+      <c r="E20" s="668"/>
+      <c r="F20" s="669"/>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" thickBot="1">
       <c r="A21" s="83" t="s">
@@ -30284,168 +30254,168 @@
       <c r="B43" s="170" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="669" t="s">
+      <c r="C43" s="665" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="669"/>
-      <c r="E43" s="669" t="s">
+      <c r="D43" s="665"/>
+      <c r="E43" s="665" t="s">
         <v>144</v>
       </c>
-      <c r="F43" s="670"/>
+      <c r="F43" s="666"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="168"/>
       <c r="B44" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="662"/>
-      <c r="D44" s="662"/>
-      <c r="E44" s="662"/>
-      <c r="F44" s="663"/>
+      <c r="C44" s="686"/>
+      <c r="D44" s="686"/>
+      <c r="E44" s="686"/>
+      <c r="F44" s="687"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="164"/>
       <c r="B45" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="654"/>
-      <c r="D45" s="654"/>
-      <c r="E45" s="654"/>
-      <c r="F45" s="655"/>
+      <c r="C45" s="682"/>
+      <c r="D45" s="682"/>
+      <c r="E45" s="682"/>
+      <c r="F45" s="683"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="164"/>
       <c r="B46" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="654"/>
-      <c r="D46" s="654"/>
-      <c r="E46" s="654"/>
-      <c r="F46" s="655"/>
+      <c r="C46" s="682"/>
+      <c r="D46" s="682"/>
+      <c r="E46" s="682"/>
+      <c r="F46" s="683"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="164"/>
       <c r="B47" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="C47" s="654"/>
-      <c r="D47" s="654"/>
-      <c r="E47" s="654"/>
-      <c r="F47" s="655"/>
+      <c r="C47" s="682"/>
+      <c r="D47" s="682"/>
+      <c r="E47" s="682"/>
+      <c r="F47" s="683"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="165"/>
       <c r="B48" s="163" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="654"/>
-      <c r="D48" s="654"/>
-      <c r="E48" s="654"/>
-      <c r="F48" s="655"/>
+      <c r="C48" s="682"/>
+      <c r="D48" s="682"/>
+      <c r="E48" s="682"/>
+      <c r="F48" s="683"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="164"/>
       <c r="B49" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="C49" s="654"/>
-      <c r="D49" s="654"/>
-      <c r="E49" s="654"/>
-      <c r="F49" s="655"/>
+      <c r="C49" s="682"/>
+      <c r="D49" s="682"/>
+      <c r="E49" s="682"/>
+      <c r="F49" s="683"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="164"/>
       <c r="B50" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="654"/>
-      <c r="D50" s="654"/>
-      <c r="E50" s="654"/>
-      <c r="F50" s="655"/>
+      <c r="C50" s="682"/>
+      <c r="D50" s="682"/>
+      <c r="E50" s="682"/>
+      <c r="F50" s="683"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="164"/>
       <c r="B51" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="C51" s="654"/>
-      <c r="D51" s="654"/>
-      <c r="E51" s="654"/>
-      <c r="F51" s="655"/>
+      <c r="C51" s="682"/>
+      <c r="D51" s="682"/>
+      <c r="E51" s="682"/>
+      <c r="F51" s="683"/>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="164"/>
       <c r="B52" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="654"/>
-      <c r="D52" s="654"/>
-      <c r="E52" s="654"/>
-      <c r="F52" s="655"/>
+      <c r="C52" s="682"/>
+      <c r="D52" s="682"/>
+      <c r="E52" s="682"/>
+      <c r="F52" s="683"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="164"/>
       <c r="B53" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="654"/>
-      <c r="D53" s="654"/>
-      <c r="E53" s="658"/>
-      <c r="F53" s="659"/>
+      <c r="C53" s="682"/>
+      <c r="D53" s="682"/>
+      <c r="E53" s="688"/>
+      <c r="F53" s="689"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="164"/>
       <c r="B54" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="C54" s="654"/>
-      <c r="D54" s="654"/>
-      <c r="E54" s="654"/>
-      <c r="F54" s="655"/>
+      <c r="C54" s="682"/>
+      <c r="D54" s="682"/>
+      <c r="E54" s="682"/>
+      <c r="F54" s="683"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="164"/>
       <c r="B55" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="C55" s="654"/>
-      <c r="D55" s="654"/>
-      <c r="E55" s="654"/>
-      <c r="F55" s="655"/>
+      <c r="C55" s="682"/>
+      <c r="D55" s="682"/>
+      <c r="E55" s="682"/>
+      <c r="F55" s="683"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="164"/>
       <c r="B56" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="C56" s="654"/>
-      <c r="D56" s="654"/>
-      <c r="E56" s="654"/>
-      <c r="F56" s="655"/>
+      <c r="C56" s="682"/>
+      <c r="D56" s="682"/>
+      <c r="E56" s="682"/>
+      <c r="F56" s="683"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="164"/>
       <c r="B57" s="65"/>
-      <c r="C57" s="654"/>
-      <c r="D57" s="654"/>
-      <c r="E57" s="654"/>
-      <c r="F57" s="655"/>
+      <c r="C57" s="682"/>
+      <c r="D57" s="682"/>
+      <c r="E57" s="682"/>
+      <c r="F57" s="683"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="164"/>
       <c r="B58" s="65"/>
-      <c r="C58" s="654"/>
-      <c r="D58" s="654"/>
-      <c r="E58" s="654"/>
-      <c r="F58" s="655"/>
+      <c r="C58" s="682"/>
+      <c r="D58" s="682"/>
+      <c r="E58" s="682"/>
+      <c r="F58" s="683"/>
     </row>
     <row r="59" spans="1:6" ht="13.8" thickBot="1">
       <c r="A59" s="166"/>
       <c r="B59" s="167"/>
-      <c r="C59" s="656"/>
-      <c r="D59" s="656"/>
-      <c r="E59" s="656"/>
-      <c r="F59" s="657"/>
+      <c r="C59" s="690"/>
+      <c r="D59" s="690"/>
+      <c r="E59" s="690"/>
+      <c r="F59" s="691"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="191" t="s">
@@ -30457,16 +30427,39 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="C43:D43"/>
@@ -30481,39 +30474,16 @@
     <mergeCell ref="A9:B12"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
